--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanlindbloom/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177E9476-D115-D042-B61E-A7B0D94C0F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C3C7D-386D-4C35-A42B-1D4457C0E6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="15380" yWindow="-2320" windowWidth="21600" windowHeight="11073" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>Two students, both living off campus (2)</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>OnOffStudent</t>
   </si>
 </sst>
 </file>
@@ -465,21 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:E126"/>
+  <dimension ref="A1:G160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="2" width="34.1640625" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="91.1640625" customWidth="1"/>
+    <col min="1" max="1" width="25.875" customWidth="1"/>
+    <col min="2" max="2" width="34.125" customWidth="1"/>
+    <col min="3" max="3" width="24.875" customWidth="1"/>
+    <col min="4" max="4" width="123.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -495,8 +501,14 @@
       <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20">
+      <c r="F1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.25">
       <c r="A2" s="1">
         <v>44071</v>
       </c>
@@ -512,8 +524,14 @@
       <c r="E2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="20">
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="20.25">
       <c r="A3" s="1">
         <v>44071</v>
       </c>
@@ -529,8 +547,14 @@
       <c r="E3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="20">
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="20.25">
       <c r="A4" s="1">
         <v>44071</v>
       </c>
@@ -546,8 +570,14 @@
       <c r="E4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="20">
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="20.25">
       <c r="A5" s="1">
         <v>44071</v>
       </c>
@@ -563,8 +593,14 @@
       <c r="E5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20">
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25">
       <c r="A6" s="1">
         <v>44071</v>
       </c>
@@ -580,8 +616,14 @@
       <c r="E6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="20">
+      <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.25">
       <c r="A7" s="1">
         <v>44071</v>
       </c>
@@ -597,8 +639,14 @@
       <c r="E7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="20">
+      <c r="F7" s="3">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.25">
       <c r="A8" s="1">
         <v>44071</v>
       </c>
@@ -614,8 +662,14 @@
       <c r="E8" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="20">
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25">
       <c r="A9" s="1">
         <v>44071</v>
       </c>
@@ -631,8 +685,14 @@
       <c r="E9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="20">
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.25">
       <c r="A10" s="1">
         <v>44071</v>
       </c>
@@ -648,8 +708,14 @@
       <c r="E10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="20">
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25">
       <c r="A11" s="1">
         <v>44071</v>
       </c>
@@ -665,8 +731,14 @@
       <c r="E11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="20">
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.25">
       <c r="A12" s="1">
         <v>44071</v>
       </c>
@@ -682,8 +754,14 @@
       <c r="E12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="20">
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.25">
       <c r="A13" s="1">
         <v>44071</v>
       </c>
@@ -699,8 +777,14 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="20">
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25">
       <c r="A14" s="1">
         <v>44070</v>
       </c>
@@ -716,8 +800,14 @@
       <c r="E14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="20">
+      <c r="F14" s="3">
+        <v>1</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="20.25">
       <c r="A15" s="1">
         <v>44070</v>
       </c>
@@ -733,8 +823,14 @@
       <c r="E15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="20">
+      <c r="F15" s="3">
+        <v>1</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.25">
       <c r="A16" s="1">
         <v>44070</v>
       </c>
@@ -750,8 +846,14 @@
       <c r="E16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="20">
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="20.25">
       <c r="A17" s="1">
         <v>44070</v>
       </c>
@@ -767,8 +869,14 @@
       <c r="E17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="20">
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25">
       <c r="A18" s="1">
         <v>44070</v>
       </c>
@@ -784,8 +892,14 @@
       <c r="E18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="20">
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="20.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -801,8 +915,14 @@
       <c r="E19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="20">
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="20.25">
       <c r="A20" s="1">
         <v>44070</v>
       </c>
@@ -818,8 +938,14 @@
       <c r="E20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="20">
+      <c r="F20" s="3">
+        <v>1</v>
+      </c>
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="20.25">
       <c r="A21" s="1">
         <v>44070</v>
       </c>
@@ -835,8 +961,14 @@
       <c r="E21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="20">
+      <c r="F21" s="3">
+        <v>1</v>
+      </c>
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="20.25">
       <c r="A22" s="1">
         <v>44070</v>
       </c>
@@ -852,8 +984,14 @@
       <c r="E22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="20">
+      <c r="F22" s="3">
+        <v>1</v>
+      </c>
+      <c r="G22" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="20.25">
       <c r="A23" s="1">
         <v>44070</v>
       </c>
@@ -869,8 +1007,14 @@
       <c r="E23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="20">
+      <c r="F23" s="3">
+        <v>1</v>
+      </c>
+      <c r="G23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="20.25">
       <c r="A24" s="1">
         <v>44070</v>
       </c>
@@ -886,8 +1030,14 @@
       <c r="E24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="20">
+      <c r="F24" s="3">
+        <v>1</v>
+      </c>
+      <c r="G24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="20.25">
       <c r="A25" s="1">
         <v>44069</v>
       </c>
@@ -903,8 +1053,14 @@
       <c r="E25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="20">
+      <c r="F25" s="3">
+        <v>1</v>
+      </c>
+      <c r="G25" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="20.25">
       <c r="A26" s="1">
         <v>44069</v>
       </c>
@@ -920,8 +1076,14 @@
       <c r="E26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="20">
+      <c r="F26" s="3">
+        <v>1</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="20.25">
       <c r="A27" s="1">
         <v>44069</v>
       </c>
@@ -937,8 +1099,14 @@
       <c r="E27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="20">
+      <c r="F27" s="3">
+        <v>1</v>
+      </c>
+      <c r="G27" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.25">
       <c r="A28" s="1">
         <v>44069</v>
       </c>
@@ -954,8 +1122,14 @@
       <c r="E28" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="20">
+      <c r="F28" s="3">
+        <v>1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="20.25">
       <c r="A29" s="1">
         <v>44069</v>
       </c>
@@ -971,8 +1145,14 @@
       <c r="E29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="20">
+      <c r="F29" s="3">
+        <v>1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="20.25">
       <c r="A30" s="1">
         <v>44069</v>
       </c>
@@ -988,8 +1168,14 @@
       <c r="E30" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="20">
+      <c r="F30" s="3">
+        <v>1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20.25">
       <c r="A31" s="1">
         <v>44069</v>
       </c>
@@ -1005,8 +1191,14 @@
       <c r="E31" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="20">
+      <c r="F31" s="3">
+        <v>1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="20.25">
       <c r="A32" s="1">
         <v>44069</v>
       </c>
@@ -1022,8 +1214,14 @@
       <c r="E32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="20">
+      <c r="F32" s="3">
+        <v>1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="20.25">
       <c r="A33" s="1">
         <v>44069</v>
       </c>
@@ -1039,8 +1237,14 @@
       <c r="E33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="20">
+      <c r="F33" s="3">
+        <v>1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="20.25">
       <c r="A34" s="1">
         <v>44069</v>
       </c>
@@ -1056,8 +1260,14 @@
       <c r="E34" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="20">
+      <c r="F34" s="3">
+        <v>1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.25">
       <c r="A35" s="1">
         <v>44069</v>
       </c>
@@ -1073,8 +1283,14 @@
       <c r="E35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="20">
+      <c r="F35" s="3">
+        <v>1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="20.25">
       <c r="A36" s="1">
         <v>44069</v>
       </c>
@@ -1090,8 +1306,14 @@
       <c r="E36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="20">
+      <c r="F36" s="3">
+        <v>1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="20.25">
       <c r="A37" s="1">
         <v>44069</v>
       </c>
@@ -1107,8 +1329,14 @@
       <c r="E37" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="20">
+      <c r="F37" s="3">
+        <v>1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="20.25">
       <c r="A38" s="1">
         <v>44064</v>
       </c>
@@ -1124,8 +1352,14 @@
       <c r="E38" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="20">
+      <c r="F38" s="3">
+        <v>0</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="20.25">
       <c r="A39" s="1">
         <v>44063</v>
       </c>
@@ -1141,8 +1375,14 @@
       <c r="E39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="20">
+      <c r="F39" s="3">
+        <v>1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="20.25">
       <c r="A40" s="1">
         <v>44063</v>
       </c>
@@ -1156,10 +1396,16 @@
         <v>5</v>
       </c>
       <c r="E40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F40" s="3">
+        <v>1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="20.25">
       <c r="A41" s="1">
         <v>44063</v>
       </c>
@@ -1173,10 +1419,16 @@
         <v>5</v>
       </c>
       <c r="E41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="20.25">
       <c r="A42" s="1">
         <v>44063</v>
       </c>
@@ -1190,10 +1442,16 @@
         <v>5</v>
       </c>
       <c r="E42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="20.25">
       <c r="A43" s="1">
         <v>44063</v>
       </c>
@@ -1207,10 +1465,16 @@
         <v>5</v>
       </c>
       <c r="E43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <v>1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="20.25">
       <c r="A44" s="1">
         <v>44063</v>
       </c>
@@ -1224,10 +1488,16 @@
         <v>4</v>
       </c>
       <c r="E44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <v>1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="20.25">
       <c r="A45" s="1">
         <v>44061</v>
       </c>
@@ -1241,10 +1511,16 @@
         <v>5</v>
       </c>
       <c r="E45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="20.25">
       <c r="A46" s="1">
         <v>44069</v>
       </c>
@@ -1260,8 +1536,14 @@
       <c r="E46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="20">
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="20.25">
       <c r="A47" s="1">
         <v>44063</v>
       </c>
@@ -1277,8 +1559,14 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="20">
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="20.25">
       <c r="A48" s="1">
         <v>44061</v>
       </c>
@@ -1294,8 +1582,14 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="20">
+      <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="20.25">
       <c r="A49" s="1">
         <v>44061</v>
       </c>
@@ -1311,8 +1605,14 @@
       <c r="E49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="20">
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="20.25">
       <c r="A50" s="1">
         <v>44057</v>
       </c>
@@ -1328,8 +1628,14 @@
       <c r="E50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" ht="20">
+      <c r="F50" s="3">
+        <v>0</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="20.25">
       <c r="A51" s="1">
         <v>44057</v>
       </c>
@@ -1345,8 +1651,14 @@
       <c r="E51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="20">
+      <c r="F51" s="3">
+        <v>1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="20.25">
       <c r="A52" s="1">
         <v>44057</v>
       </c>
@@ -1362,8 +1674,14 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="20">
+      <c r="F52" s="3">
+        <v>1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="20.25">
       <c r="A53" s="1">
         <v>44057</v>
       </c>
@@ -1379,8 +1697,14 @@
       <c r="E53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="20">
+      <c r="F53" s="3">
+        <v>1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="20.25">
       <c r="A54" s="1">
         <v>44055</v>
       </c>
@@ -1396,8 +1720,14 @@
       <c r="E54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="20">
+      <c r="F54" s="3">
+        <v>1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="20.25">
       <c r="A55" s="1">
         <v>44055</v>
       </c>
@@ -1413,8 +1743,14 @@
       <c r="E55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="20">
+      <c r="F55" s="3">
+        <v>1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="20.25">
       <c r="A56" s="1">
         <v>44055</v>
       </c>
@@ -1430,8 +1766,14 @@
       <c r="E56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="20">
+      <c r="F56" s="3">
+        <v>1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="20.25">
       <c r="A57" s="1">
         <v>44055</v>
       </c>
@@ -1447,8 +1789,14 @@
       <c r="E57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="20">
+      <c r="F57" s="3">
+        <v>1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="20.25">
       <c r="A58" s="1">
         <v>44050</v>
       </c>
@@ -1464,8 +1812,14 @@
       <c r="E58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="20">
+      <c r="F58" s="3">
+        <v>0</v>
+      </c>
+      <c r="G58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="20.25">
       <c r="A59" s="1">
         <v>44050</v>
       </c>
@@ -1481,8 +1835,14 @@
       <c r="E59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="20">
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="20.25">
       <c r="A60" s="1">
         <v>44050</v>
       </c>
@@ -1498,8 +1858,14 @@
       <c r="E60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="20">
+      <c r="F60" s="3">
+        <v>1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="20.25">
       <c r="A61" s="1">
         <v>44050</v>
       </c>
@@ -1515,8 +1881,14 @@
       <c r="E61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="20">
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="20.25">
       <c r="A62" s="1">
         <v>44049</v>
       </c>
@@ -1532,8 +1904,14 @@
       <c r="E62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="20">
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="20.25">
       <c r="A63" s="1">
         <v>44049</v>
       </c>
@@ -1549,8 +1927,14 @@
       <c r="E63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="20">
+      <c r="F63" s="3">
+        <v>1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="20.25">
       <c r="A64" s="1">
         <v>44042</v>
       </c>
@@ -1566,8 +1950,14 @@
       <c r="E64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="20">
+      <c r="F64" s="3">
+        <v>0</v>
+      </c>
+      <c r="G64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="20.25">
       <c r="A65" s="1">
         <v>44042</v>
       </c>
@@ -1583,8 +1973,14 @@
       <c r="E65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="20">
+      <c r="F65" s="3">
+        <v>0</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="20.25">
       <c r="A66" s="1">
         <v>44042</v>
       </c>
@@ -1600,8 +1996,14 @@
       <c r="E66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="20">
+      <c r="F66" s="3">
+        <v>0</v>
+      </c>
+      <c r="G66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="20.25">
       <c r="A67" s="1">
         <v>44042</v>
       </c>
@@ -1617,8 +2019,14 @@
       <c r="E67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="20">
+      <c r="F67" s="3">
+        <v>0</v>
+      </c>
+      <c r="G67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="20.25">
       <c r="A68" s="1">
         <v>44040</v>
       </c>
@@ -1634,8 +2042,14 @@
       <c r="E68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="20">
+      <c r="F68" s="3">
+        <v>1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="20.25">
       <c r="A69" s="1">
         <v>44040</v>
       </c>
@@ -1651,8 +2065,14 @@
       <c r="E69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="20">
+      <c r="F69" s="3">
+        <v>1</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="20.25">
       <c r="A70" s="1">
         <v>44040</v>
       </c>
@@ -1668,8 +2088,14 @@
       <c r="E70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="20">
+      <c r="F70" s="3">
+        <v>1</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="20.25">
       <c r="A71" s="1">
         <v>44040</v>
       </c>
@@ -1685,8 +2111,14 @@
       <c r="E71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="20">
+      <c r="F71" s="3">
+        <v>0</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="20.25">
       <c r="A72" s="1">
         <v>44040</v>
       </c>
@@ -1702,8 +2134,14 @@
       <c r="E72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" ht="20">
+      <c r="F72" s="3">
+        <v>0</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="20.25">
       <c r="A73" s="1">
         <v>44036</v>
       </c>
@@ -1719,8 +2157,14 @@
       <c r="E73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" ht="20">
+      <c r="F73" s="3">
+        <v>1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="20.25">
       <c r="A74" s="1">
         <v>44036</v>
       </c>
@@ -1736,8 +2180,14 @@
       <c r="E74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="20">
+      <c r="F74" s="3">
+        <v>1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="20.25">
       <c r="A75" s="1">
         <v>44035</v>
       </c>
@@ -1753,8 +2203,14 @@
       <c r="E75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="20">
+      <c r="F75" s="3">
+        <v>0</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="20.25">
       <c r="A76" s="1">
         <v>44035</v>
       </c>
@@ -1770,8 +2226,14 @@
       <c r="E76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="20">
+      <c r="F76" s="3">
+        <v>1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="20.25">
       <c r="A77" s="1">
         <v>44035</v>
       </c>
@@ -1787,8 +2249,14 @@
       <c r="E77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="20">
+      <c r="F77" s="3">
+        <v>0</v>
+      </c>
+      <c r="G77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="20.25">
       <c r="A78" s="1">
         <v>44027</v>
       </c>
@@ -1804,8 +2272,14 @@
       <c r="E78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" ht="20">
+      <c r="F78" s="3">
+        <v>0</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="20.25">
       <c r="A79" s="1">
         <v>44027</v>
       </c>
@@ -1821,8 +2295,14 @@
       <c r="E79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" ht="20">
+      <c r="F79" s="3">
+        <v>1</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="20.25">
       <c r="A80" s="1">
         <v>44027</v>
       </c>
@@ -1838,8 +2318,14 @@
       <c r="E80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" ht="20">
+      <c r="F80" s="3">
+        <v>1</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.25">
       <c r="A81" s="1">
         <v>44027</v>
       </c>
@@ -1855,8 +2341,14 @@
       <c r="E81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" ht="20">
+      <c r="F81" s="3">
+        <v>1</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20.25">
       <c r="A82" s="1">
         <v>44027</v>
       </c>
@@ -1872,8 +2364,14 @@
       <c r="E82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" ht="20">
+      <c r="F82" s="3">
+        <v>1</v>
+      </c>
+      <c r="G82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20.25">
       <c r="A83" s="1">
         <v>44022</v>
       </c>
@@ -1889,8 +2387,14 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="20">
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20.25">
       <c r="A84" s="1">
         <v>44022</v>
       </c>
@@ -1906,8 +2410,14 @@
       <c r="E84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="20">
+      <c r="F84" s="3">
+        <v>1</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20.25">
       <c r="A85" s="1">
         <v>44022</v>
       </c>
@@ -1923,8 +2433,14 @@
       <c r="E85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="20">
+      <c r="F85" s="3">
+        <v>0</v>
+      </c>
+      <c r="G85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20.25">
       <c r="A86" s="1">
         <v>44021</v>
       </c>
@@ -1940,8 +2456,14 @@
       <c r="E86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="20">
+      <c r="F86" s="3">
+        <v>0</v>
+      </c>
+      <c r="G86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20.25">
       <c r="A87" s="1">
         <v>44021</v>
       </c>
@@ -1957,8 +2479,14 @@
       <c r="E87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="20">
+      <c r="F87" s="3">
+        <v>1</v>
+      </c>
+      <c r="G87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20.25">
       <c r="A88" s="1">
         <v>44021</v>
       </c>
@@ -1974,8 +2502,14 @@
       <c r="E88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="20">
+      <c r="F88" s="3">
+        <v>1</v>
+      </c>
+      <c r="G88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20.25">
       <c r="A89" s="1">
         <v>44021</v>
       </c>
@@ -1991,8 +2525,14 @@
       <c r="E89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="20">
+      <c r="F89" s="3">
+        <v>1</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20.25">
       <c r="A90" s="1">
         <v>44021</v>
       </c>
@@ -2008,8 +2548,14 @@
       <c r="E90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="20">
+      <c r="F90" s="3">
+        <v>1</v>
+      </c>
+      <c r="G90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20.25">
       <c r="A91" s="1">
         <v>44018</v>
       </c>
@@ -2025,8 +2571,14 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="20">
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20.25">
       <c r="A92" s="1">
         <v>44018</v>
       </c>
@@ -2042,8 +2594,14 @@
       <c r="E92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="20">
+      <c r="F92" s="3">
+        <v>0</v>
+      </c>
+      <c r="G92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20.25">
       <c r="A93" s="1">
         <v>44018</v>
       </c>
@@ -2059,8 +2617,14 @@
       <c r="E93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="20">
+      <c r="F93" s="3">
+        <v>0</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="20.25">
       <c r="A94" s="1">
         <v>44018</v>
       </c>
@@ -2076,8 +2640,14 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="20">
+      <c r="F94" s="3">
+        <v>1</v>
+      </c>
+      <c r="G94" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20.25">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -2093,8 +2663,14 @@
       <c r="E95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="20">
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20.25">
       <c r="A96" s="1">
         <v>44018</v>
       </c>
@@ -2110,8 +2686,14 @@
       <c r="E96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="20">
+      <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20.25">
       <c r="A97" s="1">
         <v>44018</v>
       </c>
@@ -2127,8 +2709,14 @@
       <c r="E97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="20">
+      <c r="F97" s="3">
+        <v>0</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20.25">
       <c r="A98" s="1">
         <v>44018</v>
       </c>
@@ -2144,8 +2732,14 @@
       <c r="E98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="20">
+      <c r="F98" s="3">
+        <v>1</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="20.25">
       <c r="A99" s="1">
         <v>44013</v>
       </c>
@@ -2161,8 +2755,14 @@
       <c r="E99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="20">
+      <c r="F99" s="3">
+        <v>0</v>
+      </c>
+      <c r="G99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20.25">
       <c r="A100" s="1">
         <v>44013</v>
       </c>
@@ -2178,8 +2778,14 @@
       <c r="E100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="20">
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="20.25">
       <c r="A101" s="1">
         <v>44011</v>
       </c>
@@ -2195,8 +2801,14 @@
       <c r="E101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="20">
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20.25">
       <c r="A102" s="1">
         <v>44011</v>
       </c>
@@ -2212,8 +2824,14 @@
       <c r="E102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="20">
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="20.25">
       <c r="A103" s="1">
         <v>44011</v>
       </c>
@@ -2229,8 +2847,14 @@
       <c r="E103" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="20">
+      <c r="F103" s="3">
+        <v>1</v>
+      </c>
+      <c r="G103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="20.25">
       <c r="A104" s="1">
         <v>44008</v>
       </c>
@@ -2246,8 +2870,14 @@
       <c r="E104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="20">
+      <c r="F104" s="3">
+        <v>0</v>
+      </c>
+      <c r="G104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20.25">
       <c r="A105" s="1">
         <v>44008</v>
       </c>
@@ -2263,8 +2893,14 @@
       <c r="E105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="20">
+      <c r="F105" s="3">
+        <v>0</v>
+      </c>
+      <c r="G105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20.25">
       <c r="A106" s="1">
         <v>44007</v>
       </c>
@@ -2280,8 +2916,14 @@
       <c r="E106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="20">
+      <c r="F106" s="3">
+        <v>1</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20.25">
       <c r="A107" s="1">
         <v>44006</v>
       </c>
@@ -2297,8 +2939,14 @@
       <c r="E107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="20">
+      <c r="F107" s="3">
+        <v>0</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="20.25">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -2314,8 +2962,14 @@
       <c r="E108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="20">
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="20.25">
       <c r="A109" s="1">
         <v>44005</v>
       </c>
@@ -2331,8 +2985,14 @@
       <c r="E109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="20">
+      <c r="F109" s="3">
+        <v>0</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="20.25">
       <c r="A110" s="1">
         <v>44002</v>
       </c>
@@ -2348,8 +3008,14 @@
       <c r="E110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="20">
+      <c r="F110" s="3">
+        <v>1</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" ht="20.25">
       <c r="A111" s="1">
         <v>44002</v>
       </c>
@@ -2365,8 +3031,14 @@
       <c r="E111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="20">
+      <c r="F111" s="3">
+        <v>1</v>
+      </c>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="20.25">
       <c r="A112" s="1">
         <v>44002</v>
       </c>
@@ -2382,8 +3054,14 @@
       <c r="E112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="20">
+      <c r="F112" s="3">
+        <v>1</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -2399,8 +3077,14 @@
       <c r="E113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="20">
+      <c r="F113" s="3">
+        <v>1</v>
+      </c>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20.25">
       <c r="A114" s="1">
         <v>43999</v>
       </c>
@@ -2416,8 +3100,14 @@
       <c r="E114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="20">
+      <c r="F114" s="3">
+        <v>1</v>
+      </c>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20.25">
       <c r="A115" s="1">
         <v>43999</v>
       </c>
@@ -2433,8 +3123,14 @@
       <c r="E115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="20">
+      <c r="F115" s="3">
+        <v>1</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="20.25">
       <c r="A116" s="1">
         <v>43999</v>
       </c>
@@ -2450,8 +3146,14 @@
       <c r="E116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="20">
+      <c r="F116" s="3">
+        <v>1</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="20.25">
       <c r="A117" s="1">
         <v>43999</v>
       </c>
@@ -2467,8 +3169,14 @@
       <c r="E117" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="20">
+      <c r="F117" s="3">
+        <v>1</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="20.25">
       <c r="A118" s="1">
         <v>43999</v>
       </c>
@@ -2484,8 +3192,14 @@
       <c r="E118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="20">
+      <c r="F118" s="3">
+        <v>1</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="20.25">
       <c r="A119" s="1">
         <v>43998</v>
       </c>
@@ -2501,8 +3215,14 @@
       <c r="E119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="20">
+      <c r="F119" s="3">
+        <v>0</v>
+      </c>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="20.25">
       <c r="A120" s="1">
         <v>43998</v>
       </c>
@@ -2518,8 +3238,14 @@
       <c r="E120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="20">
+      <c r="F120" s="3">
+        <v>1</v>
+      </c>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="20.25">
       <c r="A121" s="1">
         <v>43998</v>
       </c>
@@ -2535,8 +3261,14 @@
       <c r="E121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="20">
+      <c r="F121" s="3">
+        <v>1</v>
+      </c>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="20.25">
       <c r="A122" s="1">
         <v>43998</v>
       </c>
@@ -2552,8 +3284,14 @@
       <c r="E122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="20">
+      <c r="F122" s="3">
+        <v>0</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="20.25">
       <c r="A123" s="1">
         <v>43923</v>
       </c>
@@ -2569,8 +3307,14 @@
       <c r="E123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="20">
+      <c r="F123" s="3">
+        <v>0</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="20.25">
       <c r="A124" s="1">
         <v>43915</v>
       </c>
@@ -2586,8 +3330,14 @@
       <c r="E124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="20">
+      <c r="F124" s="3">
+        <v>1</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" ht="20.25">
       <c r="A125" s="1">
         <v>43915</v>
       </c>
@@ -2603,8 +3353,14 @@
       <c r="E125" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="20">
+      <c r="F125" s="3">
+        <v>1</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="20.25">
       <c r="A126" s="1">
         <v>43915</v>
       </c>
@@ -2620,8 +3376,737 @@
       <c r="E126" s="3">
         <v>0</v>
       </c>
+      <c r="F126" s="3">
+        <v>1</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" ht="20.25">
+      <c r="A127" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B127" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C127" s="1">
+        <v>44069</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="3">
+        <v>1</v>
+      </c>
+      <c r="F127" s="3">
+        <v>1</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="20.25">
+      <c r="A128" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B128" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C128" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="3">
+        <v>1</v>
+      </c>
+      <c r="F128" s="3">
+        <v>1</v>
+      </c>
+      <c r="G128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="20.25">
+      <c r="A129" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B129" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C129" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="3">
+        <v>1</v>
+      </c>
+      <c r="F129" s="3">
+        <v>1</v>
+      </c>
+      <c r="G129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="20.25">
+      <c r="A130" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B130" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C130" s="1">
+        <v>44067</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="3">
+        <v>1</v>
+      </c>
+      <c r="F130" s="3">
+        <v>1</v>
+      </c>
+      <c r="G130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="20.25">
+      <c r="A131" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B131" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C131" s="1">
+        <v>44067</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="3">
+        <v>1</v>
+      </c>
+      <c r="F131" s="3">
+        <v>1</v>
+      </c>
+      <c r="G131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="20.25">
+      <c r="A132" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B132" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C132" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="3">
+        <v>1</v>
+      </c>
+      <c r="F132" s="3">
+        <v>1</v>
+      </c>
+      <c r="G132" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="20.25">
+      <c r="A133" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B133" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="3">
+        <v>1</v>
+      </c>
+      <c r="F133" s="3">
+        <v>1</v>
+      </c>
+      <c r="G133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="20.25">
+      <c r="A134" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B134" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C134" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="3">
+        <v>1</v>
+      </c>
+      <c r="F134" s="3">
+        <v>1</v>
+      </c>
+      <c r="G134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="20.25">
+      <c r="A135" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B135" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C135" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="3">
+        <v>1</v>
+      </c>
+      <c r="F135" s="3">
+        <v>1</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="20.25">
+      <c r="A136" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B136" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C136" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="3">
+        <v>1</v>
+      </c>
+      <c r="F136" s="3">
+        <v>1</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="20.25">
+      <c r="A137" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B137" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C137" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="3">
+        <v>1</v>
+      </c>
+      <c r="F137" s="3">
+        <v>1</v>
+      </c>
+      <c r="G137" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="20.25">
+      <c r="A138" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B138" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C138" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="3">
+        <v>1</v>
+      </c>
+      <c r="F138" s="3">
+        <v>1</v>
+      </c>
+      <c r="G138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="20.25">
+      <c r="A139" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B139" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C139" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="3">
+        <v>1</v>
+      </c>
+      <c r="F139" s="3">
+        <v>1</v>
+      </c>
+      <c r="G139" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="20.25">
+      <c r="A140" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B140" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C140" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="3">
+        <v>1</v>
+      </c>
+      <c r="F140" s="3">
+        <v>1</v>
+      </c>
+      <c r="G140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="20.25">
+      <c r="A141" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B141" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C141" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>1</v>
+      </c>
+      <c r="G141" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="20.25">
+      <c r="A142" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B142" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C142" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="3">
+        <v>1</v>
+      </c>
+      <c r="F142" s="3">
+        <v>1</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="20.25">
+      <c r="A143" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B143" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C143" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="3">
+        <v>1</v>
+      </c>
+      <c r="F143" s="3">
+        <v>1</v>
+      </c>
+      <c r="G143" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="20.25">
+      <c r="A144" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B144" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C144" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="3">
+        <v>1</v>
+      </c>
+      <c r="F144" s="3">
+        <v>1</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" ht="20.25">
+      <c r="A145" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B145" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C145" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="3">
+        <v>1</v>
+      </c>
+      <c r="F145" s="3">
+        <v>1</v>
+      </c>
+      <c r="G145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" ht="20.25">
+      <c r="A146" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B146" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C146" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="3">
+        <v>1</v>
+      </c>
+      <c r="F146" s="3">
+        <v>1</v>
+      </c>
+      <c r="G146" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" ht="20.25">
+      <c r="A147" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B147" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C147" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="3">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <v>1</v>
+      </c>
+      <c r="G147" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="20.25">
+      <c r="A148" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B148" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C148" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="3">
+        <v>1</v>
+      </c>
+      <c r="F148" s="3">
+        <v>1</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" ht="20.25">
+      <c r="A149" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B149" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C149" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="3">
+        <v>1</v>
+      </c>
+      <c r="F149" s="3">
+        <v>1</v>
+      </c>
+      <c r="G149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="20.25">
+      <c r="A150" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B150" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C150" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>1</v>
+      </c>
+      <c r="G150" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" ht="20.25">
+      <c r="A151" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B151" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C151" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="3">
+        <v>1</v>
+      </c>
+      <c r="F151" s="3">
+        <v>1</v>
+      </c>
+      <c r="G151" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" ht="20.25">
+      <c r="A152" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B152" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C152" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="3">
+        <v>1</v>
+      </c>
+      <c r="F152" s="3">
+        <v>1</v>
+      </c>
+      <c r="G152" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="20.25">
+      <c r="A153" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B153" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C153" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="3">
+        <v>1</v>
+      </c>
+      <c r="F153" s="3">
+        <v>0</v>
+      </c>
+      <c r="G153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="20.25">
+      <c r="A154" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B154" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C154" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="3">
+        <v>1</v>
+      </c>
+      <c r="F154" s="3">
+        <v>1</v>
+      </c>
+      <c r="G154" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" ht="20.25">
+      <c r="A155" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B155" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C155" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="3">
+        <v>1</v>
+      </c>
+      <c r="F155" s="3">
+        <v>1</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" ht="20.25">
+      <c r="A156" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B156" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C156" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="3">
+        <v>1</v>
+      </c>
+      <c r="F156" s="3">
+        <v>1</v>
+      </c>
+      <c r="G156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" ht="20.25">
+      <c r="A157" s="1">
+        <v>44073</v>
+      </c>
+      <c r="B157" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C157" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="3">
+        <v>1</v>
+      </c>
+      <c r="F157" s="3">
+        <v>1</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="20.25">
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:7" ht="20.25">
+      <c r="E159" s="3"/>
+    </row>
+    <row r="160" spans="1:7" ht="20.25">
+      <c r="E160" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B6C3C7D-386D-4C35-A42B-1D4457C0E6CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE9E38-9800-4169-9B65-2B19EE0DC950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15380" yWindow="-2320" windowWidth="21600" windowHeight="11073" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="23">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4097,13 +4097,239 @@
       </c>
     </row>
     <row r="158" spans="1:7" ht="20.25">
-      <c r="E158" s="3"/>
+      <c r="A158" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B158" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C158" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E158" s="3">
+        <v>1</v>
+      </c>
+      <c r="F158" s="3">
+        <v>1</v>
+      </c>
+      <c r="G158" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="159" spans="1:7" ht="20.25">
-      <c r="E159" s="3"/>
+      <c r="A159" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B159" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C159" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="3">
+        <v>1</v>
+      </c>
+      <c r="F159" s="3">
+        <v>1</v>
+      </c>
+      <c r="G159" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="1:7" ht="20.25">
-      <c r="E160" s="3"/>
+      <c r="A160" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B160" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C160" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E160" s="3">
+        <v>1</v>
+      </c>
+      <c r="F160" s="3">
+        <v>1</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" ht="20.25">
+      <c r="A161" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B161" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C161" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E161" s="3">
+        <v>1</v>
+      </c>
+      <c r="F161" s="3">
+        <v>1</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" ht="20.25">
+      <c r="A162" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B162" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C162" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E162" s="3">
+        <v>1</v>
+      </c>
+      <c r="F162" s="3">
+        <v>1</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" ht="20.25">
+      <c r="A163" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B163" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C163" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E163" s="3">
+        <v>1</v>
+      </c>
+      <c r="F163" s="3">
+        <v>1</v>
+      </c>
+      <c r="G163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" ht="20.25">
+      <c r="A164" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B164" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C164" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E164" s="3">
+        <v>1</v>
+      </c>
+      <c r="F164" s="3">
+        <v>1</v>
+      </c>
+      <c r="G164" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" ht="20.25">
+      <c r="A165" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B165" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C165" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E165" s="3">
+        <v>1</v>
+      </c>
+      <c r="F165" s="3">
+        <v>1</v>
+      </c>
+      <c r="G165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" ht="20.25">
+      <c r="A166" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B166" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C166" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E166" s="3">
+        <v>1</v>
+      </c>
+      <c r="F166" s="3">
+        <v>1</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="20.25">
+      <c r="A167" s="1">
+        <v>44074</v>
+      </c>
+      <c r="B167" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C167" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E167" s="3">
+        <v>1</v>
+      </c>
+      <c r="F167" s="3">
+        <v>1</v>
+      </c>
+      <c r="G167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="20.25">
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+      <c r="G168" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE9E38-9800-4169-9B65-2B19EE0DC950}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F1CC5-7653-43CB-B044-3D67B92E75E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15380" yWindow="-2320" windowWidth="21600" windowHeight="11073" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="9107" yWindow="-2333" windowWidth="28773" windowHeight="14533" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="23">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:G168"/>
+  <dimension ref="A1:G195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A144" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E169" sqref="E169"/>
+    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E196" sqref="E196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4327,9 +4327,608 @@
       </c>
     </row>
     <row r="168" spans="1:7" ht="20.25">
-      <c r="E168" s="3"/>
-      <c r="F168" s="3"/>
-      <c r="G168" s="3"/>
+      <c r="A168" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B168" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C168" s="1">
+        <v>44069</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E168" s="3">
+        <v>1</v>
+      </c>
+      <c r="F168" s="3">
+        <v>1</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="20.25">
+      <c r="A169" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B169" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C169" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E169" s="3">
+        <v>1</v>
+      </c>
+      <c r="F169" s="3">
+        <v>1</v>
+      </c>
+      <c r="G169" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="20.25">
+      <c r="A170" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B170" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C170" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E170" s="3">
+        <v>1</v>
+      </c>
+      <c r="F170" s="3">
+        <v>1</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" ht="20.25">
+      <c r="A171" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B171" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C171" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E171" s="3">
+        <v>1</v>
+      </c>
+      <c r="F171" s="3">
+        <v>1</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" ht="20.25">
+      <c r="A172" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B172" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C172" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E172" s="3">
+        <v>1</v>
+      </c>
+      <c r="F172" s="3">
+        <v>1</v>
+      </c>
+      <c r="G172" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" ht="20.25">
+      <c r="A173" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B173" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C173" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E173" s="3">
+        <v>1</v>
+      </c>
+      <c r="F173" s="3">
+        <v>1</v>
+      </c>
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" ht="20.25">
+      <c r="A174" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B174" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C174" s="1">
+        <v>44069</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E174" s="3">
+        <v>1</v>
+      </c>
+      <c r="F174" s="3">
+        <v>1</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="20.25">
+      <c r="A175" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B175" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C175" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E175" s="3">
+        <v>1</v>
+      </c>
+      <c r="F175" s="3">
+        <v>1</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" ht="20.25">
+      <c r="A176" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B176" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C176" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E176" s="3">
+        <v>1</v>
+      </c>
+      <c r="F176" s="3">
+        <v>1</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" ht="20.25">
+      <c r="A177" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B177" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C177" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E177" s="3">
+        <v>1</v>
+      </c>
+      <c r="F177" s="3">
+        <v>1</v>
+      </c>
+      <c r="G177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" ht="20.25">
+      <c r="A178" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B178" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C178" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E178" s="3">
+        <v>1</v>
+      </c>
+      <c r="F178" s="3">
+        <v>1</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="20.25">
+      <c r="A179" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B179" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C179" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E179" s="3">
+        <v>1</v>
+      </c>
+      <c r="F179" s="3">
+        <v>1</v>
+      </c>
+      <c r="G179" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" ht="20.25">
+      <c r="A180" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B180" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C180" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E180" s="3">
+        <v>1</v>
+      </c>
+      <c r="F180" s="3">
+        <v>1</v>
+      </c>
+      <c r="G180" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" ht="20.25">
+      <c r="A181" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B181" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C181" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E181" s="3">
+        <v>1</v>
+      </c>
+      <c r="F181" s="3">
+        <v>1</v>
+      </c>
+      <c r="G181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" ht="20.25">
+      <c r="A182" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B182" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C182" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E182" s="3">
+        <v>1</v>
+      </c>
+      <c r="F182" s="3">
+        <v>1</v>
+      </c>
+      <c r="G182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="20.25">
+      <c r="A183" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B183" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C183" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E183" s="3">
+        <v>1</v>
+      </c>
+      <c r="F183" s="3">
+        <v>1</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="20.25">
+      <c r="A184" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B184" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C184" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E184" s="3">
+        <v>1</v>
+      </c>
+      <c r="F184" s="3">
+        <v>1</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" ht="20.25">
+      <c r="A185" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B185" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C185" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E185" s="3">
+        <v>1</v>
+      </c>
+      <c r="F185" s="3">
+        <v>1</v>
+      </c>
+      <c r="G185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" ht="20.25">
+      <c r="A186" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B186" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C186" s="1">
+        <v>44069</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E186" s="3">
+        <v>1</v>
+      </c>
+      <c r="F186" s="3">
+        <v>1</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="20.25">
+      <c r="A187" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B187" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C187" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E187" s="3">
+        <v>1</v>
+      </c>
+      <c r="F187" s="3">
+        <v>1</v>
+      </c>
+      <c r="G187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" ht="20.25">
+      <c r="A188" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B188" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C188" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E188" s="3">
+        <v>1</v>
+      </c>
+      <c r="F188" s="3">
+        <v>1</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" ht="20.25">
+      <c r="A189" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B189" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C189" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E189" s="3">
+        <v>1</v>
+      </c>
+      <c r="F189" s="3">
+        <v>1</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" ht="20.25">
+      <c r="A190" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B190" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C190" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E190" s="3">
+        <v>1</v>
+      </c>
+      <c r="F190" s="3">
+        <v>1</v>
+      </c>
+      <c r="G190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" ht="20.25">
+      <c r="A191" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B191" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C191" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E191" s="3">
+        <v>1</v>
+      </c>
+      <c r="F191" s="3">
+        <v>1</v>
+      </c>
+      <c r="G191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" ht="20.25">
+      <c r="A192" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B192" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C192" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E192" s="3">
+        <v>1</v>
+      </c>
+      <c r="F192" s="3">
+        <v>1</v>
+      </c>
+      <c r="G192" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" ht="20.25">
+      <c r="A193" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B193" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C193" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E193" s="3">
+        <v>1</v>
+      </c>
+      <c r="F193" s="3">
+        <v>1</v>
+      </c>
+      <c r="G193" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" ht="20.25">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:7" ht="20.25">
+      <c r="F195" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E46F1CC5-7653-43CB-B044-3D67B92E75E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AB6E3-3FA4-4728-B1B1-98A0CF575F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9107" yWindow="-2333" windowWidth="28773" windowHeight="14533" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="23">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:G195"/>
+  <dimension ref="A1:G209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E196" sqref="E196"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E217" sqref="E217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1327,7 +1327,7 @@
         <v>4</v>
       </c>
       <c r="E37" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>5</v>
       </c>
       <c r="E39" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F39" s="3">
         <v>1</v>
@@ -4925,10 +4925,372 @@
       </c>
     </row>
     <row r="194" spans="1:7" ht="20.25">
-      <c r="F194" s="3"/>
+      <c r="A194" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B194" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C194" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E194" s="3">
+        <v>1</v>
+      </c>
+      <c r="F194" s="3">
+        <v>1</v>
+      </c>
+      <c r="G194" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="195" spans="1:7" ht="20.25">
-      <c r="F195" s="3"/>
+      <c r="A195" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B195" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C195" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E195" s="3">
+        <v>1</v>
+      </c>
+      <c r="F195" s="3">
+        <v>1</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" ht="20.25">
+      <c r="A196" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B196" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C196" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E196" s="3">
+        <v>1</v>
+      </c>
+      <c r="F196" s="3">
+        <v>1</v>
+      </c>
+      <c r="G196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" ht="20.25">
+      <c r="A197" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B197" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C197" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E197" s="3">
+        <v>1</v>
+      </c>
+      <c r="F197" s="3">
+        <v>1</v>
+      </c>
+      <c r="G197" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" ht="20.25">
+      <c r="A198" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B198" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C198" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E198" s="3">
+        <v>1</v>
+      </c>
+      <c r="F198" s="3">
+        <v>1</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" ht="20.25">
+      <c r="A199" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B199" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C199" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E199" s="3">
+        <v>1</v>
+      </c>
+      <c r="F199" s="3">
+        <v>1</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" ht="20.25">
+      <c r="A200" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B200" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C200" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" s="3">
+        <v>1</v>
+      </c>
+      <c r="F200" s="3">
+        <v>1</v>
+      </c>
+      <c r="G200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" ht="20.25">
+      <c r="A201" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B201" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C201" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" s="3">
+        <v>1</v>
+      </c>
+      <c r="F201" s="3">
+        <v>1</v>
+      </c>
+      <c r="G201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" ht="20.25">
+      <c r="A202" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B202" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C202" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E202" s="3">
+        <v>1</v>
+      </c>
+      <c r="F202" s="3">
+        <v>1</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" ht="20.25">
+      <c r="A203" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B203" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C203" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" s="3">
+        <v>1</v>
+      </c>
+      <c r="F203" s="3">
+        <v>1</v>
+      </c>
+      <c r="G203" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" ht="20.25">
+      <c r="A204" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B204" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C204" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E204" s="3">
+        <v>1</v>
+      </c>
+      <c r="F204" s="3">
+        <v>1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" ht="20.25">
+      <c r="A205" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B205" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C205" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E205" s="3">
+        <v>1</v>
+      </c>
+      <c r="F205" s="3">
+        <v>1</v>
+      </c>
+      <c r="G205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" ht="20.25">
+      <c r="A206" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B206" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C206" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E206" s="3">
+        <v>1</v>
+      </c>
+      <c r="F206" s="3">
+        <v>1</v>
+      </c>
+      <c r="G206" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="20.25">
+      <c r="A207" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B207" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C207" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E207" s="3">
+        <v>1</v>
+      </c>
+      <c r="F207" s="3">
+        <v>1</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" ht="20.25">
+      <c r="A208" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B208" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C208" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E208" s="3">
+        <v>1</v>
+      </c>
+      <c r="F208" s="3">
+        <v>1</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="20.25">
+      <c r="A209" s="1">
+        <v>44076</v>
+      </c>
+      <c r="B209" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C209" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E209" s="3">
+        <v>1</v>
+      </c>
+      <c r="F209" s="3">
+        <v>1</v>
+      </c>
+      <c r="G209" s="3">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58AB6E3-3FA4-4728-B1B1-98A0CF575F5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A819F-4FFE-4B2B-BC5F-E0A185D12A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="23">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -471,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:G209"/>
+  <dimension ref="A1:G246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E217" sqref="E217"/>
+    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="E248" sqref="E248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5292,6 +5292,857 @@
         <v>1</v>
       </c>
     </row>
+    <row r="210" spans="1:7" ht="20.25">
+      <c r="A210" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B210" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C210" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E210" s="3">
+        <v>1</v>
+      </c>
+      <c r="F210" s="3">
+        <v>1</v>
+      </c>
+      <c r="G210" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="20.25">
+      <c r="A211" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B211" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C211" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E211" s="3">
+        <v>1</v>
+      </c>
+      <c r="F211" s="3">
+        <v>1</v>
+      </c>
+      <c r="G211" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="20.25">
+      <c r="A212" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B212" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C212" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E212" s="3">
+        <v>1</v>
+      </c>
+      <c r="F212" s="3">
+        <v>1</v>
+      </c>
+      <c r="G212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="20.25">
+      <c r="A213" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B213" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C213" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E213" s="3">
+        <v>1</v>
+      </c>
+      <c r="F213" s="3">
+        <v>1</v>
+      </c>
+      <c r="G213" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="20.25">
+      <c r="A214" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B214" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C214" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E214" s="3">
+        <v>1</v>
+      </c>
+      <c r="F214" s="3">
+        <v>1</v>
+      </c>
+      <c r="G214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" ht="20.25">
+      <c r="A215" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B215" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C215" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E215" s="3">
+        <v>1</v>
+      </c>
+      <c r="F215" s="3">
+        <v>1</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" ht="20.25">
+      <c r="A216" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B216" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C216" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E216" s="3">
+        <v>1</v>
+      </c>
+      <c r="F216" s="3">
+        <v>1</v>
+      </c>
+      <c r="G216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="20.25">
+      <c r="A217" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B217" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C217" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E217" s="3">
+        <v>1</v>
+      </c>
+      <c r="F217" s="3">
+        <v>1</v>
+      </c>
+      <c r="G217" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="20.25">
+      <c r="A218" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B218" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C218" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E218" s="3">
+        <v>1</v>
+      </c>
+      <c r="F218" s="3">
+        <v>1</v>
+      </c>
+      <c r="G218" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="20.25">
+      <c r="A219" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B219" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C219" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E219" s="3">
+        <v>1</v>
+      </c>
+      <c r="F219" s="3">
+        <v>1</v>
+      </c>
+      <c r="G219" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" ht="20.25">
+      <c r="A220" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B220" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C220" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E220" s="3">
+        <v>1</v>
+      </c>
+      <c r="F220" s="3">
+        <v>1</v>
+      </c>
+      <c r="G220" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" ht="20.25">
+      <c r="A221" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B221" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C221" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E221" s="3">
+        <v>1</v>
+      </c>
+      <c r="F221" s="3">
+        <v>1</v>
+      </c>
+      <c r="G221" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" ht="20.25">
+      <c r="A222" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B222" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C222" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E222" s="3">
+        <v>1</v>
+      </c>
+      <c r="F222" s="3">
+        <v>1</v>
+      </c>
+      <c r="G222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" ht="20.25">
+      <c r="A223" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B223" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C223" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E223" s="3">
+        <v>1</v>
+      </c>
+      <c r="F223" s="3">
+        <v>1</v>
+      </c>
+      <c r="G223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" ht="20.25">
+      <c r="A224" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B224" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C224" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E224" s="3">
+        <v>1</v>
+      </c>
+      <c r="F224" s="3">
+        <v>1</v>
+      </c>
+      <c r="G224" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="20.25">
+      <c r="A225" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B225" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C225" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E225" s="3">
+        <v>1</v>
+      </c>
+      <c r="F225" s="3">
+        <v>1</v>
+      </c>
+      <c r="G225" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="20.25">
+      <c r="A226" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B226" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C226" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E226" s="3">
+        <v>1</v>
+      </c>
+      <c r="F226" s="3">
+        <v>1</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" ht="20.25">
+      <c r="A227" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B227" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C227" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E227" s="3">
+        <v>1</v>
+      </c>
+      <c r="F227" s="3">
+        <v>1</v>
+      </c>
+      <c r="G227" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="20.25">
+      <c r="A228" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B228" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C228" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" s="3">
+        <v>1</v>
+      </c>
+      <c r="F228" s="3">
+        <v>1</v>
+      </c>
+      <c r="G228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" ht="20.25">
+      <c r="A229" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B229" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C229" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E229" s="3">
+        <v>1</v>
+      </c>
+      <c r="F229" s="3">
+        <v>1</v>
+      </c>
+      <c r="G229" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" ht="20.25">
+      <c r="A230" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B230" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C230" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E230" s="3">
+        <v>1</v>
+      </c>
+      <c r="F230" s="3">
+        <v>1</v>
+      </c>
+      <c r="G230" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" ht="20.25">
+      <c r="A231" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B231" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C231" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" s="3">
+        <v>1</v>
+      </c>
+      <c r="F231" s="3">
+        <v>1</v>
+      </c>
+      <c r="G231" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" ht="20.25">
+      <c r="A232" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B232" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C232" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" s="3">
+        <v>1</v>
+      </c>
+      <c r="F232" s="3">
+        <v>1</v>
+      </c>
+      <c r="G232" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" ht="20.25">
+      <c r="A233" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B233" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C233" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E233" s="3">
+        <v>1</v>
+      </c>
+      <c r="F233" s="3">
+        <v>1</v>
+      </c>
+      <c r="G233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" ht="20.25">
+      <c r="A234" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B234" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C234" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E234" s="3">
+        <v>1</v>
+      </c>
+      <c r="F234" s="3">
+        <v>1</v>
+      </c>
+      <c r="G234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="20.25">
+      <c r="A235" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B235" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C235" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E235" s="3">
+        <v>1</v>
+      </c>
+      <c r="F235" s="3">
+        <v>1</v>
+      </c>
+      <c r="G235" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="20.25">
+      <c r="A236" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B236" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C236" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E236" s="3">
+        <v>1</v>
+      </c>
+      <c r="F236" s="3">
+        <v>1</v>
+      </c>
+      <c r="G236" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="20.25">
+      <c r="A237" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B237" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C237" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E237" s="3">
+        <v>1</v>
+      </c>
+      <c r="F237" s="3">
+        <v>1</v>
+      </c>
+      <c r="G237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="20.25">
+      <c r="A238" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B238" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C238" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E238" s="3">
+        <v>1</v>
+      </c>
+      <c r="F238" s="3">
+        <v>1</v>
+      </c>
+      <c r="G238" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="20.25">
+      <c r="A239" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B239" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C239" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E239" s="3">
+        <v>1</v>
+      </c>
+      <c r="F239" s="3">
+        <v>1</v>
+      </c>
+      <c r="G239" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="20.25">
+      <c r="A240" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B240" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C240" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E240" s="3">
+        <v>1</v>
+      </c>
+      <c r="F240" s="3">
+        <v>1</v>
+      </c>
+      <c r="G240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="20.25">
+      <c r="A241" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B241" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C241" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E241" s="3">
+        <v>1</v>
+      </c>
+      <c r="F241" s="3">
+        <v>1</v>
+      </c>
+      <c r="G241" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="20.25">
+      <c r="A242" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B242" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C242" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E242" s="3">
+        <v>1</v>
+      </c>
+      <c r="F242" s="3">
+        <v>1</v>
+      </c>
+      <c r="G242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" ht="20.25">
+      <c r="A243" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B243" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C243" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E243" s="3">
+        <v>1</v>
+      </c>
+      <c r="F243" s="3">
+        <v>1</v>
+      </c>
+      <c r="G243" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" ht="20.25">
+      <c r="A244" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B244" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C244" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E244" s="3">
+        <v>1</v>
+      </c>
+      <c r="F244" s="3">
+        <v>1</v>
+      </c>
+      <c r="G244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" ht="20.25">
+      <c r="A245" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B245" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C245" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E245" s="3">
+        <v>1</v>
+      </c>
+      <c r="F245" s="3">
+        <v>1</v>
+      </c>
+      <c r="G245" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="20.25">
+      <c r="A246" s="1">
+        <v>44077</v>
+      </c>
+      <c r="B246" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C246" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E246" s="3">
+        <v>1</v>
+      </c>
+      <c r="F246" s="3">
+        <v>1</v>
+      </c>
+      <c r="G246" s="3">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483A819F-4FFE-4B2B-BC5F-E0A185D12A05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93B57D-B303-4B6B-9363-757026CFB449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="600" windowWidth="28770" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="60" yWindow="135" windowWidth="28770" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Variables" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -102,6 +103,18 @@
   </si>
   <si>
     <t>OnOffStudent</t>
+  </si>
+  <si>
+    <t>1 if entry is a student that is on campus, 0 if not a student or an off campus student.</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>NotificationLag</t>
   </si>
 </sst>
 </file>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:I247"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A213" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E248" sqref="E248"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -485,7 +498,7 @@
     <col min="4" max="4" width="123.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -507,8 +520,14 @@
       <c r="G1" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.25">
+      <c r="H1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="20.25">
       <c r="A2" s="1">
         <v>44071</v>
       </c>
@@ -530,8 +549,15 @@
       <c r="G2" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="20.25">
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>A2-B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.25">
       <c r="A3" s="1">
         <v>44071</v>
       </c>
@@ -553,8 +579,15 @@
       <c r="G3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.25">
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I66" si="0">A3-B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="20.25">
       <c r="A4" s="1">
         <v>44071</v>
       </c>
@@ -576,8 +609,15 @@
       <c r="G4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.25">
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="20.25">
       <c r="A5" s="1">
         <v>44071</v>
       </c>
@@ -599,8 +639,15 @@
       <c r="G5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.25">
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="20.25">
       <c r="A6" s="1">
         <v>44071</v>
       </c>
@@ -622,8 +669,15 @@
       <c r="G6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.25">
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="20.25">
       <c r="A7" s="1">
         <v>44071</v>
       </c>
@@ -645,8 +699,15 @@
       <c r="G7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.25">
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="20.25">
       <c r="A8" s="1">
         <v>44071</v>
       </c>
@@ -668,8 +729,15 @@
       <c r="G8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.25">
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="20.25">
       <c r="A9" s="1">
         <v>44071</v>
       </c>
@@ -691,8 +759,15 @@
       <c r="G9" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.25">
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="20.25">
       <c r="A10" s="1">
         <v>44071</v>
       </c>
@@ -714,8 +789,15 @@
       <c r="G10" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="20.25">
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="20.25">
       <c r="A11" s="1">
         <v>44071</v>
       </c>
@@ -737,8 +819,15 @@
       <c r="G11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.25">
+      <c r="H11" s="3">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25">
       <c r="A12" s="1">
         <v>44071</v>
       </c>
@@ -760,8 +849,15 @@
       <c r="G12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.25">
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="20.25">
       <c r="A13" s="1">
         <v>44071</v>
       </c>
@@ -783,8 +879,15 @@
       <c r="G13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="20.25">
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="20.25">
       <c r="A14" s="1">
         <v>44070</v>
       </c>
@@ -806,8 +909,15 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="20.25">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="20.25">
       <c r="A15" s="1">
         <v>44070</v>
       </c>
@@ -829,8 +939,15 @@
       <c r="G15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="20.25">
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="20.25">
       <c r="A16" s="1">
         <v>44070</v>
       </c>
@@ -852,8 +969,15 @@
       <c r="G16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="20.25">
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20.25">
       <c r="A17" s="1">
         <v>44070</v>
       </c>
@@ -875,8 +999,15 @@
       <c r="G17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="20.25">
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="20.25">
       <c r="A18" s="1">
         <v>44070</v>
       </c>
@@ -898,8 +1029,15 @@
       <c r="G18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="20.25">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="20.25">
       <c r="A19" s="1">
         <v>44070</v>
       </c>
@@ -921,8 +1059,15 @@
       <c r="G19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" ht="20.25">
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="20.25">
       <c r="A20" s="1">
         <v>44070</v>
       </c>
@@ -944,8 +1089,15 @@
       <c r="G20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="20.25">
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="20.25">
       <c r="A21" s="1">
         <v>44070</v>
       </c>
@@ -967,8 +1119,15 @@
       <c r="G21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="20.25">
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="20.25">
       <c r="A22" s="1">
         <v>44070</v>
       </c>
@@ -990,8 +1149,15 @@
       <c r="G22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="20.25">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="20.25">
       <c r="A23" s="1">
         <v>44070</v>
       </c>
@@ -1013,8 +1179,15 @@
       <c r="G23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="20.25">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="20.25">
       <c r="A24" s="1">
         <v>44070</v>
       </c>
@@ -1036,8 +1209,15 @@
       <c r="G24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="20.25">
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="20.25">
       <c r="A25" s="1">
         <v>44069</v>
       </c>
@@ -1059,8 +1239,15 @@
       <c r="G25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="20.25">
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20.25">
       <c r="A26" s="1">
         <v>44069</v>
       </c>
@@ -1082,8 +1269,15 @@
       <c r="G26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" ht="20.25">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="20.25">
       <c r="A27" s="1">
         <v>44069</v>
       </c>
@@ -1105,8 +1299,15 @@
       <c r="G27" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" ht="20.25">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="20.25">
       <c r="A28" s="1">
         <v>44069</v>
       </c>
@@ -1128,8 +1329,15 @@
       <c r="G28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="20.25">
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="20.25">
       <c r="A29" s="1">
         <v>44069</v>
       </c>
@@ -1151,8 +1359,15 @@
       <c r="G29" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="20.25">
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="20.25">
       <c r="A30" s="1">
         <v>44069</v>
       </c>
@@ -1174,8 +1389,15 @@
       <c r="G30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" ht="20.25">
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20.25">
       <c r="A31" s="1">
         <v>44069</v>
       </c>
@@ -1197,8 +1419,15 @@
       <c r="G31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" ht="20.25">
+      <c r="H31" s="3">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="20.25">
       <c r="A32" s="1">
         <v>44069</v>
       </c>
@@ -1220,8 +1449,15 @@
       <c r="G32" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" ht="20.25">
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="20.25">
       <c r="A33" s="1">
         <v>44069</v>
       </c>
@@ -1243,8 +1479,15 @@
       <c r="G33" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" ht="20.25">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="20.25">
       <c r="A34" s="1">
         <v>44069</v>
       </c>
@@ -1266,8 +1509,15 @@
       <c r="G34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" ht="20.25">
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="20.25">
       <c r="A35" s="1">
         <v>44069</v>
       </c>
@@ -1289,8 +1539,15 @@
       <c r="G35" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" ht="20.25">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="20.25">
       <c r="A36" s="1">
         <v>44069</v>
       </c>
@@ -1312,8 +1569,15 @@
       <c r="G36" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" ht="20.25">
+      <c r="H36" s="3">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="20.25">
       <c r="A37" s="1">
         <v>44069</v>
       </c>
@@ -1335,8 +1599,15 @@
       <c r="G37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" ht="20.25">
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="20.25">
       <c r="A38" s="1">
         <v>44064</v>
       </c>
@@ -1358,8 +1629,15 @@
       <c r="G38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" ht="20.25">
+      <c r="H38" s="3">
+        <v>1</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="20.25">
       <c r="A39" s="1">
         <v>44063</v>
       </c>
@@ -1381,8 +1659,15 @@
       <c r="G39" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" ht="20.25">
+      <c r="H39" s="3">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="20.25">
       <c r="A40" s="1">
         <v>44063</v>
       </c>
@@ -1404,8 +1689,15 @@
       <c r="G40" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" ht="20.25">
+      <c r="H40" s="3">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="20.25">
       <c r="A41" s="1">
         <v>44063</v>
       </c>
@@ -1427,8 +1719,15 @@
       <c r="G41" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" ht="20.25">
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="20.25">
       <c r="A42" s="1">
         <v>44063</v>
       </c>
@@ -1450,8 +1749,15 @@
       <c r="G42" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" ht="20.25">
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="20.25">
       <c r="A43" s="1">
         <v>44063</v>
       </c>
@@ -1473,8 +1779,15 @@
       <c r="G43" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" ht="20.25">
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="20.25">
       <c r="A44" s="1">
         <v>44063</v>
       </c>
@@ -1496,8 +1809,15 @@
       <c r="G44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" ht="20.25">
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="20.25">
       <c r="A45" s="1">
         <v>44061</v>
       </c>
@@ -1519,8 +1839,15 @@
       <c r="G45" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="20.25">
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="20.25">
       <c r="A46" s="1">
         <v>44069</v>
       </c>
@@ -1542,8 +1869,15 @@
       <c r="G46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="20.25">
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="20.25">
       <c r="A47" s="1">
         <v>44063</v>
       </c>
@@ -1565,8 +1899,15 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" ht="20.25">
+      <c r="H47" s="3">
+        <v>1</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="20.25">
       <c r="A48" s="1">
         <v>44061</v>
       </c>
@@ -1588,8 +1929,15 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" ht="20.25">
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="20.25">
       <c r="A49" s="1">
         <v>44061</v>
       </c>
@@ -1611,8 +1959,15 @@
       <c r="G49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" ht="20.25">
+      <c r="H49" s="3">
+        <v>1</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="20.25">
       <c r="A50" s="1">
         <v>44057</v>
       </c>
@@ -1634,8 +1989,15 @@
       <c r="G50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" ht="20.25">
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="20.25">
       <c r="A51" s="1">
         <v>44057</v>
       </c>
@@ -1657,8 +2019,15 @@
       <c r="G51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" ht="20.25">
+      <c r="H51" s="3">
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="20.25">
       <c r="A52" s="1">
         <v>44057</v>
       </c>
@@ -1680,8 +2049,15 @@
       <c r="G52" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" ht="20.25">
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="20.25">
       <c r="A53" s="1">
         <v>44057</v>
       </c>
@@ -1703,8 +2079,15 @@
       <c r="G53" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" ht="20.25">
+      <c r="H53" s="3">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="20.25">
       <c r="A54" s="1">
         <v>44055</v>
       </c>
@@ -1726,8 +2109,15 @@
       <c r="G54" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" ht="20.25">
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="20.25">
       <c r="A55" s="1">
         <v>44055</v>
       </c>
@@ -1749,8 +2139,15 @@
       <c r="G55" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" ht="20.25">
+      <c r="H55" s="3">
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="20.25">
       <c r="A56" s="1">
         <v>44055</v>
       </c>
@@ -1772,8 +2169,15 @@
       <c r="G56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" ht="20.25">
+      <c r="H56" s="3">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="20.25">
       <c r="A57" s="1">
         <v>44055</v>
       </c>
@@ -1795,8 +2199,15 @@
       <c r="G57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" ht="20.25">
+      <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="20.25">
       <c r="A58" s="1">
         <v>44050</v>
       </c>
@@ -1818,8 +2229,15 @@
       <c r="G58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="20.25">
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="20.25">
       <c r="A59" s="1">
         <v>44050</v>
       </c>
@@ -1841,8 +2259,15 @@
       <c r="G59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" ht="20.25">
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" ht="20.25">
       <c r="A60" s="1">
         <v>44050</v>
       </c>
@@ -1864,8 +2289,15 @@
       <c r="G60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" ht="20.25">
+      <c r="H60" s="3">
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" ht="20.25">
       <c r="A61" s="1">
         <v>44050</v>
       </c>
@@ -1887,8 +2319,15 @@
       <c r="G61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" ht="20.25">
+      <c r="H61" s="3">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" ht="20.25">
       <c r="A62" s="1">
         <v>44049</v>
       </c>
@@ -1910,8 +2349,15 @@
       <c r="G62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" ht="20.25">
+      <c r="H62" s="3">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" ht="20.25">
       <c r="A63" s="1">
         <v>44049</v>
       </c>
@@ -1933,8 +2379,15 @@
       <c r="G63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" ht="20.25">
+      <c r="H63" s="3">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="20.25">
       <c r="A64" s="1">
         <v>44042</v>
       </c>
@@ -1956,8 +2409,15 @@
       <c r="G64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" ht="20.25">
+      <c r="H64" s="3">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="20.25">
       <c r="A65" s="1">
         <v>44042</v>
       </c>
@@ -1979,8 +2439,15 @@
       <c r="G65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" ht="20.25">
+      <c r="H65" s="3">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="20.25">
       <c r="A66" s="1">
         <v>44042</v>
       </c>
@@ -2002,8 +2469,15 @@
       <c r="G66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="20.25">
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="20.25">
       <c r="A67" s="1">
         <v>44042</v>
       </c>
@@ -2025,8 +2499,15 @@
       <c r="G67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="20.25">
+      <c r="H67" s="3">
+        <v>1</v>
+      </c>
+      <c r="I67">
+        <f t="shared" ref="I67:I130" si="1">A67-B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" ht="20.25">
       <c r="A68" s="1">
         <v>44040</v>
       </c>
@@ -2048,8 +2529,15 @@
       <c r="G68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="20.25">
+      <c r="H68" s="3">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="20.25">
       <c r="A69" s="1">
         <v>44040</v>
       </c>
@@ -2071,8 +2559,15 @@
       <c r="G69" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="20.25">
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" ht="20.25">
       <c r="A70" s="1">
         <v>44040</v>
       </c>
@@ -2094,8 +2589,15 @@
       <c r="G70" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" ht="20.25">
+      <c r="H70" s="3">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="20.25">
       <c r="A71" s="1">
         <v>44040</v>
       </c>
@@ -2117,8 +2619,15 @@
       <c r="G71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" ht="20.25">
+      <c r="H71" s="3">
+        <v>1</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" ht="20.25">
       <c r="A72" s="1">
         <v>44040</v>
       </c>
@@ -2140,8 +2649,15 @@
       <c r="G72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" ht="20.25">
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="20.25">
       <c r="A73" s="1">
         <v>44036</v>
       </c>
@@ -2163,8 +2679,15 @@
       <c r="G73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" ht="20.25">
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="20.25">
       <c r="A74" s="1">
         <v>44036</v>
       </c>
@@ -2186,8 +2709,15 @@
       <c r="G74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" ht="20.25">
+      <c r="H74" s="3">
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="20.25">
       <c r="A75" s="1">
         <v>44035</v>
       </c>
@@ -2209,8 +2739,15 @@
       <c r="G75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" ht="20.25">
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" ht="20.25">
       <c r="A76" s="1">
         <v>44035</v>
       </c>
@@ -2232,8 +2769,15 @@
       <c r="G76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" ht="20.25">
+      <c r="H76" s="3">
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" ht="20.25">
       <c r="A77" s="1">
         <v>44035</v>
       </c>
@@ -2255,8 +2799,15 @@
       <c r="G77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" ht="20.25">
+      <c r="H77" s="3">
+        <v>1</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" ht="20.25">
       <c r="A78" s="1">
         <v>44027</v>
       </c>
@@ -2278,8 +2829,15 @@
       <c r="G78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" ht="20.25">
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" ht="20.25">
       <c r="A79" s="1">
         <v>44027</v>
       </c>
@@ -2301,8 +2859,15 @@
       <c r="G79" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" ht="20.25">
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" ht="20.25">
       <c r="A80" s="1">
         <v>44027</v>
       </c>
@@ -2324,8 +2889,15 @@
       <c r="G80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" ht="20.25">
+      <c r="H80" s="3">
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="20.25">
       <c r="A81" s="1">
         <v>44027</v>
       </c>
@@ -2347,8 +2919,15 @@
       <c r="G81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" ht="20.25">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="20.25">
       <c r="A82" s="1">
         <v>44027</v>
       </c>
@@ -2370,8 +2949,15 @@
       <c r="G82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" ht="20.25">
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" ht="20.25">
       <c r="A83" s="1">
         <v>44022</v>
       </c>
@@ -2393,8 +2979,15 @@
       <c r="G83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" ht="20.25">
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="20.25">
       <c r="A84" s="1">
         <v>44022</v>
       </c>
@@ -2416,8 +3009,15 @@
       <c r="G84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" ht="20.25">
+      <c r="H84" s="3">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="20.25">
       <c r="A85" s="1">
         <v>44022</v>
       </c>
@@ -2439,8 +3039,15 @@
       <c r="G85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" ht="20.25">
+      <c r="H85" s="3">
+        <v>1</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="20.25">
       <c r="A86" s="1">
         <v>44021</v>
       </c>
@@ -2462,8 +3069,15 @@
       <c r="G86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" ht="20.25">
+      <c r="H86" s="3">
+        <v>1</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="20.25">
       <c r="A87" s="1">
         <v>44021</v>
       </c>
@@ -2485,8 +3099,15 @@
       <c r="G87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" ht="20.25">
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="20.25">
       <c r="A88" s="1">
         <v>44021</v>
       </c>
@@ -2508,8 +3129,15 @@
       <c r="G88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" ht="20.25">
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="20.25">
       <c r="A89" s="1">
         <v>44021</v>
       </c>
@@ -2531,8 +3159,15 @@
       <c r="G89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" ht="20.25">
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="20.25">
       <c r="A90" s="1">
         <v>44021</v>
       </c>
@@ -2554,8 +3189,15 @@
       <c r="G90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" ht="20.25">
+      <c r="H90" s="3">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" ht="20.25">
       <c r="A91" s="1">
         <v>44018</v>
       </c>
@@ -2577,8 +3219,15 @@
       <c r="G91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" ht="20.25">
+      <c r="H91" s="3">
+        <v>1</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" ht="20.25">
       <c r="A92" s="1">
         <v>44018</v>
       </c>
@@ -2600,8 +3249,15 @@
       <c r="G92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" ht="20.25">
+      <c r="H92" s="3">
+        <v>1</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" ht="20.25">
       <c r="A93" s="1">
         <v>44018</v>
       </c>
@@ -2623,8 +3279,15 @@
       <c r="G93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" ht="20.25">
+      <c r="H93" s="3">
+        <v>1</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" ht="20.25">
       <c r="A94" s="1">
         <v>44018</v>
       </c>
@@ -2646,8 +3309,15 @@
       <c r="G94" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" ht="20.25">
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" ht="20.25">
       <c r="A95" s="1">
         <v>44018</v>
       </c>
@@ -2669,8 +3339,15 @@
       <c r="G95" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" ht="20.25">
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" ht="20.25">
       <c r="A96" s="1">
         <v>44018</v>
       </c>
@@ -2692,8 +3369,15 @@
       <c r="G96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="20.25">
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" ht="20.25">
       <c r="A97" s="1">
         <v>44018</v>
       </c>
@@ -2715,8 +3399,15 @@
       <c r="G97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="20.25">
+      <c r="H97" s="3">
+        <v>1</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" ht="20.25">
       <c r="A98" s="1">
         <v>44018</v>
       </c>
@@ -2738,8 +3429,15 @@
       <c r="G98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" ht="20.25">
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" ht="20.25">
       <c r="A99" s="1">
         <v>44013</v>
       </c>
@@ -2761,8 +3459,15 @@
       <c r="G99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" ht="20.25">
+      <c r="H99" s="3">
+        <v>1</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" ht="20.25">
       <c r="A100" s="1">
         <v>44013</v>
       </c>
@@ -2784,8 +3489,15 @@
       <c r="G100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" ht="20.25">
+      <c r="H100" s="3">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" ht="20.25">
       <c r="A101" s="1">
         <v>44011</v>
       </c>
@@ -2807,8 +3519,15 @@
       <c r="G101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" ht="20.25">
+      <c r="H101" s="3">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" ht="20.25">
       <c r="A102" s="1">
         <v>44011</v>
       </c>
@@ -2830,8 +3549,15 @@
       <c r="G102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:7" ht="20.25">
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" ht="20.25">
       <c r="A103" s="1">
         <v>44011</v>
       </c>
@@ -2853,8 +3579,15 @@
       <c r="G103" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:7" ht="20.25">
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" ht="20.25">
       <c r="A104" s="1">
         <v>44008</v>
       </c>
@@ -2876,8 +3609,15 @@
       <c r="G104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="20.25">
+      <c r="H104" s="3">
+        <v>1</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" ht="20.25">
       <c r="A105" s="1">
         <v>44008</v>
       </c>
@@ -2899,8 +3639,15 @@
       <c r="G105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="20.25">
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" ht="20.25">
       <c r="A106" s="1">
         <v>44007</v>
       </c>
@@ -2922,8 +3669,15 @@
       <c r="G106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:7" ht="20.25">
+      <c r="H106" s="3">
+        <v>0</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" ht="20.25">
       <c r="A107" s="1">
         <v>44006</v>
       </c>
@@ -2945,8 +3699,15 @@
       <c r="G107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:7" ht="20.25">
+      <c r="H107" s="3">
+        <v>1</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" ht="20.25">
       <c r="A108" s="1">
         <v>44006</v>
       </c>
@@ -2968,8 +3729,15 @@
       <c r="G108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:7" ht="20.25">
+      <c r="H108" s="3">
+        <v>1</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" ht="20.25">
       <c r="A109" s="1">
         <v>44005</v>
       </c>
@@ -2991,8 +3759,15 @@
       <c r="G109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" ht="20.25">
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" ht="20.25">
       <c r="A110" s="1">
         <v>44002</v>
       </c>
@@ -3014,8 +3789,15 @@
       <c r="G110" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="111" spans="1:7" ht="20.25">
+      <c r="H110" s="3">
+        <v>0</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" ht="20.25">
       <c r="A111" s="1">
         <v>44002</v>
       </c>
@@ -3037,8 +3819,15 @@
       <c r="G111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:7" ht="20.25">
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" ht="20.25">
       <c r="A112" s="1">
         <v>44002</v>
       </c>
@@ -3060,8 +3849,15 @@
       <c r="G112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:7" ht="20.25">
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" ht="20.25">
       <c r="A113" s="1">
         <v>43999</v>
       </c>
@@ -3083,8 +3879,15 @@
       <c r="G113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:7" ht="20.25">
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" ht="20.25">
       <c r="A114" s="1">
         <v>43999</v>
       </c>
@@ -3106,8 +3909,15 @@
       <c r="G114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:7" ht="20.25">
+      <c r="H114" s="3">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" ht="20.25">
       <c r="A115" s="1">
         <v>43999</v>
       </c>
@@ -3129,8 +3939,15 @@
       <c r="G115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:7" ht="20.25">
+      <c r="H115" s="3">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" ht="20.25">
       <c r="A116" s="1">
         <v>43999</v>
       </c>
@@ -3152,8 +3969,15 @@
       <c r="G116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" ht="20.25">
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="20.25">
       <c r="A117" s="1">
         <v>43999</v>
       </c>
@@ -3175,8 +3999,15 @@
       <c r="G117" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" ht="20.25">
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="20.25">
       <c r="A118" s="1">
         <v>43999</v>
       </c>
@@ -3198,8 +4029,15 @@
       <c r="G118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" ht="20.25">
+      <c r="H118" s="3">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="20.25">
       <c r="A119" s="1">
         <v>43998</v>
       </c>
@@ -3221,8 +4059,15 @@
       <c r="G119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:7" ht="20.25">
+      <c r="H119" s="3">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" ht="20.25">
       <c r="A120" s="1">
         <v>43998</v>
       </c>
@@ -3244,8 +4089,15 @@
       <c r="G120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" ht="20.25">
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" ht="20.25">
       <c r="A121" s="1">
         <v>43998</v>
       </c>
@@ -3267,8 +4119,15 @@
       <c r="G121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" ht="20.25">
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" ht="20.25">
       <c r="A122" s="1">
         <v>43998</v>
       </c>
@@ -3290,8 +4149,15 @@
       <c r="G122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" ht="20.25">
+      <c r="H122" s="3">
+        <v>1</v>
+      </c>
+      <c r="I122">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" ht="20.25">
       <c r="A123" s="1">
         <v>43923</v>
       </c>
@@ -3313,8 +4179,15 @@
       <c r="G123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:7" ht="20.25">
+      <c r="H123" s="3">
+        <v>1</v>
+      </c>
+      <c r="I123">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" ht="20.25">
       <c r="A124" s="1">
         <v>43915</v>
       </c>
@@ -3336,8 +4209,15 @@
       <c r="G124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" ht="20.25">
+      <c r="H124" s="3">
+        <v>0</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" ht="20.25">
       <c r="A125" s="1">
         <v>43915</v>
       </c>
@@ -3359,8 +4239,15 @@
       <c r="G125" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="20.25">
+      <c r="H125" s="3">
+        <v>0</v>
+      </c>
+      <c r="I125">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" ht="20.25">
       <c r="A126" s="1">
         <v>43915</v>
       </c>
@@ -3382,8 +4269,15 @@
       <c r="G126" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:7" ht="20.25">
+      <c r="H126" s="3">
+        <v>0</v>
+      </c>
+      <c r="I126">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" ht="20.25">
       <c r="A127" s="1">
         <v>44073</v>
       </c>
@@ -3405,8 +4299,15 @@
       <c r="G127" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:7" ht="20.25">
+      <c r="H127" s="3">
+        <v>0</v>
+      </c>
+      <c r="I127">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" ht="20.25">
       <c r="A128" s="1">
         <v>44073</v>
       </c>
@@ -3428,8 +4329,15 @@
       <c r="G128" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" ht="20.25">
+      <c r="H128" s="3">
+        <v>0</v>
+      </c>
+      <c r="I128">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" ht="20.25">
       <c r="A129" s="1">
         <v>44073</v>
       </c>
@@ -3451,8 +4359,15 @@
       <c r="G129" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" ht="20.25">
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+      <c r="I129">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" ht="20.25">
       <c r="A130" s="1">
         <v>44073</v>
       </c>
@@ -3474,8 +4389,15 @@
       <c r="G130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:7" ht="20.25">
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+      <c r="I130">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" ht="20.25">
       <c r="A131" s="1">
         <v>44073</v>
       </c>
@@ -3497,8 +4419,15 @@
       <c r="G131" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:7" ht="20.25">
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+      <c r="I131">
+        <f t="shared" ref="I131:I194" si="2">A131-B131</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" ht="20.25">
       <c r="A132" s="1">
         <v>44073</v>
       </c>
@@ -3520,8 +4449,15 @@
       <c r="G132" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="133" spans="1:7" ht="20.25">
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+      <c r="I132">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" ht="20.25">
       <c r="A133" s="1">
         <v>44073</v>
       </c>
@@ -3543,8 +4479,15 @@
       <c r="G133" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:7" ht="20.25">
+      <c r="H133" s="3">
+        <v>0</v>
+      </c>
+      <c r="I133">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" ht="20.25">
       <c r="A134" s="1">
         <v>44073</v>
       </c>
@@ -3566,8 +4509,15 @@
       <c r="G134" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="135" spans="1:7" ht="20.25">
+      <c r="H134" s="3">
+        <v>0</v>
+      </c>
+      <c r="I134">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" ht="20.25">
       <c r="A135" s="1">
         <v>44073</v>
       </c>
@@ -3589,8 +4539,15 @@
       <c r="G135" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="136" spans="1:7" ht="20.25">
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+      <c r="I135">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" ht="20.25">
       <c r="A136" s="1">
         <v>44073</v>
       </c>
@@ -3612,8 +4569,15 @@
       <c r="G136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:7" ht="20.25">
+      <c r="H136" s="3">
+        <v>0</v>
+      </c>
+      <c r="I136">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="20.25">
       <c r="A137" s="1">
         <v>44073</v>
       </c>
@@ -3635,8 +4599,15 @@
       <c r="G137" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="138" spans="1:7" ht="20.25">
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+      <c r="I137">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" ht="20.25">
       <c r="A138" s="1">
         <v>44073</v>
       </c>
@@ -3658,8 +4629,15 @@
       <c r="G138" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" ht="20.25">
+      <c r="H138" s="3">
+        <v>0</v>
+      </c>
+      <c r="I138">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" ht="20.25">
       <c r="A139" s="1">
         <v>44073</v>
       </c>
@@ -3681,8 +4659,15 @@
       <c r="G139" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="140" spans="1:7" ht="20.25">
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+      <c r="I139">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" ht="20.25">
       <c r="A140" s="1">
         <v>44073</v>
       </c>
@@ -3704,8 +4689,15 @@
       <c r="G140" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:7" ht="20.25">
+      <c r="H140" s="3">
+        <v>0</v>
+      </c>
+      <c r="I140">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" ht="20.25">
       <c r="A141" s="1">
         <v>44073</v>
       </c>
@@ -3727,8 +4719,15 @@
       <c r="G141" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="142" spans="1:7" ht="20.25">
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+      <c r="I141">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="20.25">
       <c r="A142" s="1">
         <v>44073</v>
       </c>
@@ -3750,8 +4749,15 @@
       <c r="G142" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:7" ht="20.25">
+      <c r="H142" s="3">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" ht="20.25">
       <c r="A143" s="1">
         <v>44073</v>
       </c>
@@ -3773,8 +4779,15 @@
       <c r="G143" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="144" spans="1:7" ht="20.25">
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" ht="20.25">
       <c r="A144" s="1">
         <v>44073</v>
       </c>
@@ -3796,8 +4809,15 @@
       <c r="G144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:7" ht="20.25">
+      <c r="H144" s="3">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="20.25">
       <c r="A145" s="1">
         <v>44073</v>
       </c>
@@ -3819,8 +4839,15 @@
       <c r="G145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:7" ht="20.25">
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" ht="20.25">
       <c r="A146" s="1">
         <v>44073</v>
       </c>
@@ -3842,8 +4869,15 @@
       <c r="G146" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="147" spans="1:7" ht="20.25">
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" ht="20.25">
       <c r="A147" s="1">
         <v>44073</v>
       </c>
@@ -3865,8 +4899,15 @@
       <c r="G147" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:7" ht="20.25">
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" ht="20.25">
       <c r="A148" s="1">
         <v>44073</v>
       </c>
@@ -3888,8 +4929,15 @@
       <c r="G148" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="149" spans="1:7" ht="20.25">
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" ht="20.25">
       <c r="A149" s="1">
         <v>44073</v>
       </c>
@@ -3911,8 +4959,15 @@
       <c r="G149" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="150" spans="1:7" ht="20.25">
+      <c r="H149" s="3">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" ht="20.25">
       <c r="A150" s="1">
         <v>44073</v>
       </c>
@@ -3934,8 +4989,15 @@
       <c r="G150" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:7" ht="20.25">
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" ht="20.25">
       <c r="A151" s="1">
         <v>44073</v>
       </c>
@@ -3957,8 +5019,15 @@
       <c r="G151" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="152" spans="1:7" ht="20.25">
+      <c r="H151" s="3">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" ht="20.25">
       <c r="A152" s="1">
         <v>44073</v>
       </c>
@@ -3980,8 +5049,15 @@
       <c r="G152" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:7" ht="20.25">
+      <c r="H152" s="3">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" ht="20.25">
       <c r="A153" s="1">
         <v>44073</v>
       </c>
@@ -4003,8 +5079,15 @@
       <c r="G153" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:7" ht="20.25">
+      <c r="H153" s="3">
+        <v>1</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" ht="20.25">
       <c r="A154" s="1">
         <v>44073</v>
       </c>
@@ -4026,8 +5109,15 @@
       <c r="G154" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="155" spans="1:7" ht="20.25">
+      <c r="H154" s="3">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" ht="20.25">
       <c r="A155" s="1">
         <v>44073</v>
       </c>
@@ -4049,8 +5139,15 @@
       <c r="G155" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" ht="20.25">
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" ht="20.25">
       <c r="A156" s="1">
         <v>44073</v>
       </c>
@@ -4072,8 +5169,15 @@
       <c r="G156" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:7" ht="20.25">
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" ht="20.25">
       <c r="A157" s="1">
         <v>44073</v>
       </c>
@@ -4095,8 +5199,15 @@
       <c r="G157" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:7" ht="20.25">
+      <c r="H157" s="3">
+        <v>0</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" ht="20.25">
       <c r="A158" s="1">
         <v>44074</v>
       </c>
@@ -4118,8 +5229,15 @@
       <c r="G158" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="159" spans="1:7" ht="20.25">
+      <c r="H158" s="3">
+        <v>0</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" ht="20.25">
       <c r="A159" s="1">
         <v>44074</v>
       </c>
@@ -4141,8 +5259,15 @@
       <c r="G159" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:7" ht="20.25">
+      <c r="H159" s="3">
+        <v>0</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" ht="20.25">
       <c r="A160" s="1">
         <v>44074</v>
       </c>
@@ -4162,10 +5287,17 @@
         <v>1</v>
       </c>
       <c r="G160" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" ht="20.25">
+        <v>0</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" ht="20.25">
       <c r="A161" s="1">
         <v>44074</v>
       </c>
@@ -4187,8 +5319,15 @@
       <c r="G161" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:7" ht="20.25">
+      <c r="H161" s="3">
+        <v>0</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" ht="20.25">
       <c r="A162" s="1">
         <v>44074</v>
       </c>
@@ -4210,8 +5349,15 @@
       <c r="G162" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="163" spans="1:7" ht="20.25">
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" ht="20.25">
       <c r="A163" s="1">
         <v>44074</v>
       </c>
@@ -4233,8 +5379,15 @@
       <c r="G163" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="164" spans="1:7" ht="20.25">
+      <c r="H163" s="3">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" ht="20.25">
       <c r="A164" s="1">
         <v>44074</v>
       </c>
@@ -4256,8 +5409,15 @@
       <c r="G164" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" ht="20.25">
+      <c r="H164" s="3">
+        <v>0</v>
+      </c>
+      <c r="I164">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" ht="20.25">
       <c r="A165" s="1">
         <v>44074</v>
       </c>
@@ -4279,8 +5439,15 @@
       <c r="G165" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" ht="20.25">
+      <c r="H165" s="3">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" ht="20.25">
       <c r="A166" s="1">
         <v>44074</v>
       </c>
@@ -4302,8 +5469,15 @@
       <c r="G166" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" ht="20.25">
+      <c r="H166" s="3">
+        <v>0</v>
+      </c>
+      <c r="I166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" ht="20.25">
       <c r="A167" s="1">
         <v>44074</v>
       </c>
@@ -4325,8 +5499,15 @@
       <c r="G167" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" ht="20.25">
+      <c r="H167" s="3">
+        <v>0</v>
+      </c>
+      <c r="I167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" ht="20.25">
       <c r="A168" s="1">
         <v>44075</v>
       </c>
@@ -4348,8 +5529,15 @@
       <c r="G168" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" ht="20.25">
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" ht="20.25">
       <c r="A169" s="1">
         <v>44075</v>
       </c>
@@ -4371,8 +5559,15 @@
       <c r="G169" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" ht="20.25">
+      <c r="H169" s="3">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" ht="20.25">
       <c r="A170" s="1">
         <v>44075</v>
       </c>
@@ -4394,8 +5589,15 @@
       <c r="G170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" ht="20.25">
+      <c r="H170" s="3">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" ht="20.25">
       <c r="A171" s="1">
         <v>44075</v>
       </c>
@@ -4417,8 +5619,15 @@
       <c r="G171" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" ht="20.25">
+      <c r="H171" s="3">
+        <v>0</v>
+      </c>
+      <c r="I171">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" ht="20.25">
       <c r="A172" s="1">
         <v>44075</v>
       </c>
@@ -4440,8 +5649,15 @@
       <c r="G172" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" ht="20.25">
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" ht="20.25">
       <c r="A173" s="1">
         <v>44075</v>
       </c>
@@ -4463,8 +5679,15 @@
       <c r="G173" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" ht="20.25">
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" ht="20.25">
       <c r="A174" s="1">
         <v>44075</v>
       </c>
@@ -4486,8 +5709,15 @@
       <c r="G174" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" ht="20.25">
+      <c r="H174" s="3">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" ht="20.25">
       <c r="A175" s="1">
         <v>44075</v>
       </c>
@@ -4509,8 +5739,15 @@
       <c r="G175" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" ht="20.25">
+      <c r="H175" s="3">
+        <v>0</v>
+      </c>
+      <c r="I175">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" ht="20.25">
       <c r="A176" s="1">
         <v>44075</v>
       </c>
@@ -4532,8 +5769,15 @@
       <c r="G176" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:7" ht="20.25">
+      <c r="H176" s="3">
+        <v>0</v>
+      </c>
+      <c r="I176">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="20.25">
       <c r="A177" s="1">
         <v>44075</v>
       </c>
@@ -4555,8 +5799,15 @@
       <c r="G177" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:7" ht="20.25">
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" ht="20.25">
       <c r="A178" s="1">
         <v>44075</v>
       </c>
@@ -4578,8 +5829,15 @@
       <c r="G178" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:7" ht="20.25">
+      <c r="H178" s="3">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" ht="20.25">
       <c r="A179" s="1">
         <v>44075</v>
       </c>
@@ -4601,8 +5859,15 @@
       <c r="G179" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="1:7" ht="20.25">
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+      <c r="I179">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" ht="20.25">
       <c r="A180" s="1">
         <v>44075</v>
       </c>
@@ -4624,8 +5889,15 @@
       <c r="G180" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:7" ht="20.25">
+      <c r="H180" s="3">
+        <v>0</v>
+      </c>
+      <c r="I180">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" ht="20.25">
       <c r="A181" s="1">
         <v>44075</v>
       </c>
@@ -4647,8 +5919,15 @@
       <c r="G181" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:7" ht="20.25">
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+      <c r="I181">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" ht="20.25">
       <c r="A182" s="1">
         <v>44075</v>
       </c>
@@ -4670,8 +5949,15 @@
       <c r="G182" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="183" spans="1:7" ht="20.25">
+      <c r="H182" s="3">
+        <v>0</v>
+      </c>
+      <c r="I182">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" ht="20.25">
       <c r="A183" s="1">
         <v>44075</v>
       </c>
@@ -4693,8 +5979,15 @@
       <c r="G183" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:7" ht="20.25">
+      <c r="H183" s="3">
+        <v>0</v>
+      </c>
+      <c r="I183">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" ht="20.25">
       <c r="A184" s="1">
         <v>44075</v>
       </c>
@@ -4716,8 +6009,15 @@
       <c r="G184" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="185" spans="1:7" ht="20.25">
+      <c r="H184" s="3">
+        <v>0</v>
+      </c>
+      <c r="I184">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="20.25">
       <c r="A185" s="1">
         <v>44075</v>
       </c>
@@ -4739,8 +6039,15 @@
       <c r="G185" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:7" ht="20.25">
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+      <c r="I185">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" ht="20.25">
       <c r="A186" s="1">
         <v>44075</v>
       </c>
@@ -4762,8 +6069,15 @@
       <c r="G186" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:7" ht="20.25">
+      <c r="H186" s="3">
+        <v>0</v>
+      </c>
+      <c r="I186">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="20.25">
       <c r="A187" s="1">
         <v>44075</v>
       </c>
@@ -4785,8 +6099,15 @@
       <c r="G187" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:7" ht="20.25">
+      <c r="H187" s="3">
+        <v>0</v>
+      </c>
+      <c r="I187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" ht="20.25">
       <c r="A188" s="1">
         <v>44075</v>
       </c>
@@ -4808,8 +6129,15 @@
       <c r="G188" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="1:7" ht="20.25">
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+      <c r="I188">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" ht="20.25">
       <c r="A189" s="1">
         <v>44075</v>
       </c>
@@ -4831,8 +6159,15 @@
       <c r="G189" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:7" ht="20.25">
+      <c r="H189" s="3">
+        <v>0</v>
+      </c>
+      <c r="I189">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="20.25">
       <c r="A190" s="1">
         <v>44075</v>
       </c>
@@ -4854,8 +6189,15 @@
       <c r="G190" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="191" spans="1:7" ht="20.25">
+      <c r="H190" s="3">
+        <v>0</v>
+      </c>
+      <c r="I190">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" ht="20.25">
       <c r="A191" s="1">
         <v>44075</v>
       </c>
@@ -4877,8 +6219,15 @@
       <c r="G191" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:7" ht="20.25">
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+      <c r="I191">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" ht="20.25">
       <c r="A192" s="1">
         <v>44075</v>
       </c>
@@ -4900,8 +6249,15 @@
       <c r="G192" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="1:7" ht="20.25">
+      <c r="H192" s="3">
+        <v>0</v>
+      </c>
+      <c r="I192">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="20.25">
       <c r="A193" s="1">
         <v>44075</v>
       </c>
@@ -4923,8 +6279,15 @@
       <c r="G193" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="1:7" ht="20.25">
+      <c r="H193" s="3">
+        <v>0</v>
+      </c>
+      <c r="I193">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="20.25">
       <c r="A194" s="1">
         <v>44076</v>
       </c>
@@ -4946,8 +6309,15 @@
       <c r="G194" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:7" ht="20.25">
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+      <c r="I194">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="20.25">
       <c r="A195" s="1">
         <v>44076</v>
       </c>
@@ -4969,8 +6339,15 @@
       <c r="G195" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:7" ht="20.25">
+      <c r="H195" s="3">
+        <v>0</v>
+      </c>
+      <c r="I195">
+        <f t="shared" ref="I195:I246" si="3">A195-B195</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="20.25">
       <c r="A196" s="1">
         <v>44076</v>
       </c>
@@ -4992,8 +6369,15 @@
       <c r="G196" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:7" ht="20.25">
+      <c r="H196" s="3">
+        <v>0</v>
+      </c>
+      <c r="I196">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" ht="20.25">
       <c r="A197" s="1">
         <v>44076</v>
       </c>
@@ -5015,8 +6399,15 @@
       <c r="G197" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="198" spans="1:7" ht="20.25">
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+      <c r="I197">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="20.25">
       <c r="A198" s="1">
         <v>44076</v>
       </c>
@@ -5038,8 +6429,15 @@
       <c r="G198" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:7" ht="20.25">
+      <c r="H198" s="3">
+        <v>0</v>
+      </c>
+      <c r="I198">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" ht="20.25">
       <c r="A199" s="1">
         <v>44076</v>
       </c>
@@ -5061,8 +6459,15 @@
       <c r="G199" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:7" ht="20.25">
+      <c r="H199" s="3">
+        <v>0</v>
+      </c>
+      <c r="I199">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" ht="20.25">
       <c r="A200" s="1">
         <v>44076</v>
       </c>
@@ -5084,8 +6489,15 @@
       <c r="G200" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:7" ht="20.25">
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+      <c r="I200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" ht="20.25">
       <c r="A201" s="1">
         <v>44076</v>
       </c>
@@ -5107,8 +6519,15 @@
       <c r="G201" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:7" ht="20.25">
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+      <c r="I201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="20.25">
       <c r="A202" s="1">
         <v>44076</v>
       </c>
@@ -5130,8 +6549,15 @@
       <c r="G202" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:7" ht="20.25">
+      <c r="H202" s="3">
+        <v>0</v>
+      </c>
+      <c r="I202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" ht="20.25">
       <c r="A203" s="1">
         <v>44076</v>
       </c>
@@ -5153,8 +6579,15 @@
       <c r="G203" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" ht="20.25">
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+      <c r="I203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" ht="20.25">
       <c r="A204" s="1">
         <v>44076</v>
       </c>
@@ -5176,8 +6609,15 @@
       <c r="G204" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="1:7" ht="20.25">
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" ht="20.25">
       <c r="A205" s="1">
         <v>44076</v>
       </c>
@@ -5199,8 +6639,15 @@
       <c r="G205" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:7" ht="20.25">
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+      <c r="I205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" ht="20.25">
       <c r="A206" s="1">
         <v>44076</v>
       </c>
@@ -5222,8 +6669,15 @@
       <c r="G206" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:7" ht="20.25">
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+      <c r="I206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="20.25">
       <c r="A207" s="1">
         <v>44076</v>
       </c>
@@ -5245,8 +6699,15 @@
       <c r="G207" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:7" ht="20.25">
+      <c r="H207" s="3">
+        <v>0</v>
+      </c>
+      <c r="I207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="20.25">
       <c r="A208" s="1">
         <v>44076</v>
       </c>
@@ -5268,8 +6729,15 @@
       <c r="G208" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:7" ht="20.25">
+      <c r="H208" s="3">
+        <v>0</v>
+      </c>
+      <c r="I208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" ht="20.25">
       <c r="A209" s="1">
         <v>44076</v>
       </c>
@@ -5291,8 +6759,15 @@
       <c r="G209" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="210" spans="1:7" ht="20.25">
+      <c r="H209" s="3">
+        <v>0</v>
+      </c>
+      <c r="I209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" ht="20.25">
       <c r="A210" s="1">
         <v>44077</v>
       </c>
@@ -5314,8 +6789,15 @@
       <c r="G210" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:7" ht="20.25">
+      <c r="H210" s="3">
+        <v>0</v>
+      </c>
+      <c r="I210">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="20.25">
       <c r="A211" s="1">
         <v>44077</v>
       </c>
@@ -5337,8 +6819,15 @@
       <c r="G211" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="1:7" ht="20.25">
+      <c r="H211" s="3">
+        <v>0</v>
+      </c>
+      <c r="I211">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="20.25">
       <c r="A212" s="1">
         <v>44077</v>
       </c>
@@ -5360,8 +6849,15 @@
       <c r="G212" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:7" ht="20.25">
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="20.25">
       <c r="A213" s="1">
         <v>44077</v>
       </c>
@@ -5383,8 +6879,15 @@
       <c r="G213" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" ht="20.25">
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="20.25">
       <c r="A214" s="1">
         <v>44077</v>
       </c>
@@ -5406,8 +6909,15 @@
       <c r="G214" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" ht="20.25">
+      <c r="H214" s="3">
+        <v>0</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="20.25">
       <c r="A215" s="1">
         <v>44077</v>
       </c>
@@ -5429,8 +6939,15 @@
       <c r="G215" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:7" ht="20.25">
+      <c r="H215" s="3">
+        <v>0</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="20.25">
       <c r="A216" s="1">
         <v>44077</v>
       </c>
@@ -5452,8 +6969,15 @@
       <c r="G216" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="217" spans="1:7" ht="20.25">
+      <c r="H216" s="3">
+        <v>0</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="20.25">
       <c r="A217" s="1">
         <v>44077</v>
       </c>
@@ -5475,8 +6999,15 @@
       <c r="G217" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="218" spans="1:7" ht="20.25">
+      <c r="H217" s="3">
+        <v>0</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="20.25">
       <c r="A218" s="1">
         <v>44077</v>
       </c>
@@ -5498,8 +7029,15 @@
       <c r="G218" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="1:7" ht="20.25">
+      <c r="H218" s="3">
+        <v>0</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="20.25">
       <c r="A219" s="1">
         <v>44077</v>
       </c>
@@ -5521,8 +7059,15 @@
       <c r="G219" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:7" ht="20.25">
+      <c r="H219" s="3">
+        <v>0</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="20.25">
       <c r="A220" s="1">
         <v>44077</v>
       </c>
@@ -5544,8 +7089,15 @@
       <c r="G220" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:7" ht="20.25">
+      <c r="H220" s="3">
+        <v>0</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="20.25">
       <c r="A221" s="1">
         <v>44077</v>
       </c>
@@ -5567,8 +7119,15 @@
       <c r="G221" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:7" ht="20.25">
+      <c r="H221" s="3">
+        <v>0</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="20.25">
       <c r="A222" s="1">
         <v>44077</v>
       </c>
@@ -5590,8 +7149,15 @@
       <c r="G222" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:7" ht="20.25">
+      <c r="H222" s="3">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="20.25">
       <c r="A223" s="1">
         <v>44077</v>
       </c>
@@ -5613,8 +7179,15 @@
       <c r="G223" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:7" ht="20.25">
+      <c r="H223" s="3">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" ht="20.25">
       <c r="A224" s="1">
         <v>44077</v>
       </c>
@@ -5636,8 +7209,15 @@
       <c r="G224" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:7" ht="20.25">
+      <c r="H224" s="3">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" ht="20.25">
       <c r="A225" s="1">
         <v>44077</v>
       </c>
@@ -5659,8 +7239,15 @@
       <c r="G225" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="226" spans="1:7" ht="20.25">
+      <c r="H225" s="3">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="20.25">
       <c r="A226" s="1">
         <v>44077</v>
       </c>
@@ -5682,8 +7269,15 @@
       <c r="G226" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:7" ht="20.25">
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="20.25">
       <c r="A227" s="1">
         <v>44077</v>
       </c>
@@ -5705,8 +7299,15 @@
       <c r="G227" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:7" ht="20.25">
+      <c r="H227" s="3">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="20.25">
       <c r="A228" s="1">
         <v>44077</v>
       </c>
@@ -5728,8 +7329,15 @@
       <c r="G228" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:7" ht="20.25">
+      <c r="H228" s="3">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" ht="20.25">
       <c r="A229" s="1">
         <v>44077</v>
       </c>
@@ -5751,8 +7359,15 @@
       <c r="G229" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="1:7" ht="20.25">
+      <c r="H229" s="3">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" ht="20.25">
       <c r="A230" s="1">
         <v>44077</v>
       </c>
@@ -5774,8 +7389,15 @@
       <c r="G230" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="1:7" ht="20.25">
+      <c r="H230" s="3">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="20.25">
       <c r="A231" s="1">
         <v>44077</v>
       </c>
@@ -5797,8 +7419,15 @@
       <c r="G231" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:7" ht="20.25">
+      <c r="H231" s="3">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="20.25">
       <c r="A232" s="1">
         <v>44077</v>
       </c>
@@ -5820,8 +7449,15 @@
       <c r="G232" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="1:7" ht="20.25">
+      <c r="H232" s="3">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="20.25">
       <c r="A233" s="1">
         <v>44077</v>
       </c>
@@ -5843,8 +7479,15 @@
       <c r="G233" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:7" ht="20.25">
+      <c r="H233" s="3">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" ht="20.25">
       <c r="A234" s="1">
         <v>44077</v>
       </c>
@@ -5866,8 +7509,15 @@
       <c r="G234" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:7" ht="20.25">
+      <c r="H234" s="3">
+        <v>0</v>
+      </c>
+      <c r="I234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" ht="20.25">
       <c r="A235" s="1">
         <v>44077</v>
       </c>
@@ -5889,8 +7539,15 @@
       <c r="G235" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="236" spans="1:7" ht="20.25">
+      <c r="H235" s="3">
+        <v>0</v>
+      </c>
+      <c r="I235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="20.25">
       <c r="A236" s="1">
         <v>44077</v>
       </c>
@@ -5912,8 +7569,15 @@
       <c r="G236" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="237" spans="1:7" ht="20.25">
+      <c r="H236" s="3">
+        <v>0</v>
+      </c>
+      <c r="I236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="20.25">
       <c r="A237" s="1">
         <v>44077</v>
       </c>
@@ -5935,8 +7599,15 @@
       <c r="G237" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:7" ht="20.25">
+      <c r="H237" s="3">
+        <v>0</v>
+      </c>
+      <c r="I237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="20.25">
       <c r="A238" s="1">
         <v>44077</v>
       </c>
@@ -5958,8 +7629,15 @@
       <c r="G238" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="239" spans="1:7" ht="20.25">
+      <c r="H238" s="3">
+        <v>0</v>
+      </c>
+      <c r="I238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="20.25">
       <c r="A239" s="1">
         <v>44077</v>
       </c>
@@ -5981,8 +7659,15 @@
       <c r="G239" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="240" spans="1:7" ht="20.25">
+      <c r="H239" s="3">
+        <v>0</v>
+      </c>
+      <c r="I239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="20.25">
       <c r="A240" s="1">
         <v>44077</v>
       </c>
@@ -6004,8 +7689,15 @@
       <c r="G240" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:7" ht="20.25">
+      <c r="H240" s="3">
+        <v>0</v>
+      </c>
+      <c r="I240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="20.25">
       <c r="A241" s="1">
         <v>44077</v>
       </c>
@@ -6027,8 +7719,15 @@
       <c r="G241" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:7" ht="20.25">
+      <c r="H241" s="3">
+        <v>0</v>
+      </c>
+      <c r="I241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="20.25">
       <c r="A242" s="1">
         <v>44077</v>
       </c>
@@ -6050,8 +7749,15 @@
       <c r="G242" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:7" ht="20.25">
+      <c r="H242" s="3">
+        <v>0</v>
+      </c>
+      <c r="I242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="20.25">
       <c r="A243" s="1">
         <v>44077</v>
       </c>
@@ -6073,8 +7779,15 @@
       <c r="G243" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="244" spans="1:7" ht="20.25">
+      <c r="H243" s="3">
+        <v>0</v>
+      </c>
+      <c r="I243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="20.25">
       <c r="A244" s="1">
         <v>44077</v>
       </c>
@@ -6096,8 +7809,15 @@
       <c r="G244" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:7" ht="20.25">
+      <c r="H244" s="3">
+        <v>0</v>
+      </c>
+      <c r="I244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="20.25">
       <c r="A245" s="1">
         <v>44077</v>
       </c>
@@ -6119,8 +7839,15 @@
       <c r="G245" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="246" spans="1:7" ht="20.25">
+      <c r="H245" s="3">
+        <v>0</v>
+      </c>
+      <c r="I245">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="20.25">
       <c r="A246" s="1">
         <v>44077</v>
       </c>
@@ -6141,10 +7868,48 @@
       </c>
       <c r="G246" s="3">
         <v>1</v>
+      </c>
+      <c r="H246" s="3">
+        <v>0</v>
+      </c>
+      <c r="I246">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="I247" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D871415-8223-4335-B550-F73157C57706}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC93B57D-B303-4B6B-9363-757026CFB449}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B446B1A-4A07-43BB-BE8A-188543A64B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="135" windowWidth="28770" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -109,9 +109,6 @@
   </si>
   <si>
     <t>Employee</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
   <si>
     <t>NotificationLag</t>
@@ -484,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I247"/>
+  <dimension ref="A1:I307"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A281" sqref="A281"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -524,7 +521,7 @@
         <v>24</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25">
@@ -552,7 +549,7 @@
       <c r="H2" s="3">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="3">
         <f>A2-B2</f>
         <v>1</v>
       </c>
@@ -582,7 +579,7 @@
       <c r="H3" s="3">
         <v>0</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f t="shared" ref="I3:I66" si="0">A3-B3</f>
         <v>1</v>
       </c>
@@ -612,7 +609,7 @@
       <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -642,7 +639,7 @@
       <c r="H5" s="3">
         <v>0</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -672,7 +669,7 @@
       <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -702,7 +699,7 @@
       <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -732,7 +729,7 @@
       <c r="H8" s="3">
         <v>0</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -762,7 +759,7 @@
       <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -792,7 +789,7 @@
       <c r="H10" s="3">
         <v>0</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -822,7 +819,7 @@
       <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -852,7 +849,7 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -882,7 +879,7 @@
       <c r="H13" s="3">
         <v>0</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -912,7 +909,7 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -942,7 +939,7 @@
       <c r="H15" s="3">
         <v>0</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -972,7 +969,7 @@
       <c r="H16" s="3">
         <v>0</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1002,7 +999,7 @@
       <c r="H17" s="3">
         <v>0</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1032,7 +1029,7 @@
       <c r="H18" s="3">
         <v>0</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1062,7 +1059,7 @@
       <c r="H19" s="3">
         <v>0</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1092,7 +1089,7 @@
       <c r="H20" s="3">
         <v>0</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1122,7 +1119,7 @@
       <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1152,7 +1149,7 @@
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1182,7 +1179,7 @@
       <c r="H23" s="3">
         <v>0</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1212,7 +1209,7 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1242,7 +1239,7 @@
       <c r="H25" s="3">
         <v>0</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1272,7 +1269,7 @@
       <c r="H26" s="3">
         <v>0</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1302,7 +1299,7 @@
       <c r="H27" s="3">
         <v>0</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1332,7 +1329,7 @@
       <c r="H28" s="3">
         <v>0</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1362,7 +1359,7 @@
       <c r="H29" s="3">
         <v>0</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1392,7 +1389,7 @@
       <c r="H30" s="3">
         <v>0</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1422,7 +1419,7 @@
       <c r="H31" s="3">
         <v>0</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1452,7 +1449,7 @@
       <c r="H32" s="3">
         <v>0</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1482,7 +1479,7 @@
       <c r="H33" s="3">
         <v>0</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1512,7 +1509,7 @@
       <c r="H34" s="3">
         <v>0</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1542,7 +1539,7 @@
       <c r="H35" s="3">
         <v>0</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1572,7 +1569,7 @@
       <c r="H36" s="3">
         <v>0</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -1602,7 +1599,7 @@
       <c r="H37" s="3">
         <v>0</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -1621,7 +1618,7 @@
         <v>6</v>
       </c>
       <c r="E38" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" s="3">
         <v>0</v>
@@ -1632,7 +1629,7 @@
       <c r="H38" s="3">
         <v>1</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1662,7 +1659,7 @@
       <c r="H39" s="3">
         <v>0</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1692,7 +1689,7 @@
       <c r="H40" s="3">
         <v>0</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1722,7 +1719,7 @@
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1752,7 +1749,7 @@
       <c r="H42" s="3">
         <v>0</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1782,7 +1779,7 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1812,7 +1809,7 @@
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1842,7 +1839,7 @@
       <c r="H45" s="3">
         <v>0</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1872,7 +1869,7 @@
       <c r="H46" s="3">
         <v>1</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1902,7 +1899,7 @@
       <c r="H47" s="3">
         <v>1</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -1932,7 +1929,7 @@
       <c r="H48" s="3">
         <v>1</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1962,7 +1959,7 @@
       <c r="H49" s="3">
         <v>1</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -1992,7 +1989,7 @@
       <c r="H50" s="3">
         <v>1</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2022,7 +2019,7 @@
       <c r="H51" s="3">
         <v>0</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2052,7 +2049,7 @@
       <c r="H52" s="3">
         <v>0</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2082,7 +2079,7 @@
       <c r="H53" s="3">
         <v>0</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2112,7 +2109,7 @@
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -2142,7 +2139,7 @@
       <c r="H55" s="3">
         <v>0</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2172,7 +2169,7 @@
       <c r="H56" s="3">
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
@@ -2202,7 +2199,7 @@
       <c r="H57" s="3">
         <v>0</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -2232,7 +2229,7 @@
       <c r="H58" s="3">
         <v>0</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2262,7 +2259,7 @@
       <c r="H59" s="3">
         <v>0</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2292,7 +2289,7 @@
       <c r="H60" s="3">
         <v>0</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2322,7 +2319,7 @@
       <c r="H61" s="3">
         <v>0</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2352,7 +2349,7 @@
       <c r="H62" s="3">
         <v>1</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="3">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -2382,7 +2379,7 @@
       <c r="H63" s="3">
         <v>0</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -2412,7 +2409,7 @@
       <c r="H64" s="3">
         <v>1</v>
       </c>
-      <c r="I64">
+      <c r="I64" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2442,7 +2439,7 @@
       <c r="H65" s="3">
         <v>1</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2472,7 +2469,7 @@
       <c r="H66" s="3">
         <v>1</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="3">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2502,7 +2499,7 @@
       <c r="H67" s="3">
         <v>1</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="3">
         <f t="shared" ref="I67:I130" si="1">A67-B67</f>
         <v>0</v>
       </c>
@@ -2532,7 +2529,7 @@
       <c r="H68" s="3">
         <v>0</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2562,7 +2559,7 @@
       <c r="H69" s="3">
         <v>0</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2592,7 +2589,7 @@
       <c r="H70" s="3">
         <v>0</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2622,7 +2619,7 @@
       <c r="H71" s="3">
         <v>1</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2652,7 +2649,7 @@
       <c r="H72" s="3">
         <v>1</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -2682,7 +2679,7 @@
       <c r="H73" s="3">
         <v>0</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2712,7 +2709,7 @@
       <c r="H74" s="3">
         <v>0</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2742,7 +2739,7 @@
       <c r="H75" s="3">
         <v>1</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2772,7 +2769,7 @@
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2802,7 +2799,7 @@
       <c r="H77" s="3">
         <v>1</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -2832,7 +2829,7 @@
       <c r="H78" s="3">
         <v>1</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2862,7 +2859,7 @@
       <c r="H79" s="3">
         <v>0</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2892,7 +2889,7 @@
       <c r="H80" s="3">
         <v>0</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2922,7 +2919,7 @@
       <c r="H81" s="3">
         <v>0</v>
       </c>
-      <c r="I81">
+      <c r="I81" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2952,7 +2949,7 @@
       <c r="H82" s="3">
         <v>0</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2982,7 +2979,7 @@
       <c r="H83" s="3">
         <v>1</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3012,7 +3009,7 @@
       <c r="H84" s="3">
         <v>0</v>
       </c>
-      <c r="I84">
+      <c r="I84" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3042,7 +3039,7 @@
       <c r="H85" s="3">
         <v>1</v>
       </c>
-      <c r="I85">
+      <c r="I85" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3072,7 +3069,7 @@
       <c r="H86" s="3">
         <v>1</v>
       </c>
-      <c r="I86">
+      <c r="I86" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3102,7 +3099,7 @@
       <c r="H87" s="3">
         <v>0</v>
       </c>
-      <c r="I87">
+      <c r="I87" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3132,7 +3129,7 @@
       <c r="H88" s="3">
         <v>0</v>
       </c>
-      <c r="I88">
+      <c r="I88" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3162,7 +3159,7 @@
       <c r="H89" s="3">
         <v>0</v>
       </c>
-      <c r="I89">
+      <c r="I89" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3192,7 +3189,7 @@
       <c r="H90" s="3">
         <v>0</v>
       </c>
-      <c r="I90">
+      <c r="I90" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3222,7 +3219,7 @@
       <c r="H91" s="3">
         <v>1</v>
       </c>
-      <c r="I91">
+      <c r="I91" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3252,7 +3249,7 @@
       <c r="H92" s="3">
         <v>1</v>
       </c>
-      <c r="I92">
+      <c r="I92" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -3282,7 +3279,7 @@
       <c r="H93" s="3">
         <v>1</v>
       </c>
-      <c r="I93">
+      <c r="I93" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3312,7 +3309,7 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94">
+      <c r="I94" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3342,7 +3339,7 @@
       <c r="H95" s="3">
         <v>0</v>
       </c>
-      <c r="I95">
+      <c r="I95" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3372,7 +3369,7 @@
       <c r="H96" s="3">
         <v>1</v>
       </c>
-      <c r="I96">
+      <c r="I96" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3402,7 +3399,7 @@
       <c r="H97" s="3">
         <v>1</v>
       </c>
-      <c r="I97">
+      <c r="I97" s="3">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
@@ -3432,7 +3429,7 @@
       <c r="H98" s="3">
         <v>0</v>
       </c>
-      <c r="I98">
+      <c r="I98" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -3462,7 +3459,7 @@
       <c r="H99" s="3">
         <v>1</v>
       </c>
-      <c r="I99">
+      <c r="I99" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3492,7 +3489,7 @@
       <c r="H100" s="3">
         <v>1</v>
       </c>
-      <c r="I100">
+      <c r="I100" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3522,7 +3519,7 @@
       <c r="H101" s="3">
         <v>1</v>
       </c>
-      <c r="I101">
+      <c r="I101" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -3552,7 +3549,7 @@
       <c r="H102" s="3">
         <v>1</v>
       </c>
-      <c r="I102">
+      <c r="I102" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3582,7 +3579,7 @@
       <c r="H103" s="3">
         <v>0</v>
       </c>
-      <c r="I103">
+      <c r="I103" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3612,7 +3609,7 @@
       <c r="H104" s="3">
         <v>1</v>
       </c>
-      <c r="I104">
+      <c r="I104" s="3">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
@@ -3642,7 +3639,7 @@
       <c r="H105" s="3">
         <v>1</v>
       </c>
-      <c r="I105">
+      <c r="I105" s="3">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
@@ -3672,7 +3669,7 @@
       <c r="H106" s="3">
         <v>0</v>
       </c>
-      <c r="I106">
+      <c r="I106" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3702,7 +3699,7 @@
       <c r="H107" s="3">
         <v>1</v>
       </c>
-      <c r="I107">
+      <c r="I107" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3732,7 +3729,7 @@
       <c r="H108" s="3">
         <v>1</v>
       </c>
-      <c r="I108">
+      <c r="I108" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3762,7 +3759,7 @@
       <c r="H109" s="3">
         <v>1</v>
       </c>
-      <c r="I109">
+      <c r="I109" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3792,7 +3789,7 @@
       <c r="H110" s="3">
         <v>0</v>
       </c>
-      <c r="I110">
+      <c r="I110" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3822,7 +3819,7 @@
       <c r="H111" s="3">
         <v>0</v>
       </c>
-      <c r="I111">
+      <c r="I111" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3852,7 +3849,7 @@
       <c r="H112" s="3">
         <v>0</v>
       </c>
-      <c r="I112">
+      <c r="I112" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -3882,7 +3879,7 @@
       <c r="H113" s="3">
         <v>0</v>
       </c>
-      <c r="I113">
+      <c r="I113" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3912,7 +3909,7 @@
       <c r="H114" s="3">
         <v>0</v>
       </c>
-      <c r="I114">
+      <c r="I114" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3942,7 +3939,7 @@
       <c r="H115" s="3">
         <v>0</v>
       </c>
-      <c r="I115">
+      <c r="I115" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -3972,7 +3969,7 @@
       <c r="H116" s="3">
         <v>0</v>
       </c>
-      <c r="I116">
+      <c r="I116" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4002,7 +3999,7 @@
       <c r="H117" s="3">
         <v>0</v>
       </c>
-      <c r="I117">
+      <c r="I117" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4032,7 +4029,7 @@
       <c r="H118" s="3">
         <v>0</v>
       </c>
-      <c r="I118">
+      <c r="I118" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -4062,7 +4059,7 @@
       <c r="H119" s="3">
         <v>1</v>
       </c>
-      <c r="I119">
+      <c r="I119" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4092,7 +4089,7 @@
       <c r="H120" s="3">
         <v>0</v>
       </c>
-      <c r="I120">
+      <c r="I120" s="3">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
@@ -4122,7 +4119,7 @@
       <c r="H121" s="3">
         <v>0</v>
       </c>
-      <c r="I121">
+      <c r="I121" s="3">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
@@ -4152,7 +4149,7 @@
       <c r="H122" s="3">
         <v>1</v>
       </c>
-      <c r="I122">
+      <c r="I122" s="3">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
@@ -4182,7 +4179,7 @@
       <c r="H123" s="3">
         <v>1</v>
       </c>
-      <c r="I123">
+      <c r="I123" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4212,7 +4209,7 @@
       <c r="H124" s="3">
         <v>0</v>
       </c>
-      <c r="I124">
+      <c r="I124" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4242,7 +4239,7 @@
       <c r="H125" s="3">
         <v>0</v>
       </c>
-      <c r="I125">
+      <c r="I125" s="3">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
@@ -4272,7 +4269,7 @@
       <c r="H126" s="3">
         <v>0</v>
       </c>
-      <c r="I126">
+      <c r="I126" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4302,7 +4299,7 @@
       <c r="H127" s="3">
         <v>0</v>
       </c>
-      <c r="I127">
+      <c r="I127" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4332,7 +4329,7 @@
       <c r="H128" s="3">
         <v>0</v>
       </c>
-      <c r="I128">
+      <c r="I128" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4362,7 +4359,7 @@
       <c r="H129" s="3">
         <v>0</v>
       </c>
-      <c r="I129">
+      <c r="I129" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4392,7 +4389,7 @@
       <c r="H130" s="3">
         <v>0</v>
       </c>
-      <c r="I130">
+      <c r="I130" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
@@ -4422,7 +4419,7 @@
       <c r="H131" s="3">
         <v>0</v>
       </c>
-      <c r="I131">
+      <c r="I131" s="3">
         <f t="shared" ref="I131:I194" si="2">A131-B131</f>
         <v>2</v>
       </c>
@@ -4452,7 +4449,7 @@
       <c r="H132" s="3">
         <v>0</v>
       </c>
-      <c r="I132">
+      <c r="I132" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4482,7 +4479,7 @@
       <c r="H133" s="3">
         <v>0</v>
       </c>
-      <c r="I133">
+      <c r="I133" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4512,7 +4509,7 @@
       <c r="H134" s="3">
         <v>0</v>
       </c>
-      <c r="I134">
+      <c r="I134" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4542,7 +4539,7 @@
       <c r="H135" s="3">
         <v>0</v>
       </c>
-      <c r="I135">
+      <c r="I135" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
@@ -4572,7 +4569,7 @@
       <c r="H136" s="3">
         <v>0</v>
       </c>
-      <c r="I136">
+      <c r="I136" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4602,7 +4599,7 @@
       <c r="H137" s="3">
         <v>0</v>
       </c>
-      <c r="I137">
+      <c r="I137" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4632,7 +4629,7 @@
       <c r="H138" s="3">
         <v>0</v>
       </c>
-      <c r="I138">
+      <c r="I138" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4662,7 +4659,7 @@
       <c r="H139" s="3">
         <v>0</v>
       </c>
-      <c r="I139">
+      <c r="I139" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4692,7 +4689,7 @@
       <c r="H140" s="3">
         <v>0</v>
       </c>
-      <c r="I140">
+      <c r="I140" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4722,7 +4719,7 @@
       <c r="H141" s="3">
         <v>0</v>
       </c>
-      <c r="I141">
+      <c r="I141" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4752,7 +4749,7 @@
       <c r="H142" s="3">
         <v>0</v>
       </c>
-      <c r="I142">
+      <c r="I142" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4782,7 +4779,7 @@
       <c r="H143" s="3">
         <v>0</v>
       </c>
-      <c r="I143">
+      <c r="I143" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4812,7 +4809,7 @@
       <c r="H144" s="3">
         <v>0</v>
       </c>
-      <c r="I144">
+      <c r="I144" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4842,7 +4839,7 @@
       <c r="H145" s="3">
         <v>0</v>
       </c>
-      <c r="I145">
+      <c r="I145" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4872,7 +4869,7 @@
       <c r="H146" s="3">
         <v>0</v>
       </c>
-      <c r="I146">
+      <c r="I146" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4902,7 +4899,7 @@
       <c r="H147" s="3">
         <v>0</v>
       </c>
-      <c r="I147">
+      <c r="I147" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4932,7 +4929,7 @@
       <c r="H148" s="3">
         <v>0</v>
       </c>
-      <c r="I148">
+      <c r="I148" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4962,7 +4959,7 @@
       <c r="H149" s="3">
         <v>0</v>
       </c>
-      <c r="I149">
+      <c r="I149" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -4992,7 +4989,7 @@
       <c r="H150" s="3">
         <v>0</v>
       </c>
-      <c r="I150">
+      <c r="I150" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5022,7 +5019,7 @@
       <c r="H151" s="3">
         <v>0</v>
       </c>
-      <c r="I151">
+      <c r="I151" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5052,7 +5049,7 @@
       <c r="H152" s="3">
         <v>0</v>
       </c>
-      <c r="I152">
+      <c r="I152" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5082,7 +5079,7 @@
       <c r="H153" s="3">
         <v>1</v>
       </c>
-      <c r="I153">
+      <c r="I153" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5112,7 +5109,7 @@
       <c r="H154" s="3">
         <v>0</v>
       </c>
-      <c r="I154">
+      <c r="I154" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5142,7 +5139,7 @@
       <c r="H155" s="3">
         <v>0</v>
       </c>
-      <c r="I155">
+      <c r="I155" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5172,7 +5169,7 @@
       <c r="H156" s="3">
         <v>0</v>
       </c>
-      <c r="I156">
+      <c r="I156" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5202,7 +5199,7 @@
       <c r="H157" s="3">
         <v>0</v>
       </c>
-      <c r="I157">
+      <c r="I157" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5232,7 +5229,7 @@
       <c r="H158" s="3">
         <v>0</v>
       </c>
-      <c r="I158">
+      <c r="I158" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5262,7 +5259,7 @@
       <c r="H159" s="3">
         <v>0</v>
       </c>
-      <c r="I159">
+      <c r="I159" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5292,7 +5289,7 @@
       <c r="H160" s="3">
         <v>0</v>
       </c>
-      <c r="I160">
+      <c r="I160" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5322,7 +5319,7 @@
       <c r="H161" s="3">
         <v>0</v>
       </c>
-      <c r="I161">
+      <c r="I161" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5352,7 +5349,7 @@
       <c r="H162" s="3">
         <v>0</v>
       </c>
-      <c r="I162">
+      <c r="I162" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5382,7 +5379,7 @@
       <c r="H163" s="3">
         <v>0</v>
       </c>
-      <c r="I163">
+      <c r="I163" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5412,7 +5409,7 @@
       <c r="H164" s="3">
         <v>0</v>
       </c>
-      <c r="I164">
+      <c r="I164" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5442,7 +5439,7 @@
       <c r="H165" s="3">
         <v>0</v>
       </c>
-      <c r="I165">
+      <c r="I165" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5472,7 +5469,7 @@
       <c r="H166" s="3">
         <v>0</v>
       </c>
-      <c r="I166">
+      <c r="I166" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5502,7 +5499,7 @@
       <c r="H167" s="3">
         <v>0</v>
       </c>
-      <c r="I167">
+      <c r="I167" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -5532,7 +5529,7 @@
       <c r="H168" s="3">
         <v>0</v>
       </c>
-      <c r="I168">
+      <c r="I168" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5562,7 +5559,7 @@
       <c r="H169" s="3">
         <v>0</v>
       </c>
-      <c r="I169">
+      <c r="I169" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5592,7 +5589,7 @@
       <c r="H170" s="3">
         <v>0</v>
       </c>
-      <c r="I170">
+      <c r="I170" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5622,7 +5619,7 @@
       <c r="H171" s="3">
         <v>0</v>
       </c>
-      <c r="I171">
+      <c r="I171" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5652,7 +5649,7 @@
       <c r="H172" s="3">
         <v>0</v>
       </c>
-      <c r="I172">
+      <c r="I172" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5682,7 +5679,7 @@
       <c r="H173" s="3">
         <v>0</v>
       </c>
-      <c r="I173">
+      <c r="I173" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5712,7 +5709,7 @@
       <c r="H174" s="3">
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="I174" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5742,7 +5739,7 @@
       <c r="H175" s="3">
         <v>0</v>
       </c>
-      <c r="I175">
+      <c r="I175" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5772,7 +5769,7 @@
       <c r="H176" s="3">
         <v>0</v>
       </c>
-      <c r="I176">
+      <c r="I176" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5802,7 +5799,7 @@
       <c r="H177" s="3">
         <v>0</v>
       </c>
-      <c r="I177">
+      <c r="I177" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5832,7 +5829,7 @@
       <c r="H178" s="3">
         <v>0</v>
       </c>
-      <c r="I178">
+      <c r="I178" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5862,7 +5859,7 @@
       <c r="H179" s="3">
         <v>0</v>
       </c>
-      <c r="I179">
+      <c r="I179" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5892,7 +5889,7 @@
       <c r="H180" s="3">
         <v>0</v>
       </c>
-      <c r="I180">
+      <c r="I180" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5922,7 +5919,7 @@
       <c r="H181" s="3">
         <v>0</v>
       </c>
-      <c r="I181">
+      <c r="I181" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5952,7 +5949,7 @@
       <c r="H182" s="3">
         <v>0</v>
       </c>
-      <c r="I182">
+      <c r="I182" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -5982,7 +5979,7 @@
       <c r="H183" s="3">
         <v>0</v>
       </c>
-      <c r="I183">
+      <c r="I183" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6012,7 +6009,7 @@
       <c r="H184" s="3">
         <v>0</v>
       </c>
-      <c r="I184">
+      <c r="I184" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6042,7 +6039,7 @@
       <c r="H185" s="3">
         <v>0</v>
       </c>
-      <c r="I185">
+      <c r="I185" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6072,7 +6069,7 @@
       <c r="H186" s="3">
         <v>0</v>
       </c>
-      <c r="I186">
+      <c r="I186" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6102,7 +6099,7 @@
       <c r="H187" s="3">
         <v>0</v>
       </c>
-      <c r="I187">
+      <c r="I187" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6132,7 +6129,7 @@
       <c r="H188" s="3">
         <v>0</v>
       </c>
-      <c r="I188">
+      <c r="I188" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6162,7 +6159,7 @@
       <c r="H189" s="3">
         <v>0</v>
       </c>
-      <c r="I189">
+      <c r="I189" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6192,7 +6189,7 @@
       <c r="H190" s="3">
         <v>0</v>
       </c>
-      <c r="I190">
+      <c r="I190" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6222,7 +6219,7 @@
       <c r="H191" s="3">
         <v>0</v>
       </c>
-      <c r="I191">
+      <c r="I191" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6252,7 +6249,7 @@
       <c r="H192" s="3">
         <v>0</v>
       </c>
-      <c r="I192">
+      <c r="I192" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6282,7 +6279,7 @@
       <c r="H193" s="3">
         <v>0</v>
       </c>
-      <c r="I193">
+      <c r="I193" s="3">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -6312,7 +6309,7 @@
       <c r="H194" s="3">
         <v>0</v>
       </c>
-      <c r="I194">
+      <c r="I194" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
@@ -6342,8 +6339,8 @@
       <c r="H195" s="3">
         <v>0</v>
       </c>
-      <c r="I195">
-        <f t="shared" ref="I195:I246" si="3">A195-B195</f>
+      <c r="I195" s="3">
+        <f t="shared" ref="I195:I258" si="3">A195-B195</f>
         <v>1</v>
       </c>
     </row>
@@ -6372,7 +6369,7 @@
       <c r="H196" s="3">
         <v>0</v>
       </c>
-      <c r="I196">
+      <c r="I196" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6402,7 +6399,7 @@
       <c r="H197" s="3">
         <v>0</v>
       </c>
-      <c r="I197">
+      <c r="I197" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6432,7 +6429,7 @@
       <c r="H198" s="3">
         <v>0</v>
       </c>
-      <c r="I198">
+      <c r="I198" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6462,7 +6459,7 @@
       <c r="H199" s="3">
         <v>0</v>
       </c>
-      <c r="I199">
+      <c r="I199" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6492,7 +6489,7 @@
       <c r="H200" s="3">
         <v>0</v>
       </c>
-      <c r="I200">
+      <c r="I200" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6522,7 +6519,7 @@
       <c r="H201" s="3">
         <v>0</v>
       </c>
-      <c r="I201">
+      <c r="I201" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6552,7 +6549,7 @@
       <c r="H202" s="3">
         <v>0</v>
       </c>
-      <c r="I202">
+      <c r="I202" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6582,7 +6579,7 @@
       <c r="H203" s="3">
         <v>0</v>
       </c>
-      <c r="I203">
+      <c r="I203" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6612,7 +6609,7 @@
       <c r="H204" s="3">
         <v>0</v>
       </c>
-      <c r="I204">
+      <c r="I204" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6642,7 +6639,7 @@
       <c r="H205" s="3">
         <v>0</v>
       </c>
-      <c r="I205">
+      <c r="I205" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6672,7 +6669,7 @@
       <c r="H206" s="3">
         <v>0</v>
       </c>
-      <c r="I206">
+      <c r="I206" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6702,7 +6699,7 @@
       <c r="H207" s="3">
         <v>0</v>
       </c>
-      <c r="I207">
+      <c r="I207" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6732,7 +6729,7 @@
       <c r="H208" s="3">
         <v>0</v>
       </c>
-      <c r="I208">
+      <c r="I208" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6762,7 +6759,7 @@
       <c r="H209" s="3">
         <v>0</v>
       </c>
-      <c r="I209">
+      <c r="I209" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -6792,7 +6789,7 @@
       <c r="H210" s="3">
         <v>0</v>
       </c>
-      <c r="I210">
+      <c r="I210" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6822,7 +6819,7 @@
       <c r="H211" s="3">
         <v>0</v>
       </c>
-      <c r="I211">
+      <c r="I211" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6852,7 +6849,7 @@
       <c r="H212" s="3">
         <v>0</v>
       </c>
-      <c r="I212">
+      <c r="I212" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6882,7 +6879,7 @@
       <c r="H213" s="3">
         <v>0</v>
       </c>
-      <c r="I213">
+      <c r="I213" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6912,7 +6909,7 @@
       <c r="H214" s="3">
         <v>0</v>
       </c>
-      <c r="I214">
+      <c r="I214" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6942,7 +6939,7 @@
       <c r="H215" s="3">
         <v>0</v>
       </c>
-      <c r="I215">
+      <c r="I215" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -6972,7 +6969,7 @@
       <c r="H216" s="3">
         <v>0</v>
       </c>
-      <c r="I216">
+      <c r="I216" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7002,7 +6999,7 @@
       <c r="H217" s="3">
         <v>0</v>
       </c>
-      <c r="I217">
+      <c r="I217" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7032,7 +7029,7 @@
       <c r="H218" s="3">
         <v>0</v>
       </c>
-      <c r="I218">
+      <c r="I218" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7062,7 +7059,7 @@
       <c r="H219" s="3">
         <v>0</v>
       </c>
-      <c r="I219">
+      <c r="I219" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7092,7 +7089,7 @@
       <c r="H220" s="3">
         <v>0</v>
       </c>
-      <c r="I220">
+      <c r="I220" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7122,7 +7119,7 @@
       <c r="H221" s="3">
         <v>0</v>
       </c>
-      <c r="I221">
+      <c r="I221" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7152,7 +7149,7 @@
       <c r="H222" s="3">
         <v>0</v>
       </c>
-      <c r="I222">
+      <c r="I222" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7182,7 +7179,7 @@
       <c r="H223" s="3">
         <v>0</v>
       </c>
-      <c r="I223">
+      <c r="I223" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7212,7 +7209,7 @@
       <c r="H224" s="3">
         <v>0</v>
       </c>
-      <c r="I224">
+      <c r="I224" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7242,7 +7239,7 @@
       <c r="H225" s="3">
         <v>0</v>
       </c>
-      <c r="I225">
+      <c r="I225" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7272,7 +7269,7 @@
       <c r="H226" s="3">
         <v>0</v>
       </c>
-      <c r="I226">
+      <c r="I226" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7302,7 +7299,7 @@
       <c r="H227" s="3">
         <v>0</v>
       </c>
-      <c r="I227">
+      <c r="I227" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7332,7 +7329,7 @@
       <c r="H228" s="3">
         <v>0</v>
       </c>
-      <c r="I228">
+      <c r="I228" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7362,7 +7359,7 @@
       <c r="H229" s="3">
         <v>0</v>
       </c>
-      <c r="I229">
+      <c r="I229" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7392,7 +7389,7 @@
       <c r="H230" s="3">
         <v>0</v>
       </c>
-      <c r="I230">
+      <c r="I230" s="3">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
@@ -7422,7 +7419,7 @@
       <c r="H231" s="3">
         <v>0</v>
       </c>
-      <c r="I231">
+      <c r="I231" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7452,7 +7449,7 @@
       <c r="H232" s="3">
         <v>0</v>
       </c>
-      <c r="I232">
+      <c r="I232" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7482,7 +7479,7 @@
       <c r="H233" s="3">
         <v>0</v>
       </c>
-      <c r="I233">
+      <c r="I233" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7512,7 +7509,7 @@
       <c r="H234" s="3">
         <v>0</v>
       </c>
-      <c r="I234">
+      <c r="I234" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7542,7 +7539,7 @@
       <c r="H235" s="3">
         <v>0</v>
       </c>
-      <c r="I235">
+      <c r="I235" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7572,7 +7569,7 @@
       <c r="H236" s="3">
         <v>0</v>
       </c>
-      <c r="I236">
+      <c r="I236" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7602,7 +7599,7 @@
       <c r="H237" s="3">
         <v>0</v>
       </c>
-      <c r="I237">
+      <c r="I237" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7632,7 +7629,7 @@
       <c r="H238" s="3">
         <v>0</v>
       </c>
-      <c r="I238">
+      <c r="I238" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7662,7 +7659,7 @@
       <c r="H239" s="3">
         <v>0</v>
       </c>
-      <c r="I239">
+      <c r="I239" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7692,7 +7689,7 @@
       <c r="H240" s="3">
         <v>0</v>
       </c>
-      <c r="I240">
+      <c r="I240" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7722,7 +7719,7 @@
       <c r="H241" s="3">
         <v>0</v>
       </c>
-      <c r="I241">
+      <c r="I241" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7752,7 +7749,7 @@
       <c r="H242" s="3">
         <v>0</v>
       </c>
-      <c r="I242">
+      <c r="I242" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7782,7 +7779,7 @@
       <c r="H243" s="3">
         <v>0</v>
       </c>
-      <c r="I243">
+      <c r="I243" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7812,7 +7809,7 @@
       <c r="H244" s="3">
         <v>0</v>
       </c>
-      <c r="I244">
+      <c r="I244" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7842,7 +7839,7 @@
       <c r="H245" s="3">
         <v>0</v>
       </c>
-      <c r="I245">
+      <c r="I245" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -7872,15 +7869,1761 @@
       <c r="H246" s="3">
         <v>0</v>
       </c>
-      <c r="I246">
+      <c r="I246" s="3">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
-      <c r="I247" t="s">
-        <v>25</v>
-      </c>
+    <row r="247" spans="1:9" ht="20.25">
+      <c r="A247" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B247" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C247" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E247" s="3">
+        <v>1</v>
+      </c>
+      <c r="F247" s="3">
+        <v>1</v>
+      </c>
+      <c r="G247" s="3">
+        <v>0</v>
+      </c>
+      <c r="H247" s="3">
+        <v>0</v>
+      </c>
+      <c r="I247" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="20.25">
+      <c r="A248" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B248" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C248" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E248" s="3">
+        <v>1</v>
+      </c>
+      <c r="F248" s="3">
+        <v>1</v>
+      </c>
+      <c r="G248" s="3">
+        <v>0</v>
+      </c>
+      <c r="H248" s="3">
+        <v>0</v>
+      </c>
+      <c r="I248" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="20.25">
+      <c r="A249" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B249" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C249" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E249" s="3">
+        <v>1</v>
+      </c>
+      <c r="F249" s="3">
+        <v>1</v>
+      </c>
+      <c r="G249" s="3">
+        <v>1</v>
+      </c>
+      <c r="H249" s="3">
+        <v>0</v>
+      </c>
+      <c r="I249" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" ht="20.25">
+      <c r="A250" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B250" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C250" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E250" s="3">
+        <v>1</v>
+      </c>
+      <c r="F250" s="3">
+        <v>1</v>
+      </c>
+      <c r="G250" s="3">
+        <v>1</v>
+      </c>
+      <c r="H250" s="3">
+        <v>0</v>
+      </c>
+      <c r="I250" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="20.25">
+      <c r="A251" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B251" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C251" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E251" s="3">
+        <v>1</v>
+      </c>
+      <c r="F251" s="3">
+        <v>1</v>
+      </c>
+      <c r="G251" s="3">
+        <v>0</v>
+      </c>
+      <c r="H251" s="3">
+        <v>0</v>
+      </c>
+      <c r="I251" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="20.25">
+      <c r="A252" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B252" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C252" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E252" s="3">
+        <v>1</v>
+      </c>
+      <c r="F252" s="3">
+        <v>1</v>
+      </c>
+      <c r="G252" s="3">
+        <v>1</v>
+      </c>
+      <c r="H252" s="3">
+        <v>0</v>
+      </c>
+      <c r="I252" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="20.25">
+      <c r="A253" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B253" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C253" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E253" s="3">
+        <v>1</v>
+      </c>
+      <c r="F253" s="3">
+        <v>1</v>
+      </c>
+      <c r="G253" s="3">
+        <v>0</v>
+      </c>
+      <c r="H253" s="3">
+        <v>0</v>
+      </c>
+      <c r="I253" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" ht="20.25">
+      <c r="A254" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B254" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C254" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E254" s="3">
+        <v>1</v>
+      </c>
+      <c r="F254" s="3">
+        <v>1</v>
+      </c>
+      <c r="G254" s="3">
+        <v>1</v>
+      </c>
+      <c r="H254" s="3">
+        <v>0</v>
+      </c>
+      <c r="I254" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" ht="20.25">
+      <c r="A255" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C255" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E255" s="3">
+        <v>1</v>
+      </c>
+      <c r="F255" s="3">
+        <v>1</v>
+      </c>
+      <c r="G255" s="3">
+        <v>0</v>
+      </c>
+      <c r="H255" s="3">
+        <v>0</v>
+      </c>
+      <c r="I255" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" ht="20.25">
+      <c r="A256" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C256" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E256" s="3">
+        <v>1</v>
+      </c>
+      <c r="F256" s="3">
+        <v>1</v>
+      </c>
+      <c r="G256" s="3">
+        <v>1</v>
+      </c>
+      <c r="H256" s="3">
+        <v>0</v>
+      </c>
+      <c r="I256" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" ht="20.25">
+      <c r="A257" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C257" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E257" s="3">
+        <v>1</v>
+      </c>
+      <c r="F257" s="3">
+        <v>1</v>
+      </c>
+      <c r="G257" s="3">
+        <v>1</v>
+      </c>
+      <c r="H257" s="3">
+        <v>0</v>
+      </c>
+      <c r="I257" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" ht="20.25">
+      <c r="A258" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B258" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C258" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E258" s="3">
+        <v>1</v>
+      </c>
+      <c r="F258" s="3">
+        <v>1</v>
+      </c>
+      <c r="G258" s="3">
+        <v>1</v>
+      </c>
+      <c r="H258" s="3">
+        <v>0</v>
+      </c>
+      <c r="I258" s="3">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" ht="20.25">
+      <c r="A259" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B259" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C259" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E259" s="3">
+        <v>1</v>
+      </c>
+      <c r="F259" s="3">
+        <v>1</v>
+      </c>
+      <c r="G259" s="3">
+        <v>1</v>
+      </c>
+      <c r="H259" s="3">
+        <v>0</v>
+      </c>
+      <c r="I259" s="3">
+        <f t="shared" ref="I259:I304" si="4">A259-B259</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" ht="20.25">
+      <c r="A260" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B260" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C260" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E260" s="3">
+        <v>1</v>
+      </c>
+      <c r="F260" s="3">
+        <v>1</v>
+      </c>
+      <c r="G260" s="3">
+        <v>1</v>
+      </c>
+      <c r="H260" s="3">
+        <v>0</v>
+      </c>
+      <c r="I260" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" ht="20.25">
+      <c r="A261" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B261" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C261" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E261" s="3">
+        <v>1</v>
+      </c>
+      <c r="F261" s="3">
+        <v>1</v>
+      </c>
+      <c r="G261" s="3">
+        <v>1</v>
+      </c>
+      <c r="H261" s="3">
+        <v>0</v>
+      </c>
+      <c r="I261" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" ht="20.25">
+      <c r="A262" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B262" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C262" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" s="3">
+        <v>1</v>
+      </c>
+      <c r="F262" s="3">
+        <v>1</v>
+      </c>
+      <c r="G262" s="3">
+        <v>0</v>
+      </c>
+      <c r="H262" s="3">
+        <v>0</v>
+      </c>
+      <c r="I262" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" ht="20.25">
+      <c r="A263" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B263" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C263" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E263" s="3">
+        <v>1</v>
+      </c>
+      <c r="F263" s="3">
+        <v>1</v>
+      </c>
+      <c r="G263" s="3">
+        <v>1</v>
+      </c>
+      <c r="H263" s="3">
+        <v>0</v>
+      </c>
+      <c r="I263" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" ht="20.25">
+      <c r="A264" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B264" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C264" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E264" s="3">
+        <v>1</v>
+      </c>
+      <c r="F264" s="3">
+        <v>1</v>
+      </c>
+      <c r="G264" s="3">
+        <v>0</v>
+      </c>
+      <c r="H264" s="3">
+        <v>0</v>
+      </c>
+      <c r="I264" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" ht="20.25">
+      <c r="A265" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C265" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" s="3">
+        <v>1</v>
+      </c>
+      <c r="F265" s="3">
+        <v>1</v>
+      </c>
+      <c r="G265" s="3">
+        <v>1</v>
+      </c>
+      <c r="H265" s="3">
+        <v>0</v>
+      </c>
+      <c r="I265" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" ht="20.25">
+      <c r="A266" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B266" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C266" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" s="3">
+        <v>1</v>
+      </c>
+      <c r="F266" s="3">
+        <v>1</v>
+      </c>
+      <c r="G266" s="3">
+        <v>1</v>
+      </c>
+      <c r="H266" s="3">
+        <v>0</v>
+      </c>
+      <c r="I266" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" ht="20.25">
+      <c r="A267" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B267" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C267" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E267" s="3">
+        <v>1</v>
+      </c>
+      <c r="F267" s="3">
+        <v>1</v>
+      </c>
+      <c r="G267" s="3">
+        <v>0</v>
+      </c>
+      <c r="H267" s="3">
+        <v>0</v>
+      </c>
+      <c r="I267" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" ht="20.25">
+      <c r="A268" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B268" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C268" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E268" s="3">
+        <v>1</v>
+      </c>
+      <c r="F268" s="3">
+        <v>1</v>
+      </c>
+      <c r="G268" s="3">
+        <v>0</v>
+      </c>
+      <c r="H268" s="3">
+        <v>0</v>
+      </c>
+      <c r="I268" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" ht="20.25">
+      <c r="A269" s="1">
+        <v>44078</v>
+      </c>
+      <c r="B269" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C269" s="1">
+        <v>44069</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" s="3">
+        <v>1</v>
+      </c>
+      <c r="F269" s="3">
+        <v>0</v>
+      </c>
+      <c r="G269" s="3">
+        <v>0</v>
+      </c>
+      <c r="H269" s="3">
+        <v>1</v>
+      </c>
+      <c r="I269" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" ht="20.25">
+      <c r="A270" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B270" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C270" s="1">
+        <v>44072</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E270" s="3">
+        <v>1</v>
+      </c>
+      <c r="F270" s="3">
+        <v>1</v>
+      </c>
+      <c r="G270" s="3">
+        <v>0</v>
+      </c>
+      <c r="H270" s="3">
+        <v>0</v>
+      </c>
+      <c r="I270" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" ht="20.25">
+      <c r="A271" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B271" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C271" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E271" s="3">
+        <v>1</v>
+      </c>
+      <c r="F271" s="3">
+        <v>1</v>
+      </c>
+      <c r="G271" s="3">
+        <v>0</v>
+      </c>
+      <c r="H271" s="3">
+        <v>0</v>
+      </c>
+      <c r="I271" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" ht="20.25">
+      <c r="A272" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B272" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C272" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E272" s="3">
+        <v>1</v>
+      </c>
+      <c r="F272" s="3">
+        <v>1</v>
+      </c>
+      <c r="G272" s="3">
+        <v>1</v>
+      </c>
+      <c r="H272" s="3">
+        <v>0</v>
+      </c>
+      <c r="I272" s="3">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" ht="20.25">
+      <c r="A273" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B273" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C273" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E273" s="3">
+        <v>1</v>
+      </c>
+      <c r="F273" s="3">
+        <v>1</v>
+      </c>
+      <c r="G273" s="3">
+        <v>0</v>
+      </c>
+      <c r="H273" s="3">
+        <v>0</v>
+      </c>
+      <c r="I273" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" ht="20.25">
+      <c r="A274" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B274" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C274" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E274" s="3">
+        <v>1</v>
+      </c>
+      <c r="F274" s="3">
+        <v>1</v>
+      </c>
+      <c r="G274" s="3">
+        <v>1</v>
+      </c>
+      <c r="H274" s="3">
+        <v>0</v>
+      </c>
+      <c r="I274" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" ht="20.25">
+      <c r="A275" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B275" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C275" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E275" s="3">
+        <v>1</v>
+      </c>
+      <c r="F275" s="3">
+        <v>1</v>
+      </c>
+      <c r="G275" s="3">
+        <v>0</v>
+      </c>
+      <c r="H275" s="3">
+        <v>0</v>
+      </c>
+      <c r="I275" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" ht="20.25">
+      <c r="A276" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B276" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C276" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E276" s="3">
+        <v>1</v>
+      </c>
+      <c r="F276" s="3">
+        <v>1</v>
+      </c>
+      <c r="G276" s="3">
+        <v>0</v>
+      </c>
+      <c r="H276" s="3">
+        <v>0</v>
+      </c>
+      <c r="I276" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" ht="20.25">
+      <c r="A277" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B277" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C277" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E277" s="3">
+        <v>1</v>
+      </c>
+      <c r="F277" s="3">
+        <v>1</v>
+      </c>
+      <c r="G277" s="3">
+        <v>0</v>
+      </c>
+      <c r="H277" s="3">
+        <v>0</v>
+      </c>
+      <c r="I277" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" ht="20.25">
+      <c r="A278" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B278" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C278" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E278" s="3">
+        <v>1</v>
+      </c>
+      <c r="F278" s="3">
+        <v>1</v>
+      </c>
+      <c r="G278" s="3">
+        <v>0</v>
+      </c>
+      <c r="H278" s="3">
+        <v>0</v>
+      </c>
+      <c r="I278" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" ht="20.25">
+      <c r="A279" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B279" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C279" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E279" s="3">
+        <v>1</v>
+      </c>
+      <c r="F279" s="3">
+        <v>1</v>
+      </c>
+      <c r="G279" s="3">
+        <v>0</v>
+      </c>
+      <c r="H279" s="3">
+        <v>0</v>
+      </c>
+      <c r="I279" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" ht="20.25">
+      <c r="A280" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B280" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C280" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E280" s="3">
+        <v>1</v>
+      </c>
+      <c r="F280" s="3">
+        <v>1</v>
+      </c>
+      <c r="G280" s="3">
+        <v>1</v>
+      </c>
+      <c r="H280" s="3">
+        <v>0</v>
+      </c>
+      <c r="I280" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" ht="20.25">
+      <c r="A281" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B281" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C281" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E281" s="3">
+        <v>1</v>
+      </c>
+      <c r="F281" s="3">
+        <v>1</v>
+      </c>
+      <c r="G281" s="3">
+        <v>0</v>
+      </c>
+      <c r="H281" s="3">
+        <v>0</v>
+      </c>
+      <c r="I281" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" ht="20.25">
+      <c r="A282" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B282" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C282" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E282" s="3">
+        <v>1</v>
+      </c>
+      <c r="F282" s="3">
+        <v>1</v>
+      </c>
+      <c r="G282" s="3">
+        <v>1</v>
+      </c>
+      <c r="H282" s="3">
+        <v>0</v>
+      </c>
+      <c r="I282" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" ht="20.25">
+      <c r="A283" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B283" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C283" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E283" s="3">
+        <v>1</v>
+      </c>
+      <c r="F283" s="3">
+        <v>1</v>
+      </c>
+      <c r="G283" s="3">
+        <v>1</v>
+      </c>
+      <c r="H283" s="3">
+        <v>0</v>
+      </c>
+      <c r="I283" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" ht="20.25">
+      <c r="A284" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B284" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C284" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E284" s="3">
+        <v>1</v>
+      </c>
+      <c r="F284" s="3">
+        <v>1</v>
+      </c>
+      <c r="G284" s="3">
+        <v>1</v>
+      </c>
+      <c r="H284" s="3">
+        <v>0</v>
+      </c>
+      <c r="I284" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" ht="20.25">
+      <c r="A285" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B285" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C285" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E285" s="3">
+        <v>1</v>
+      </c>
+      <c r="F285" s="3">
+        <v>1</v>
+      </c>
+      <c r="G285" s="3">
+        <v>0</v>
+      </c>
+      <c r="H285" s="3">
+        <v>0</v>
+      </c>
+      <c r="I285" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" ht="20.25">
+      <c r="A286" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B286" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C286" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E286" s="3">
+        <v>1</v>
+      </c>
+      <c r="F286" s="3">
+        <v>1</v>
+      </c>
+      <c r="G286" s="3">
+        <v>1</v>
+      </c>
+      <c r="H286" s="3">
+        <v>0</v>
+      </c>
+      <c r="I286" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" ht="20.25">
+      <c r="A287" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B287" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C287" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E287" s="3">
+        <v>1</v>
+      </c>
+      <c r="F287" s="3">
+        <v>1</v>
+      </c>
+      <c r="G287" s="3">
+        <v>1</v>
+      </c>
+      <c r="H287" s="3">
+        <v>0</v>
+      </c>
+      <c r="I287" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" ht="20.25">
+      <c r="A288" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B288" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C288" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E288" s="3">
+        <v>1</v>
+      </c>
+      <c r="F288" s="3">
+        <v>1</v>
+      </c>
+      <c r="G288" s="3">
+        <v>0</v>
+      </c>
+      <c r="H288" s="3">
+        <v>0</v>
+      </c>
+      <c r="I288" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" ht="20.25">
+      <c r="A289" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B289" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C289" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E289" s="3">
+        <v>1</v>
+      </c>
+      <c r="F289" s="3">
+        <v>1</v>
+      </c>
+      <c r="G289" s="3">
+        <v>0</v>
+      </c>
+      <c r="H289" s="3">
+        <v>0</v>
+      </c>
+      <c r="I289" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" ht="20.25">
+      <c r="A290" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B290" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C290" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E290" s="3">
+        <v>1</v>
+      </c>
+      <c r="F290" s="3">
+        <v>1</v>
+      </c>
+      <c r="G290" s="3">
+        <v>0</v>
+      </c>
+      <c r="H290" s="3">
+        <v>0</v>
+      </c>
+      <c r="I290" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" ht="20.25">
+      <c r="A291" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B291" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C291" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E291" s="3">
+        <v>1</v>
+      </c>
+      <c r="F291" s="3">
+        <v>1</v>
+      </c>
+      <c r="G291" s="3">
+        <v>1</v>
+      </c>
+      <c r="H291" s="3">
+        <v>0</v>
+      </c>
+      <c r="I291" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" ht="20.25">
+      <c r="A292" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B292" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C292" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E292" s="3">
+        <v>1</v>
+      </c>
+      <c r="F292" s="3">
+        <v>1</v>
+      </c>
+      <c r="G292" s="3">
+        <v>0</v>
+      </c>
+      <c r="H292" s="3">
+        <v>0</v>
+      </c>
+      <c r="I292" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" ht="20.25">
+      <c r="A293" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B293" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C293" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E293" s="3">
+        <v>1</v>
+      </c>
+      <c r="F293" s="3">
+        <v>1</v>
+      </c>
+      <c r="G293" s="3">
+        <v>1</v>
+      </c>
+      <c r="H293" s="3">
+        <v>0</v>
+      </c>
+      <c r="I293" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" ht="20.25">
+      <c r="A294" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B294" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C294" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E294" s="3">
+        <v>1</v>
+      </c>
+      <c r="F294" s="3">
+        <v>1</v>
+      </c>
+      <c r="G294" s="3">
+        <v>1</v>
+      </c>
+      <c r="H294" s="3">
+        <v>0</v>
+      </c>
+      <c r="I294" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" ht="20.25">
+      <c r="A295" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B295" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C295" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E295" s="3">
+        <v>1</v>
+      </c>
+      <c r="F295" s="3">
+        <v>1</v>
+      </c>
+      <c r="G295" s="3">
+        <v>1</v>
+      </c>
+      <c r="H295" s="3">
+        <v>0</v>
+      </c>
+      <c r="I295" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" ht="20.25">
+      <c r="A296" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B296" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C296" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E296" s="3">
+        <v>1</v>
+      </c>
+      <c r="F296" s="3">
+        <v>1</v>
+      </c>
+      <c r="G296" s="3">
+        <v>0</v>
+      </c>
+      <c r="H296" s="3">
+        <v>0</v>
+      </c>
+      <c r="I296" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" ht="20.25">
+      <c r="A297" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B297" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C297" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E297" s="3">
+        <v>1</v>
+      </c>
+      <c r="F297" s="3">
+        <v>1</v>
+      </c>
+      <c r="G297" s="3">
+        <v>1</v>
+      </c>
+      <c r="H297" s="3">
+        <v>0</v>
+      </c>
+      <c r="I297" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" ht="20.25">
+      <c r="A298" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C298" s="1">
+        <v>44074</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E298" s="3">
+        <v>1</v>
+      </c>
+      <c r="F298" s="3">
+        <v>1</v>
+      </c>
+      <c r="G298" s="3">
+        <v>1</v>
+      </c>
+      <c r="H298" s="3">
+        <v>0</v>
+      </c>
+      <c r="I298" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" ht="20.25">
+      <c r="A299" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B299" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C299" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E299" s="3">
+        <v>1</v>
+      </c>
+      <c r="F299" s="3">
+        <v>1</v>
+      </c>
+      <c r="G299" s="3">
+        <v>1</v>
+      </c>
+      <c r="H299" s="3">
+        <v>0</v>
+      </c>
+      <c r="I299" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" ht="20.25">
+      <c r="A300" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B300" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C300" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" s="3">
+        <v>1</v>
+      </c>
+      <c r="F300" s="3">
+        <v>1</v>
+      </c>
+      <c r="G300" s="3">
+        <v>0</v>
+      </c>
+      <c r="H300" s="3">
+        <v>0</v>
+      </c>
+      <c r="I300" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" ht="20.25">
+      <c r="A301" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B301" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C301" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" s="3">
+        <v>1</v>
+      </c>
+      <c r="F301" s="3">
+        <v>1</v>
+      </c>
+      <c r="G301" s="3">
+        <v>0</v>
+      </c>
+      <c r="H301" s="3">
+        <v>0</v>
+      </c>
+      <c r="I301" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" ht="20.25">
+      <c r="A302" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B302" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C302" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" s="3">
+        <v>1</v>
+      </c>
+      <c r="F302" s="3">
+        <v>1</v>
+      </c>
+      <c r="G302" s="3">
+        <v>0</v>
+      </c>
+      <c r="H302" s="3">
+        <v>0</v>
+      </c>
+      <c r="I302" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" ht="20.25">
+      <c r="A303" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B303" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C303" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E303" s="3">
+        <v>1</v>
+      </c>
+      <c r="F303" s="3">
+        <v>1</v>
+      </c>
+      <c r="G303" s="3">
+        <v>0</v>
+      </c>
+      <c r="H303" s="3">
+        <v>0</v>
+      </c>
+      <c r="I303" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" ht="20.25">
+      <c r="A304" s="1">
+        <v>44079</v>
+      </c>
+      <c r="B304" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C304" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" s="3">
+        <v>1</v>
+      </c>
+      <c r="F304" s="3">
+        <v>1</v>
+      </c>
+      <c r="G304" s="3">
+        <v>1</v>
+      </c>
+      <c r="H304" s="3">
+        <v>0</v>
+      </c>
+      <c r="I304" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" ht="20.25">
+      <c r="E305" s="3"/>
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="5:6" ht="20.25">
+      <c r="E306" s="3"/>
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="5:6" ht="20.25">
+      <c r="E307" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B446B1A-4A07-43BB-BE8A-188543A64B1C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB9AB4-45F9-4B79-AECA-D9D48455D455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I307"/>
+  <dimension ref="A1:I327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A281" sqref="A281"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E329" sqref="E329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -8260,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="I259" s="3">
-        <f t="shared" ref="I259:I304" si="4">A259-B259</f>
+        <f t="shared" ref="I259:I322" si="4">A259-B259</f>
         <v>1</v>
       </c>
     </row>
@@ -9614,16 +9614,641 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="5:6" ht="20.25">
-      <c r="E305" s="3"/>
-      <c r="F305" s="3"/>
-    </row>
-    <row r="306" spans="5:6" ht="20.25">
-      <c r="E306" s="3"/>
-      <c r="F306" s="3"/>
-    </row>
-    <row r="307" spans="5:6" ht="20.25">
-      <c r="E307" s="3"/>
+    <row r="305" spans="1:9" ht="20.25">
+      <c r="A305" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B305" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C305" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E305" s="3">
+        <v>1</v>
+      </c>
+      <c r="F305" s="3">
+        <v>1</v>
+      </c>
+      <c r="G305" s="3">
+        <v>0</v>
+      </c>
+      <c r="H305" s="3">
+        <v>0</v>
+      </c>
+      <c r="I305" s="3">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" ht="20.25">
+      <c r="A306" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B306" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C306" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E306" s="3">
+        <v>1</v>
+      </c>
+      <c r="F306" s="3">
+        <v>1</v>
+      </c>
+      <c r="G306" s="3">
+        <v>0</v>
+      </c>
+      <c r="H306" s="3">
+        <v>0</v>
+      </c>
+      <c r="I306" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" ht="20.25">
+      <c r="A307" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B307" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C307" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E307" s="3">
+        <v>1</v>
+      </c>
+      <c r="F307" s="3">
+        <v>1</v>
+      </c>
+      <c r="G307" s="3">
+        <v>1</v>
+      </c>
+      <c r="H307" s="3">
+        <v>0</v>
+      </c>
+      <c r="I307" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" ht="20.25">
+      <c r="A308" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B308" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C308" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E308" s="3">
+        <v>1</v>
+      </c>
+      <c r="F308" s="3">
+        <v>1</v>
+      </c>
+      <c r="G308" s="3">
+        <v>1</v>
+      </c>
+      <c r="H308" s="3">
+        <v>0</v>
+      </c>
+      <c r="I308" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" ht="20.25">
+      <c r="A309" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C309" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E309" s="3">
+        <v>1</v>
+      </c>
+      <c r="F309" s="3">
+        <v>1</v>
+      </c>
+      <c r="G309" s="3">
+        <v>1</v>
+      </c>
+      <c r="H309" s="3">
+        <v>0</v>
+      </c>
+      <c r="I309" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" ht="20.25">
+      <c r="A310" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B310" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C310" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E310" s="3">
+        <v>1</v>
+      </c>
+      <c r="F310" s="3">
+        <v>1</v>
+      </c>
+      <c r="G310" s="3">
+        <v>1</v>
+      </c>
+      <c r="H310" s="3">
+        <v>0</v>
+      </c>
+      <c r="I310" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" ht="20.25">
+      <c r="A311" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B311" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C311" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E311" s="3">
+        <v>1</v>
+      </c>
+      <c r="F311" s="3">
+        <v>1</v>
+      </c>
+      <c r="G311" s="3">
+        <v>1</v>
+      </c>
+      <c r="H311" s="3">
+        <v>0</v>
+      </c>
+      <c r="I311" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" ht="20.25">
+      <c r="A312" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B312" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C312" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E312" s="3">
+        <v>1</v>
+      </c>
+      <c r="F312" s="3">
+        <v>1</v>
+      </c>
+      <c r="G312" s="3">
+        <v>1</v>
+      </c>
+      <c r="H312" s="3">
+        <v>0</v>
+      </c>
+      <c r="I312" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" ht="20.25">
+      <c r="A313" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B313" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C313" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E313" s="3">
+        <v>1</v>
+      </c>
+      <c r="F313" s="3">
+        <v>1</v>
+      </c>
+      <c r="G313" s="3">
+        <v>1</v>
+      </c>
+      <c r="H313" s="3">
+        <v>0</v>
+      </c>
+      <c r="I313" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" ht="20.25">
+      <c r="A314" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B314" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C314" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E314" s="3">
+        <v>1</v>
+      </c>
+      <c r="F314" s="3">
+        <v>1</v>
+      </c>
+      <c r="G314" s="3">
+        <v>1</v>
+      </c>
+      <c r="H314" s="3">
+        <v>0</v>
+      </c>
+      <c r="I314" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" ht="20.25">
+      <c r="A315" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B315" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C315" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E315" s="3">
+        <v>1</v>
+      </c>
+      <c r="F315" s="3">
+        <v>1</v>
+      </c>
+      <c r="G315" s="3">
+        <v>1</v>
+      </c>
+      <c r="H315" s="3">
+        <v>0</v>
+      </c>
+      <c r="I315" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" ht="20.25">
+      <c r="A316" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B316" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C316" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E316" s="3">
+        <v>1</v>
+      </c>
+      <c r="F316" s="3">
+        <v>1</v>
+      </c>
+      <c r="G316" s="3">
+        <v>0</v>
+      </c>
+      <c r="H316" s="3">
+        <v>0</v>
+      </c>
+      <c r="I316" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" ht="20.25">
+      <c r="A317" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C317" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E317" s="3">
+        <v>1</v>
+      </c>
+      <c r="F317" s="3">
+        <v>1</v>
+      </c>
+      <c r="G317" s="3">
+        <v>1</v>
+      </c>
+      <c r="H317" s="3">
+        <v>0</v>
+      </c>
+      <c r="I317" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" ht="20.25">
+      <c r="A318" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C318" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E318" s="3">
+        <v>1</v>
+      </c>
+      <c r="F318" s="3">
+        <v>1</v>
+      </c>
+      <c r="G318" s="3">
+        <v>1</v>
+      </c>
+      <c r="H318" s="3">
+        <v>0</v>
+      </c>
+      <c r="I318" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" ht="20.25">
+      <c r="A319" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C319" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E319" s="3">
+        <v>1</v>
+      </c>
+      <c r="F319" s="3">
+        <v>1</v>
+      </c>
+      <c r="G319" s="3">
+        <v>0</v>
+      </c>
+      <c r="H319" s="3">
+        <v>0</v>
+      </c>
+      <c r="I319" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" ht="20.25">
+      <c r="A320" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C320" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E320" s="3">
+        <v>1</v>
+      </c>
+      <c r="F320" s="3">
+        <v>1</v>
+      </c>
+      <c r="G320" s="3">
+        <v>1</v>
+      </c>
+      <c r="H320" s="3">
+        <v>0</v>
+      </c>
+      <c r="I320" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" ht="20.25">
+      <c r="A321" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C321" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E321" s="3">
+        <v>1</v>
+      </c>
+      <c r="F321" s="3">
+        <v>1</v>
+      </c>
+      <c r="G321" s="3">
+        <v>1</v>
+      </c>
+      <c r="H321" s="3">
+        <v>0</v>
+      </c>
+      <c r="I321" s="3">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" ht="20.25">
+      <c r="A322" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C322" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E322" s="3">
+        <v>1</v>
+      </c>
+      <c r="F322" s="3">
+        <v>1</v>
+      </c>
+      <c r="G322" s="3">
+        <v>0</v>
+      </c>
+      <c r="H322" s="3">
+        <v>0</v>
+      </c>
+      <c r="I322" s="3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" ht="20.25">
+      <c r="A323" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C323" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E323" s="3">
+        <v>1</v>
+      </c>
+      <c r="F323" s="3">
+        <v>1</v>
+      </c>
+      <c r="G323" s="3">
+        <v>1</v>
+      </c>
+      <c r="H323" s="3">
+        <v>0</v>
+      </c>
+      <c r="I323" s="3">
+        <f t="shared" ref="I323:I325" si="5">A323-B323</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" ht="20.25">
+      <c r="A324" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C324" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E324" s="3">
+        <v>1</v>
+      </c>
+      <c r="F324" s="3">
+        <v>1</v>
+      </c>
+      <c r="G324" s="3">
+        <v>1</v>
+      </c>
+      <c r="H324" s="3">
+        <v>0</v>
+      </c>
+      <c r="I324" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" ht="20.25">
+      <c r="A325" s="1">
+        <v>44080</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C325" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E325" s="3">
+        <v>1</v>
+      </c>
+      <c r="F325" s="3">
+        <v>1</v>
+      </c>
+      <c r="G325" s="3">
+        <v>1</v>
+      </c>
+      <c r="H325" s="3">
+        <v>0</v>
+      </c>
+      <c r="I325" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" ht="20.25">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:9" ht="20.25">
+      <c r="F327" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFBB9AB4-45F9-4B79-AECA-D9D48455D455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D87570-27F1-494C-AB3F-BD1E6D8E1BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="12707" yWindow="-3360" windowWidth="25786" windowHeight="13987" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -481,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I327"/>
+  <dimension ref="A1:I336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E329" sqref="E329"/>
+    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A337" sqref="A337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -568,7 +568,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>5</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>1</v>
@@ -628,7 +628,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -658,7 +658,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>1</v>
@@ -688,7 +688,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>1</v>
@@ -718,7 +718,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>1</v>
@@ -748,7 +748,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>1</v>
@@ -898,7 +898,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>1</v>
@@ -928,7 +928,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>1</v>
@@ -958,7 +958,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>1</v>
@@ -1018,7 +1018,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="3">
         <v>1</v>
@@ -1048,7 +1048,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="3">
         <v>1</v>
@@ -1078,7 +1078,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>1</v>
@@ -1108,7 +1108,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <v>1</v>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="3">
         <v>1</v>
@@ -1258,7 +1258,7 @@
         <v>4</v>
       </c>
       <c r="E26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="3">
         <v>1</v>
@@ -1288,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="E27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" s="3">
         <v>1</v>
@@ -1318,7 +1318,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <v>1</v>
@@ -1348,7 +1348,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" s="3">
         <v>1</v>
@@ -1378,7 +1378,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="3">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>4</v>
       </c>
       <c r="E31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" s="3">
         <v>1</v>
@@ -1438,7 +1438,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>1</v>
@@ -1468,7 +1468,7 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="3">
         <v>1</v>
@@ -1528,7 +1528,7 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="3">
         <v>1</v>
@@ -4318,7 +4318,7 @@
         <v>5</v>
       </c>
       <c r="E128" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>4</v>
       </c>
       <c r="E130" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130" s="3">
         <v>1</v>
@@ -4408,7 +4408,7 @@
         <v>4</v>
       </c>
       <c r="E131" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" s="3">
         <v>1</v>
@@ -4438,7 +4438,7 @@
         <v>5</v>
       </c>
       <c r="E132" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132" s="3">
         <v>1</v>
@@ -4738,7 +4738,7 @@
         <v>4</v>
       </c>
       <c r="E142" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142" s="3">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>4</v>
       </c>
       <c r="E144" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -4858,7 +4858,7 @@
         <v>5</v>
       </c>
       <c r="E146" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -4888,7 +4888,7 @@
         <v>5</v>
       </c>
       <c r="E147" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F147" s="3">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F148" s="3">
         <v>1</v>
@@ -5278,7 +5278,7 @@
         <v>4</v>
       </c>
       <c r="E160" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160" s="3">
         <v>1</v>
@@ -5518,7 +5518,7 @@
         <v>5</v>
       </c>
       <c r="E168" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F168" s="3">
         <v>1</v>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3">
-        <f t="shared" ref="I323:I325" si="5">A323-B323</f>
+        <f t="shared" ref="I323:I336" si="5">A323-B323</f>
         <v>3</v>
       </c>
     </row>
@@ -10245,10 +10245,334 @@
       </c>
     </row>
     <row r="326" spans="1:9" ht="20.25">
-      <c r="F326" s="3"/>
+      <c r="A326" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C326" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E326" s="3">
+        <v>1</v>
+      </c>
+      <c r="F326" s="3">
+        <v>1</v>
+      </c>
+      <c r="G326" s="3">
+        <v>1</v>
+      </c>
+      <c r="H326" s="3">
+        <v>0</v>
+      </c>
+      <c r="I326" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="327" spans="1:9" ht="20.25">
-      <c r="F327" s="3"/>
+      <c r="A327" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C327" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E327" s="2">
+        <v>1</v>
+      </c>
+      <c r="F327" s="3">
+        <v>1</v>
+      </c>
+      <c r="G327" s="3">
+        <v>0</v>
+      </c>
+      <c r="H327" s="3">
+        <v>0</v>
+      </c>
+      <c r="I327" s="3">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" ht="20.25">
+      <c r="A328" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C328" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E328" s="2">
+        <v>1</v>
+      </c>
+      <c r="F328" s="3">
+        <v>1</v>
+      </c>
+      <c r="G328" s="3">
+        <v>1</v>
+      </c>
+      <c r="H328" s="3">
+        <v>0</v>
+      </c>
+      <c r="I328" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" ht="20.25">
+      <c r="A329" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C329" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E329" s="2">
+        <v>1</v>
+      </c>
+      <c r="F329" s="3">
+        <v>1</v>
+      </c>
+      <c r="G329" s="3">
+        <v>1</v>
+      </c>
+      <c r="H329" s="3">
+        <v>0</v>
+      </c>
+      <c r="I329" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" ht="20.25">
+      <c r="A330" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C330" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E330" s="2">
+        <v>1</v>
+      </c>
+      <c r="F330" s="3">
+        <v>1</v>
+      </c>
+      <c r="G330" s="3">
+        <v>1</v>
+      </c>
+      <c r="H330" s="3">
+        <v>0</v>
+      </c>
+      <c r="I330" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" ht="20.25">
+      <c r="A331" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C331" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D331" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E331" s="2">
+        <v>1</v>
+      </c>
+      <c r="F331" s="3">
+        <v>1</v>
+      </c>
+      <c r="G331" s="3">
+        <v>0</v>
+      </c>
+      <c r="H331" s="3">
+        <v>0</v>
+      </c>
+      <c r="I331" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" ht="20.25">
+      <c r="A332" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C332" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E332" s="2">
+        <v>1</v>
+      </c>
+      <c r="F332" s="3">
+        <v>1</v>
+      </c>
+      <c r="G332" s="3">
+        <v>1</v>
+      </c>
+      <c r="H332" s="3">
+        <v>0</v>
+      </c>
+      <c r="I332" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" ht="20.25">
+      <c r="A333" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B333" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C333" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D333" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E333" s="2">
+        <v>1</v>
+      </c>
+      <c r="F333" s="3">
+        <v>1</v>
+      </c>
+      <c r="G333" s="3">
+        <v>0</v>
+      </c>
+      <c r="H333" s="3">
+        <v>0</v>
+      </c>
+      <c r="I333" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" ht="20.25">
+      <c r="A334" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B334" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C334" s="1">
+        <v>44073</v>
+      </c>
+      <c r="D334" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E334" s="2">
+        <v>1</v>
+      </c>
+      <c r="F334" s="3">
+        <v>1</v>
+      </c>
+      <c r="G334" s="3">
+        <v>0</v>
+      </c>
+      <c r="H334" s="3">
+        <v>0</v>
+      </c>
+      <c r="I334" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" ht="20.25">
+      <c r="A335" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B335" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C335" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" s="2">
+        <v>1</v>
+      </c>
+      <c r="F335" s="3">
+        <v>0</v>
+      </c>
+      <c r="G335" s="3">
+        <v>0</v>
+      </c>
+      <c r="H335" s="3">
+        <v>1</v>
+      </c>
+      <c r="I335" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" ht="20.25">
+      <c r="A336" s="1">
+        <v>44081</v>
+      </c>
+      <c r="B336" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C336" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D336" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" s="2">
+        <v>1</v>
+      </c>
+      <c r="F336" s="3">
+        <v>0</v>
+      </c>
+      <c r="G336" s="3">
+        <v>0</v>
+      </c>
+      <c r="H336" s="3">
+        <v>1</v>
+      </c>
+      <c r="I336" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D87570-27F1-494C-AB3F-BD1E6D8E1BAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68761D5D-90F6-467F-AA18-C72E1028B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12707" yWindow="-3360" windowWidth="25786" windowHeight="13987" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -140,13 +140,24 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -161,12 +172,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -481,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I336"/>
+  <dimension ref="A1:I364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A325" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A337" sqref="A337"/>
+    <sheetView tabSelected="1" topLeftCell="G112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J127" sqref="J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -868,7 +882,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>1</v>
@@ -1138,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
         <v>1</v>
@@ -4275,19 +4289,19 @@
       </c>
     </row>
     <row r="127" spans="1:9" ht="20.25">
-      <c r="A127" s="1">
+      <c r="A127" s="5">
         <v>44073</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B127" s="5">
         <v>44071</v>
       </c>
-      <c r="C127" s="1">
+      <c r="C127" s="5">
         <v>44069</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E127" s="3">
+      <c r="D127" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E127" s="7">
         <v>1</v>
       </c>
       <c r="F127" s="3">
@@ -4305,20 +4319,20 @@
       </c>
     </row>
     <row r="128" spans="1:9" ht="20.25">
-      <c r="A128" s="1">
+      <c r="A128" s="5">
         <v>44073</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B128" s="5">
         <v>44071</v>
       </c>
-      <c r="C128" s="1">
+      <c r="C128" s="5">
         <v>44071</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E128" s="3">
-        <v>0</v>
+      <c r="D128" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E128" s="7">
+        <v>1</v>
       </c>
       <c r="F128" s="3">
         <v>1</v>
@@ -4335,19 +4349,19 @@
       </c>
     </row>
     <row r="129" spans="1:9" ht="20.25">
-      <c r="A129" s="1">
+      <c r="A129" s="5">
         <v>44073</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B129" s="5">
         <v>44071</v>
       </c>
-      <c r="C129" s="1">
+      <c r="C129" s="5">
         <v>44071</v>
       </c>
-      <c r="D129" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E129" s="3">
+      <c r="D129" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E129" s="7">
         <v>1</v>
       </c>
       <c r="F129" s="3">
@@ -4365,19 +4379,19 @@
       </c>
     </row>
     <row r="130" spans="1:9" ht="20.25">
-      <c r="A130" s="1">
+      <c r="A130" s="5">
         <v>44073</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B130" s="5">
         <v>44071</v>
       </c>
-      <c r="C130" s="1">
+      <c r="C130" s="5">
         <v>44067</v>
       </c>
-      <c r="D130" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E130" s="3">
+      <c r="D130" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E130" s="7">
         <v>0</v>
       </c>
       <c r="F130" s="3">
@@ -4395,19 +4409,19 @@
       </c>
     </row>
     <row r="131" spans="1:9" ht="20.25">
-      <c r="A131" s="1">
+      <c r="A131" s="5">
         <v>44073</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B131" s="5">
         <v>44071</v>
       </c>
-      <c r="C131" s="1">
+      <c r="C131" s="5">
         <v>44067</v>
       </c>
-      <c r="D131" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="3">
+      <c r="D131" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="7">
         <v>0</v>
       </c>
       <c r="F131" s="3">
@@ -4425,19 +4439,19 @@
       </c>
     </row>
     <row r="132" spans="1:9" ht="20.25">
-      <c r="A132" s="1">
+      <c r="A132" s="5">
         <v>44073</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B132" s="5">
         <v>44071</v>
       </c>
-      <c r="C132" s="1">
+      <c r="C132" s="5">
         <v>44071</v>
       </c>
-      <c r="D132" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E132" s="3">
+      <c r="D132" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E132" s="7">
         <v>0</v>
       </c>
       <c r="F132" s="3">
@@ -4455,20 +4469,20 @@
       </c>
     </row>
     <row r="133" spans="1:9" ht="20.25">
-      <c r="A133" s="1">
+      <c r="A133" s="5">
         <v>44073</v>
       </c>
-      <c r="B133" s="1">
+      <c r="B133" s="5">
         <v>44071</v>
       </c>
-      <c r="C133" s="1">
+      <c r="C133" s="5">
         <v>44071</v>
       </c>
-      <c r="D133" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E133" s="3">
-        <v>1</v>
+      <c r="D133" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E133" s="7">
+        <v>0</v>
       </c>
       <c r="F133" s="3">
         <v>1</v>
@@ -4485,19 +4499,19 @@
       </c>
     </row>
     <row r="134" spans="1:9" ht="20.25">
-      <c r="A134" s="1">
+      <c r="A134" s="5">
         <v>44073</v>
       </c>
-      <c r="B134" s="1">
+      <c r="B134" s="5">
         <v>44071</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C134" s="5">
         <v>44071</v>
       </c>
-      <c r="D134" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" s="3">
+      <c r="D134" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E134" s="7">
         <v>1</v>
       </c>
       <c r="F134" s="3">
@@ -4515,19 +4529,19 @@
       </c>
     </row>
     <row r="135" spans="1:9" ht="20.25">
-      <c r="A135" s="1">
+      <c r="A135" s="5">
         <v>44073</v>
       </c>
-      <c r="B135" s="1">
+      <c r="B135" s="5">
         <v>44071</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C135" s="5">
         <v>44070</v>
       </c>
-      <c r="D135" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E135" s="3">
+      <c r="D135" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E135" s="7">
         <v>1</v>
       </c>
       <c r="F135" s="3">
@@ -4545,19 +4559,19 @@
       </c>
     </row>
     <row r="136" spans="1:9" ht="20.25">
-      <c r="A136" s="1">
+      <c r="A136" s="5">
         <v>44073</v>
       </c>
-      <c r="B136" s="1">
+      <c r="B136" s="5">
         <v>44072</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C136" s="5">
         <v>44071</v>
       </c>
-      <c r="D136" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E136" s="3">
+      <c r="D136" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E136" s="7">
         <v>1</v>
       </c>
       <c r="F136" s="3">
@@ -4575,20 +4589,20 @@
       </c>
     </row>
     <row r="137" spans="1:9" ht="20.25">
-      <c r="A137" s="1">
+      <c r="A137" s="5">
         <v>44073</v>
       </c>
-      <c r="B137" s="1">
+      <c r="B137" s="5">
         <v>44072</v>
       </c>
-      <c r="C137" s="1">
+      <c r="C137" s="5">
         <v>44071</v>
       </c>
-      <c r="D137" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E137" s="3">
-        <v>1</v>
+      <c r="D137" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E137" s="7">
+        <v>0</v>
       </c>
       <c r="F137" s="3">
         <v>1</v>
@@ -4605,19 +4619,19 @@
       </c>
     </row>
     <row r="138" spans="1:9" ht="20.25">
-      <c r="A138" s="1">
+      <c r="A138" s="5">
         <v>44073</v>
       </c>
-      <c r="B138" s="1">
+      <c r="B138" s="5">
         <v>44072</v>
       </c>
-      <c r="C138" s="1">
+      <c r="C138" s="5">
         <v>44070</v>
       </c>
-      <c r="D138" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E138" s="3">
+      <c r="D138" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E138" s="7">
         <v>1</v>
       </c>
       <c r="F138" s="3">
@@ -4635,19 +4649,19 @@
       </c>
     </row>
     <row r="139" spans="1:9" ht="20.25">
-      <c r="A139" s="1">
+      <c r="A139" s="5">
         <v>44073</v>
       </c>
-      <c r="B139" s="1">
+      <c r="B139" s="5">
         <v>44072</v>
       </c>
-      <c r="C139" s="1">
+      <c r="C139" s="5">
         <v>44070</v>
       </c>
-      <c r="D139" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E139" s="3">
+      <c r="D139" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E139" s="7">
         <v>1</v>
       </c>
       <c r="F139" s="3">
@@ -4665,20 +4679,20 @@
       </c>
     </row>
     <row r="140" spans="1:9" ht="20.25">
-      <c r="A140" s="1">
+      <c r="A140" s="5">
         <v>44073</v>
       </c>
-      <c r="B140" s="1">
+      <c r="B140" s="5">
         <v>44072</v>
       </c>
-      <c r="C140" s="1">
+      <c r="C140" s="5">
         <v>44070</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E140" s="3">
-        <v>1</v>
+      <c r="D140" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E140" s="7">
+        <v>0</v>
       </c>
       <c r="F140" s="3">
         <v>1</v>
@@ -4695,19 +4709,19 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="20.25">
-      <c r="A141" s="1">
+      <c r="A141" s="5">
         <v>44073</v>
       </c>
-      <c r="B141" s="1">
+      <c r="B141" s="5">
         <v>44072</v>
       </c>
-      <c r="C141" s="1">
+      <c r="C141" s="5">
         <v>44071</v>
       </c>
-      <c r="D141" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E141" s="3">
+      <c r="D141" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E141" s="7">
         <v>1</v>
       </c>
       <c r="F141" s="3">
@@ -4725,19 +4739,19 @@
       </c>
     </row>
     <row r="142" spans="1:9" ht="20.25">
-      <c r="A142" s="1">
+      <c r="A142" s="5">
         <v>44073</v>
       </c>
-      <c r="B142" s="1">
+      <c r="B142" s="5">
         <v>44072</v>
       </c>
-      <c r="C142" s="1">
+      <c r="C142" s="5">
         <v>44070</v>
       </c>
-      <c r="D142" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E142" s="3">
+      <c r="D142" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E142" s="7">
         <v>0</v>
       </c>
       <c r="F142" s="3">
@@ -4755,20 +4769,20 @@
       </c>
     </row>
     <row r="143" spans="1:9" ht="20.25">
-      <c r="A143" s="1">
+      <c r="A143" s="5">
         <v>44073</v>
       </c>
-      <c r="B143" s="1">
+      <c r="B143" s="5">
         <v>44072</v>
       </c>
-      <c r="C143" s="1">
+      <c r="C143" s="5">
         <v>44071</v>
       </c>
-      <c r="D143" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E143" s="3">
-        <v>1</v>
+      <c r="D143" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E143" s="7">
+        <v>0</v>
       </c>
       <c r="F143" s="3">
         <v>1</v>
@@ -4785,20 +4799,20 @@
       </c>
     </row>
     <row r="144" spans="1:9" ht="20.25">
-      <c r="A144" s="1">
+      <c r="A144" s="5">
         <v>44073</v>
       </c>
-      <c r="B144" s="1">
+      <c r="B144" s="5">
         <v>44072</v>
       </c>
-      <c r="C144" s="1">
+      <c r="C144" s="5">
         <v>44072</v>
       </c>
-      <c r="D144" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E144" s="3">
-        <v>0</v>
+      <c r="D144" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E144" s="7">
+        <v>1</v>
       </c>
       <c r="F144" s="3">
         <v>1</v>
@@ -4815,19 +4829,19 @@
       </c>
     </row>
     <row r="145" spans="1:9" ht="20.25">
-      <c r="A145" s="1">
+      <c r="A145" s="5">
         <v>44073</v>
       </c>
-      <c r="B145" s="1">
+      <c r="B145" s="5">
         <v>44072</v>
       </c>
-      <c r="C145" s="1">
+      <c r="C145" s="5">
         <v>44071</v>
       </c>
-      <c r="D145" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E145" s="3">
+      <c r="D145" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E145" s="7">
         <v>1</v>
       </c>
       <c r="F145" s="3">
@@ -4845,20 +4859,20 @@
       </c>
     </row>
     <row r="146" spans="1:9" ht="20.25">
-      <c r="A146" s="1">
+      <c r="A146" s="5">
         <v>44073</v>
       </c>
-      <c r="B146" s="1">
+      <c r="B146" s="5">
         <v>44072</v>
       </c>
-      <c r="C146" s="1">
+      <c r="C146" s="5">
         <v>44072</v>
       </c>
-      <c r="D146" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E146" s="3">
-        <v>0</v>
+      <c r="D146" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E146" s="7">
+        <v>1</v>
       </c>
       <c r="F146" s="3">
         <v>1</v>
@@ -4875,19 +4889,19 @@
       </c>
     </row>
     <row r="147" spans="1:9" ht="20.25">
-      <c r="A147" s="1">
+      <c r="A147" s="5">
         <v>44073</v>
       </c>
-      <c r="B147" s="1">
+      <c r="B147" s="5">
         <v>44072</v>
       </c>
-      <c r="C147" s="1">
+      <c r="C147" s="5">
         <v>44072</v>
       </c>
-      <c r="D147" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E147" s="3">
+      <c r="D147" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E147" s="7">
         <v>0</v>
       </c>
       <c r="F147" s="3">
@@ -4905,19 +4919,19 @@
       </c>
     </row>
     <row r="148" spans="1:9" ht="20.25">
-      <c r="A148" s="1">
+      <c r="A148" s="5">
         <v>44073</v>
       </c>
-      <c r="B148" s="1">
+      <c r="B148" s="5">
         <v>44072</v>
       </c>
-      <c r="C148" s="1">
+      <c r="C148" s="5">
         <v>44072</v>
       </c>
-      <c r="D148" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E148" s="3">
+      <c r="D148" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E148" s="7">
         <v>0</v>
       </c>
       <c r="F148" s="3">
@@ -4935,20 +4949,20 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="20.25">
-      <c r="A149" s="1">
+      <c r="A149" s="5">
         <v>44073</v>
       </c>
-      <c r="B149" s="1">
+      <c r="B149" s="5">
         <v>44072</v>
       </c>
-      <c r="C149" s="1">
+      <c r="C149" s="5">
         <v>44072</v>
       </c>
-      <c r="D149" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E149" s="3">
-        <v>1</v>
+      <c r="D149" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E149" s="7">
+        <v>0</v>
       </c>
       <c r="F149" s="3">
         <v>1</v>
@@ -4965,19 +4979,19 @@
       </c>
     </row>
     <row r="150" spans="1:9" ht="20.25">
-      <c r="A150" s="1">
+      <c r="A150" s="5">
         <v>44073</v>
       </c>
-      <c r="B150" s="1">
+      <c r="B150" s="5">
         <v>44072</v>
       </c>
-      <c r="C150" s="1">
+      <c r="C150" s="5">
         <v>44072</v>
       </c>
-      <c r="D150" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E150" s="3">
+      <c r="D150" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E150" s="7">
         <v>1</v>
       </c>
       <c r="F150" s="3">
@@ -4995,19 +5009,19 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="20.25">
-      <c r="A151" s="1">
+      <c r="A151" s="5">
         <v>44073</v>
       </c>
-      <c r="B151" s="1">
+      <c r="B151" s="5">
         <v>44072</v>
       </c>
-      <c r="C151" s="1">
+      <c r="C151" s="5">
         <v>44072</v>
       </c>
-      <c r="D151" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E151" s="3">
+      <c r="D151" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E151" s="7">
         <v>1</v>
       </c>
       <c r="F151" s="3">
@@ -5025,19 +5039,19 @@
       </c>
     </row>
     <row r="152" spans="1:9" ht="20.25">
-      <c r="A152" s="1">
+      <c r="A152" s="5">
         <v>44073</v>
       </c>
-      <c r="B152" s="1">
+      <c r="B152" s="5">
         <v>44072</v>
       </c>
-      <c r="C152" s="1">
+      <c r="C152" s="5">
         <v>44072</v>
       </c>
-      <c r="D152" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E152" s="3">
+      <c r="D152" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E152" s="7">
         <v>1</v>
       </c>
       <c r="F152" s="3">
@@ -5055,19 +5069,19 @@
       </c>
     </row>
     <row r="153" spans="1:9" ht="20.25">
-      <c r="A153" s="1">
+      <c r="A153" s="5">
         <v>44073</v>
       </c>
-      <c r="B153" s="1">
+      <c r="B153" s="5">
         <v>44072</v>
       </c>
-      <c r="C153" s="1">
+      <c r="C153" s="5">
         <v>44070</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E153" s="3">
+      <c r="E153" s="7">
         <v>1</v>
       </c>
       <c r="F153" s="3">
@@ -5085,20 +5099,20 @@
       </c>
     </row>
     <row r="154" spans="1:9" ht="20.25">
-      <c r="A154" s="1">
+      <c r="A154" s="5">
         <v>44073</v>
       </c>
-      <c r="B154" s="1">
+      <c r="B154" s="5">
         <v>44072</v>
       </c>
-      <c r="C154" s="1">
+      <c r="C154" s="5">
         <v>44072</v>
       </c>
-      <c r="D154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E154" s="3">
-        <v>1</v>
+      <c r="D154" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E154" s="7">
+        <v>0</v>
       </c>
       <c r="F154" s="3">
         <v>1</v>
@@ -5115,20 +5129,20 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="20.25">
-      <c r="A155" s="1">
+      <c r="A155" s="5">
         <v>44073</v>
       </c>
-      <c r="B155" s="1">
+      <c r="B155" s="5">
         <v>44072</v>
       </c>
-      <c r="C155" s="1">
+      <c r="C155" s="5">
         <v>44072</v>
       </c>
-      <c r="D155" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E155" s="3">
-        <v>1</v>
+      <c r="D155" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E155" s="7">
+        <v>0</v>
       </c>
       <c r="F155" s="3">
         <v>1</v>
@@ -5145,20 +5159,20 @@
       </c>
     </row>
     <row r="156" spans="1:9" ht="20.25">
-      <c r="A156" s="1">
+      <c r="A156" s="5">
         <v>44073</v>
       </c>
-      <c r="B156" s="1">
+      <c r="B156" s="5">
         <v>44072</v>
       </c>
-      <c r="C156" s="1">
+      <c r="C156" s="5">
         <v>44072</v>
       </c>
-      <c r="D156" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E156" s="3">
-        <v>1</v>
+      <c r="D156" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E156" s="7">
+        <v>0</v>
       </c>
       <c r="F156" s="3">
         <v>1</v>
@@ -5175,20 +5189,20 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="20.25">
-      <c r="A157" s="1">
+      <c r="A157" s="5">
         <v>44073</v>
       </c>
-      <c r="B157" s="1">
+      <c r="B157" s="5">
         <v>44072</v>
       </c>
-      <c r="C157" s="1">
+      <c r="C157" s="5">
         <v>44072</v>
       </c>
-      <c r="D157" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E157" s="3">
-        <v>1</v>
+      <c r="D157" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E157" s="7">
+        <v>0</v>
       </c>
       <c r="F157" s="3">
         <v>1</v>
@@ -5218,7 +5232,7 @@
         <v>5</v>
       </c>
       <c r="E158" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158" s="3">
         <v>1</v>
@@ -5998,7 +6012,7 @@
         <v>5</v>
       </c>
       <c r="E184" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F184" s="3">
         <v>1</v>
@@ -6118,7 +6132,7 @@
         <v>5</v>
       </c>
       <c r="E188" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188" s="3">
         <v>1</v>
@@ -7528,7 +7542,7 @@
         <v>5</v>
       </c>
       <c r="E235" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235" s="3">
         <v>1</v>
@@ -8338,7 +8352,7 @@
         <v>4</v>
       </c>
       <c r="E262" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F262" s="3">
         <v>1</v>
@@ -8398,7 +8412,7 @@
         <v>4</v>
       </c>
       <c r="E264" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F264" s="3">
         <v>1</v>
@@ -10078,7 +10092,7 @@
         <v>5</v>
       </c>
       <c r="E320" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320" s="3">
         <v>1</v>
@@ -10180,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3">
-        <f t="shared" ref="I323:I336" si="5">A323-B323</f>
+        <f t="shared" ref="I323:I363" si="5">A323-B323</f>
         <v>3</v>
       </c>
     </row>
@@ -10573,6 +10587,819 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="337" spans="1:9" ht="20.25">
+      <c r="A337" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B337" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C337" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D337" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E337" s="2">
+        <v>1</v>
+      </c>
+      <c r="F337" s="3">
+        <v>1</v>
+      </c>
+      <c r="G337" s="3">
+        <v>0</v>
+      </c>
+      <c r="H337" s="3">
+        <v>0</v>
+      </c>
+      <c r="I337" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" ht="20.25">
+      <c r="A338" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B338" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C338" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E338" s="2">
+        <v>1</v>
+      </c>
+      <c r="F338" s="3">
+        <v>1</v>
+      </c>
+      <c r="G338" s="3">
+        <v>1</v>
+      </c>
+      <c r="H338" s="3">
+        <v>0</v>
+      </c>
+      <c r="I338" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" ht="20.25">
+      <c r="A339" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B339" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C339" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E339" s="2">
+        <v>1</v>
+      </c>
+      <c r="F339" s="3">
+        <v>1</v>
+      </c>
+      <c r="G339" s="3">
+        <v>1</v>
+      </c>
+      <c r="H339" s="3">
+        <v>0</v>
+      </c>
+      <c r="I339" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" ht="20.25">
+      <c r="A340" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B340" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C340" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D340" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" s="2">
+        <v>1</v>
+      </c>
+      <c r="F340" s="3">
+        <v>1</v>
+      </c>
+      <c r="G340" s="3">
+        <v>0</v>
+      </c>
+      <c r="H340" s="3">
+        <v>0</v>
+      </c>
+      <c r="I340" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" ht="20.25">
+      <c r="A341" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B341" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C341" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E341" s="2">
+        <v>1</v>
+      </c>
+      <c r="F341" s="3">
+        <v>1</v>
+      </c>
+      <c r="G341" s="3">
+        <v>1</v>
+      </c>
+      <c r="H341" s="3">
+        <v>0</v>
+      </c>
+      <c r="I341" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" ht="20.25">
+      <c r="A342" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B342" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C342" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E342" s="2">
+        <v>1</v>
+      </c>
+      <c r="F342" s="3">
+        <v>1</v>
+      </c>
+      <c r="G342" s="3">
+        <v>1</v>
+      </c>
+      <c r="H342" s="3">
+        <v>0</v>
+      </c>
+      <c r="I342" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" ht="20.25">
+      <c r="A343" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B343" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C343" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" s="2">
+        <v>1</v>
+      </c>
+      <c r="F343" s="3">
+        <v>1</v>
+      </c>
+      <c r="G343" s="3">
+        <v>1</v>
+      </c>
+      <c r="H343" s="3">
+        <v>0</v>
+      </c>
+      <c r="I343" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" ht="20.25">
+      <c r="A344" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B344" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C344" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" s="2">
+        <v>1</v>
+      </c>
+      <c r="F344" s="3">
+        <v>1</v>
+      </c>
+      <c r="G344" s="3">
+        <v>1</v>
+      </c>
+      <c r="H344" s="3">
+        <v>0</v>
+      </c>
+      <c r="I344" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" ht="20.25">
+      <c r="A345" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B345" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C345" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D345" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E345" s="2">
+        <v>1</v>
+      </c>
+      <c r="F345" s="3">
+        <v>1</v>
+      </c>
+      <c r="G345" s="3">
+        <v>0</v>
+      </c>
+      <c r="H345" s="3">
+        <v>0</v>
+      </c>
+      <c r="I345" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" ht="20.25">
+      <c r="A346" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B346" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C346" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E346" s="2">
+        <v>1</v>
+      </c>
+      <c r="F346" s="3">
+        <v>1</v>
+      </c>
+      <c r="G346" s="3">
+        <v>1</v>
+      </c>
+      <c r="H346" s="3">
+        <v>0</v>
+      </c>
+      <c r="I346" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" ht="20.25">
+      <c r="A347" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B347" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C347" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E347" s="2">
+        <v>1</v>
+      </c>
+      <c r="F347" s="3">
+        <v>1</v>
+      </c>
+      <c r="G347" s="3">
+        <v>1</v>
+      </c>
+      <c r="H347" s="3">
+        <v>0</v>
+      </c>
+      <c r="I347" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" ht="20.25">
+      <c r="A348" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B348" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C348" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D348" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E348" s="2">
+        <v>1</v>
+      </c>
+      <c r="F348" s="3">
+        <v>1</v>
+      </c>
+      <c r="G348" s="3">
+        <v>0</v>
+      </c>
+      <c r="H348" s="3">
+        <v>0</v>
+      </c>
+      <c r="I348" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" ht="20.25">
+      <c r="A349" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B349" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C349" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E349" s="2">
+        <v>1</v>
+      </c>
+      <c r="F349" s="3">
+        <v>1</v>
+      </c>
+      <c r="G349" s="3">
+        <v>1</v>
+      </c>
+      <c r="H349" s="3">
+        <v>0</v>
+      </c>
+      <c r="I349" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" ht="20.25">
+      <c r="A350" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B350" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C350" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D350" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E350" s="2">
+        <v>1</v>
+      </c>
+      <c r="F350" s="3">
+        <v>1</v>
+      </c>
+      <c r="G350" s="3">
+        <v>0</v>
+      </c>
+      <c r="H350" s="3">
+        <v>0</v>
+      </c>
+      <c r="I350" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" ht="20.25">
+      <c r="A351" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B351" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C351" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D351" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E351" s="2">
+        <v>1</v>
+      </c>
+      <c r="F351" s="3">
+        <v>1</v>
+      </c>
+      <c r="G351" s="3">
+        <v>1</v>
+      </c>
+      <c r="H351" s="3">
+        <v>0</v>
+      </c>
+      <c r="I351" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9" ht="20.25">
+      <c r="A352" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B352" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C352" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D352" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E352" s="2">
+        <v>1</v>
+      </c>
+      <c r="F352" s="3">
+        <v>1</v>
+      </c>
+      <c r="G352" s="3">
+        <v>0</v>
+      </c>
+      <c r="H352" s="3">
+        <v>0</v>
+      </c>
+      <c r="I352" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9" ht="20.25">
+      <c r="A353" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B353" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C353" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D353" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E353" s="2">
+        <v>1</v>
+      </c>
+      <c r="F353" s="3">
+        <v>1</v>
+      </c>
+      <c r="G353" s="3">
+        <v>0</v>
+      </c>
+      <c r="H353" s="3">
+        <v>0</v>
+      </c>
+      <c r="I353" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9" ht="20.25">
+      <c r="A354" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B354" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C354" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E354" s="2">
+        <v>1</v>
+      </c>
+      <c r="F354" s="3">
+        <v>1</v>
+      </c>
+      <c r="G354" s="3">
+        <v>1</v>
+      </c>
+      <c r="H354" s="3">
+        <v>0</v>
+      </c>
+      <c r="I354" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9" ht="20.25">
+      <c r="A355" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B355" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C355" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E355" s="2">
+        <v>1</v>
+      </c>
+      <c r="F355" s="3">
+        <v>1</v>
+      </c>
+      <c r="G355" s="3">
+        <v>1</v>
+      </c>
+      <c r="H355" s="3">
+        <v>0</v>
+      </c>
+      <c r="I355" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:9" ht="20.25">
+      <c r="A356" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B356" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C356" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D356" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E356" s="2">
+        <v>1</v>
+      </c>
+      <c r="F356" s="3">
+        <v>1</v>
+      </c>
+      <c r="G356" s="3">
+        <v>0</v>
+      </c>
+      <c r="H356" s="3">
+        <v>0</v>
+      </c>
+      <c r="I356" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9" ht="20.25">
+      <c r="A357" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B357" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C357" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D357" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E357" s="2">
+        <v>1</v>
+      </c>
+      <c r="F357" s="3">
+        <v>1</v>
+      </c>
+      <c r="G357" s="3">
+        <v>0</v>
+      </c>
+      <c r="H357" s="3">
+        <v>0</v>
+      </c>
+      <c r="I357" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9" ht="20.25">
+      <c r="A358" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B358" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C358" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D358" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E358" s="2">
+        <v>1</v>
+      </c>
+      <c r="F358" s="3">
+        <v>1</v>
+      </c>
+      <c r="G358" s="3">
+        <v>0</v>
+      </c>
+      <c r="H358" s="3">
+        <v>0</v>
+      </c>
+      <c r="I358" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9" ht="20.25">
+      <c r="A359" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B359" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C359" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E359" s="2">
+        <v>1</v>
+      </c>
+      <c r="F359" s="3">
+        <v>1</v>
+      </c>
+      <c r="G359" s="3">
+        <v>1</v>
+      </c>
+      <c r="H359" s="3">
+        <v>0</v>
+      </c>
+      <c r="I359" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:9" ht="20.25">
+      <c r="A360" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B360" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C360" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D360" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E360" s="2">
+        <v>1</v>
+      </c>
+      <c r="F360" s="3">
+        <v>1</v>
+      </c>
+      <c r="G360" s="3">
+        <v>0</v>
+      </c>
+      <c r="H360" s="3">
+        <v>0</v>
+      </c>
+      <c r="I360" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:9" ht="20.25">
+      <c r="A361" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B361" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C361" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D361" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E361" s="2">
+        <v>1</v>
+      </c>
+      <c r="F361" s="3">
+        <v>1</v>
+      </c>
+      <c r="G361" s="3">
+        <v>0</v>
+      </c>
+      <c r="H361" s="3">
+        <v>0</v>
+      </c>
+      <c r="I361" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:9" ht="20.25">
+      <c r="A362" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B362" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C362" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D362" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E362" s="2">
+        <v>1</v>
+      </c>
+      <c r="F362" s="3">
+        <v>1</v>
+      </c>
+      <c r="G362" s="3">
+        <v>0</v>
+      </c>
+      <c r="H362" s="3">
+        <v>0</v>
+      </c>
+      <c r="I362" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:9" ht="20.25">
+      <c r="A363" s="1">
+        <v>44082</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C363" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E363" s="2">
+        <v>1</v>
+      </c>
+      <c r="F363" s="3">
+        <v>1</v>
+      </c>
+      <c r="G363" s="3">
+        <v>1</v>
+      </c>
+      <c r="H363" s="3">
+        <v>0</v>
+      </c>
+      <c r="I363" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:9" ht="20.25">
+      <c r="E364" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68761D5D-90F6-467F-AA18-C72E1028B276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EDD49-D7F3-4188-9FDD-CADB67982E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I364"/>
+  <dimension ref="A1:I410"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G112" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J127" sqref="J127"/>
+    <sheetView tabSelected="1" topLeftCell="D382" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I399" sqref="I399"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -10194,7 +10194,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="3">
-        <f t="shared" ref="I323:I363" si="5">A323-B323</f>
+        <f t="shared" ref="I323:I386" si="5">A323-B323</f>
         <v>3</v>
       </c>
     </row>
@@ -11399,7 +11399,1414 @@
       </c>
     </row>
     <row r="364" spans="1:9" ht="20.25">
-      <c r="E364" s="2"/>
+      <c r="A364" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C364" s="1">
+        <v>44067</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E364" s="2">
+        <v>1</v>
+      </c>
+      <c r="F364" s="3">
+        <v>1</v>
+      </c>
+      <c r="G364" s="3">
+        <v>0</v>
+      </c>
+      <c r="H364" s="3">
+        <v>0</v>
+      </c>
+      <c r="I364" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:9" ht="20.25">
+      <c r="A365" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C365" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D365" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E365" s="2">
+        <v>1</v>
+      </c>
+      <c r="F365" s="3">
+        <v>1</v>
+      </c>
+      <c r="G365" s="3">
+        <v>0</v>
+      </c>
+      <c r="H365" s="3">
+        <v>0</v>
+      </c>
+      <c r="I365" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:9" ht="20.25">
+      <c r="A366" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C366" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D366" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E366" s="2">
+        <v>1</v>
+      </c>
+      <c r="F366" s="3">
+        <v>1</v>
+      </c>
+      <c r="G366" s="3">
+        <v>0</v>
+      </c>
+      <c r="H366" s="3">
+        <v>0</v>
+      </c>
+      <c r="I366" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:9" ht="20.25">
+      <c r="A367" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B367" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C367" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D367" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E367" s="2">
+        <v>1</v>
+      </c>
+      <c r="F367" s="3">
+        <v>1</v>
+      </c>
+      <c r="G367" s="3">
+        <v>0</v>
+      </c>
+      <c r="H367" s="3">
+        <v>0</v>
+      </c>
+      <c r="I367" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:9" ht="20.25">
+      <c r="A368" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B368" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C368" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D368" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E368" s="2">
+        <v>1</v>
+      </c>
+      <c r="F368" s="3">
+        <v>1</v>
+      </c>
+      <c r="G368" s="3">
+        <v>1</v>
+      </c>
+      <c r="H368" s="3">
+        <v>0</v>
+      </c>
+      <c r="I368" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="369" spans="1:9" ht="20.25">
+      <c r="A369" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B369" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C369" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D369" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E369" s="2">
+        <v>1</v>
+      </c>
+      <c r="F369" s="3">
+        <v>1</v>
+      </c>
+      <c r="G369" s="3">
+        <v>0</v>
+      </c>
+      <c r="H369" s="3">
+        <v>0</v>
+      </c>
+      <c r="I369" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:9" ht="20.25">
+      <c r="A370" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B370" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C370" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D370" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E370" s="2">
+        <v>1</v>
+      </c>
+      <c r="F370" s="3">
+        <v>1</v>
+      </c>
+      <c r="G370" s="3">
+        <v>0</v>
+      </c>
+      <c r="H370" s="3">
+        <v>0</v>
+      </c>
+      <c r="I370" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:9" ht="20.25">
+      <c r="A371" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B371" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C371" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E371" s="2">
+        <v>1</v>
+      </c>
+      <c r="F371" s="3">
+        <v>1</v>
+      </c>
+      <c r="G371" s="3">
+        <v>1</v>
+      </c>
+      <c r="H371" s="3">
+        <v>0</v>
+      </c>
+      <c r="I371" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="372" spans="1:9" ht="20.25">
+      <c r="A372" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B372" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C372" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E372" s="2">
+        <v>1</v>
+      </c>
+      <c r="F372" s="3">
+        <v>1</v>
+      </c>
+      <c r="G372" s="3">
+        <v>1</v>
+      </c>
+      <c r="H372" s="3">
+        <v>0</v>
+      </c>
+      <c r="I372" s="3">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="373" spans="1:9" ht="20.25">
+      <c r="A373" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B373" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C373" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E373" s="2">
+        <v>1</v>
+      </c>
+      <c r="F373" s="3">
+        <v>1</v>
+      </c>
+      <c r="G373" s="3">
+        <v>1</v>
+      </c>
+      <c r="H373" s="3">
+        <v>0</v>
+      </c>
+      <c r="I373" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:9" ht="20.25">
+      <c r="A374" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B374" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C374" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D374" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E374" s="2">
+        <v>1</v>
+      </c>
+      <c r="F374" s="3">
+        <v>1</v>
+      </c>
+      <c r="G374" s="3">
+        <v>0</v>
+      </c>
+      <c r="H374" s="3">
+        <v>0</v>
+      </c>
+      <c r="I374" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:9" ht="20.25">
+      <c r="A375" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B375" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C375" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D375" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E375" s="2">
+        <v>1</v>
+      </c>
+      <c r="F375" s="3">
+        <v>1</v>
+      </c>
+      <c r="G375" s="3">
+        <v>0</v>
+      </c>
+      <c r="H375" s="3">
+        <v>0</v>
+      </c>
+      <c r="I375" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:9" ht="20.25">
+      <c r="A376" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B376" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C376" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D376" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E376" s="2">
+        <v>1</v>
+      </c>
+      <c r="F376" s="3">
+        <v>1</v>
+      </c>
+      <c r="G376" s="3">
+        <v>0</v>
+      </c>
+      <c r="H376" s="3">
+        <v>0</v>
+      </c>
+      <c r="I376" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:9" ht="20.25">
+      <c r="A377" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B377" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C377" s="1">
+        <v>44071</v>
+      </c>
+      <c r="D377" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E377" s="2">
+        <v>1</v>
+      </c>
+      <c r="F377" s="3">
+        <v>1</v>
+      </c>
+      <c r="G377" s="3">
+        <v>0</v>
+      </c>
+      <c r="H377" s="3">
+        <v>0</v>
+      </c>
+      <c r="I377" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:9" ht="20.25">
+      <c r="A378" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B378" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C378" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D378" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" s="2">
+        <v>1</v>
+      </c>
+      <c r="F378" s="3">
+        <v>1</v>
+      </c>
+      <c r="G378" s="3">
+        <v>0</v>
+      </c>
+      <c r="H378" s="3">
+        <v>0</v>
+      </c>
+      <c r="I378" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:9" ht="20.25">
+      <c r="A379" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B379" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C379" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D379" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" s="2">
+        <v>1</v>
+      </c>
+      <c r="F379" s="3">
+        <v>1</v>
+      </c>
+      <c r="G379" s="3">
+        <v>0</v>
+      </c>
+      <c r="H379" s="3">
+        <v>0</v>
+      </c>
+      <c r="I379" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:9" ht="20.25">
+      <c r="A380" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B380" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C380" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E380" s="2">
+        <v>1</v>
+      </c>
+      <c r="F380" s="3">
+        <v>1</v>
+      </c>
+      <c r="G380" s="3">
+        <v>1</v>
+      </c>
+      <c r="H380" s="3">
+        <v>0</v>
+      </c>
+      <c r="I380" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:9" ht="20.25">
+      <c r="A381" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B381" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C381" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E381" s="2">
+        <v>1</v>
+      </c>
+      <c r="F381" s="3">
+        <v>1</v>
+      </c>
+      <c r="G381" s="3">
+        <v>1</v>
+      </c>
+      <c r="H381" s="3">
+        <v>0</v>
+      </c>
+      <c r="I381" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:9" ht="20.25">
+      <c r="A382" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B382" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C382" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" s="2">
+        <v>1</v>
+      </c>
+      <c r="F382" s="3">
+        <v>1</v>
+      </c>
+      <c r="G382" s="3">
+        <v>1</v>
+      </c>
+      <c r="H382" s="3">
+        <v>0</v>
+      </c>
+      <c r="I382" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:9" ht="20.25">
+      <c r="A383" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B383" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C383" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D383" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E383" s="2">
+        <v>1</v>
+      </c>
+      <c r="F383" s="3">
+        <v>1</v>
+      </c>
+      <c r="G383" s="3">
+        <v>0</v>
+      </c>
+      <c r="H383" s="3">
+        <v>0</v>
+      </c>
+      <c r="I383" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:9" ht="20.25">
+      <c r="A384" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B384" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C384" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E384" s="2">
+        <v>1</v>
+      </c>
+      <c r="F384" s="3">
+        <v>1</v>
+      </c>
+      <c r="G384" s="3">
+        <v>1</v>
+      </c>
+      <c r="H384" s="3">
+        <v>0</v>
+      </c>
+      <c r="I384" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:9" ht="20.25">
+      <c r="A385" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B385" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C385" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D385" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E385" s="2">
+        <v>1</v>
+      </c>
+      <c r="F385" s="3">
+        <v>1</v>
+      </c>
+      <c r="G385" s="3">
+        <v>0</v>
+      </c>
+      <c r="H385" s="3">
+        <v>0</v>
+      </c>
+      <c r="I385" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:9" ht="20.25">
+      <c r="A386" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B386" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C386" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E386" s="2">
+        <v>1</v>
+      </c>
+      <c r="F386" s="3">
+        <v>1</v>
+      </c>
+      <c r="G386" s="3">
+        <v>1</v>
+      </c>
+      <c r="H386" s="3">
+        <v>0</v>
+      </c>
+      <c r="I386" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:9" ht="20.25">
+      <c r="A387" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B387" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C387" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D387" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E387" s="2">
+        <v>1</v>
+      </c>
+      <c r="F387" s="3">
+        <v>1</v>
+      </c>
+      <c r="G387" s="3">
+        <v>1</v>
+      </c>
+      <c r="H387" s="3">
+        <v>0</v>
+      </c>
+      <c r="I387" s="3">
+        <f t="shared" ref="I387:I410" si="6">A387-B387</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:9" ht="20.25">
+      <c r="A388" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B388" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C388" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D388" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E388" s="2">
+        <v>1</v>
+      </c>
+      <c r="F388" s="3">
+        <v>1</v>
+      </c>
+      <c r="G388" s="3">
+        <v>0</v>
+      </c>
+      <c r="H388" s="3">
+        <v>0</v>
+      </c>
+      <c r="I388" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:9" ht="20.25">
+      <c r="A389" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B389" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C389" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D389" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E389" s="2">
+        <v>1</v>
+      </c>
+      <c r="F389" s="3">
+        <v>1</v>
+      </c>
+      <c r="G389" s="3">
+        <v>0</v>
+      </c>
+      <c r="H389" s="3">
+        <v>0</v>
+      </c>
+      <c r="I389" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:9" ht="20.25">
+      <c r="A390" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B390" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C390" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D390" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E390" s="2">
+        <v>1</v>
+      </c>
+      <c r="F390" s="3">
+        <v>1</v>
+      </c>
+      <c r="G390" s="3">
+        <v>0</v>
+      </c>
+      <c r="H390" s="3">
+        <v>0</v>
+      </c>
+      <c r="I390" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:9" ht="20.25">
+      <c r="A391" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B391" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C391" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E391" s="2">
+        <v>1</v>
+      </c>
+      <c r="F391" s="3">
+        <v>1</v>
+      </c>
+      <c r="G391" s="3">
+        <v>1</v>
+      </c>
+      <c r="H391" s="3">
+        <v>0</v>
+      </c>
+      <c r="I391" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:9" ht="20.25">
+      <c r="A392" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B392" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C392" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E392" s="2">
+        <v>1</v>
+      </c>
+      <c r="F392" s="3">
+        <v>1</v>
+      </c>
+      <c r="G392" s="3">
+        <v>1</v>
+      </c>
+      <c r="H392" s="3">
+        <v>0</v>
+      </c>
+      <c r="I392" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:9" ht="20.25">
+      <c r="A393" s="1">
+        <v>44083</v>
+      </c>
+      <c r="B393" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C393" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E393" s="2">
+        <v>1</v>
+      </c>
+      <c r="F393" s="3">
+        <v>1</v>
+      </c>
+      <c r="G393" s="3">
+        <v>1</v>
+      </c>
+      <c r="H393" s="3">
+        <v>0</v>
+      </c>
+      <c r="I393" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:9" ht="20.25">
+      <c r="A394" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B394" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C394" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D394" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E394" s="2">
+        <v>1</v>
+      </c>
+      <c r="F394" s="3">
+        <v>1</v>
+      </c>
+      <c r="G394" s="3">
+        <v>1</v>
+      </c>
+      <c r="H394" s="3">
+        <v>0</v>
+      </c>
+      <c r="I394" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:9" ht="20.25">
+      <c r="A395" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B395" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C395" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E395" s="2">
+        <v>1</v>
+      </c>
+      <c r="F395" s="3">
+        <v>1</v>
+      </c>
+      <c r="G395" s="3">
+        <v>1</v>
+      </c>
+      <c r="H395" s="3">
+        <v>0</v>
+      </c>
+      <c r="I395" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:9" ht="20.25">
+      <c r="A396" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B396" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C396" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E396" s="2">
+        <v>1</v>
+      </c>
+      <c r="F396" s="3">
+        <v>1</v>
+      </c>
+      <c r="G396" s="3">
+        <v>1</v>
+      </c>
+      <c r="H396" s="3">
+        <v>0</v>
+      </c>
+      <c r="I396" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:9" ht="20.25">
+      <c r="A397" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B397" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C397" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D397" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E397" s="2">
+        <v>1</v>
+      </c>
+      <c r="F397" s="3">
+        <v>1</v>
+      </c>
+      <c r="G397" s="3">
+        <v>0</v>
+      </c>
+      <c r="H397" s="3">
+        <v>0</v>
+      </c>
+      <c r="I397" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:9" ht="20.25">
+      <c r="A398" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B398" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C398" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D398" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E398" s="2">
+        <v>1</v>
+      </c>
+      <c r="F398" s="3">
+        <v>1</v>
+      </c>
+      <c r="G398" s="3">
+        <v>0</v>
+      </c>
+      <c r="H398" s="3">
+        <v>0</v>
+      </c>
+      <c r="I398" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:9" ht="20.25">
+      <c r="A399" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B399" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C399" s="1">
+        <v>44079</v>
+      </c>
+      <c r="D399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E399" s="2">
+        <v>1</v>
+      </c>
+      <c r="F399" s="3">
+        <v>1</v>
+      </c>
+      <c r="G399" s="3">
+        <v>1</v>
+      </c>
+      <c r="H399" s="3">
+        <v>0</v>
+      </c>
+      <c r="I399" s="3">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="400" spans="1:9" ht="20.25">
+      <c r="A400" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B400" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C400" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D400" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E400" s="2">
+        <v>1</v>
+      </c>
+      <c r="F400" s="3">
+        <v>1</v>
+      </c>
+      <c r="G400" s="3">
+        <v>1</v>
+      </c>
+      <c r="H400" s="3">
+        <v>0</v>
+      </c>
+      <c r="I400" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:9" ht="20.25">
+      <c r="A401" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B401" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C401" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D401" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E401" s="2">
+        <v>1</v>
+      </c>
+      <c r="F401" s="3">
+        <v>1</v>
+      </c>
+      <c r="G401" s="3">
+        <v>0</v>
+      </c>
+      <c r="H401" s="3">
+        <v>0</v>
+      </c>
+      <c r="I401" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:9" ht="20.25">
+      <c r="A402" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B402" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C402" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D402" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E402" s="2">
+        <v>1</v>
+      </c>
+      <c r="F402" s="3">
+        <v>1</v>
+      </c>
+      <c r="G402" s="3">
+        <v>1</v>
+      </c>
+      <c r="H402" s="3">
+        <v>0</v>
+      </c>
+      <c r="I402" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:9" ht="20.25">
+      <c r="A403" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B403" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C403" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D403" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E403" s="2">
+        <v>1</v>
+      </c>
+      <c r="F403" s="3">
+        <v>1</v>
+      </c>
+      <c r="G403" s="3">
+        <v>0</v>
+      </c>
+      <c r="H403" s="3">
+        <v>0</v>
+      </c>
+      <c r="I403" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:9" ht="20.25">
+      <c r="A404" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B404" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C404" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D404" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" s="2">
+        <v>1</v>
+      </c>
+      <c r="F404" s="3">
+        <v>1</v>
+      </c>
+      <c r="G404" s="3">
+        <v>0</v>
+      </c>
+      <c r="H404" s="3">
+        <v>0</v>
+      </c>
+      <c r="I404" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:9" ht="20.25">
+      <c r="A405" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B405" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C405" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D405" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E405" s="2">
+        <v>1</v>
+      </c>
+      <c r="F405" s="3">
+        <v>1</v>
+      </c>
+      <c r="G405" s="3">
+        <v>0</v>
+      </c>
+      <c r="H405" s="3">
+        <v>0</v>
+      </c>
+      <c r="I405" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:9" ht="20.25">
+      <c r="A406" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B406" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C406" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D406" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E406" s="2">
+        <v>1</v>
+      </c>
+      <c r="F406" s="3">
+        <v>1</v>
+      </c>
+      <c r="G406" s="3">
+        <v>1</v>
+      </c>
+      <c r="H406" s="3">
+        <v>0</v>
+      </c>
+      <c r="I406" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="407" spans="1:9" ht="20.25">
+      <c r="A407" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B407" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C407" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D407" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E407" s="2">
+        <v>1</v>
+      </c>
+      <c r="F407" s="3">
+        <v>1</v>
+      </c>
+      <c r="G407" s="3">
+        <v>1</v>
+      </c>
+      <c r="H407" s="3">
+        <v>0</v>
+      </c>
+      <c r="I407" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="408" spans="1:9" ht="20.25">
+      <c r="A408" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B408" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C408" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D408" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E408" s="2">
+        <v>1</v>
+      </c>
+      <c r="F408" s="3">
+        <v>1</v>
+      </c>
+      <c r="G408" s="3">
+        <v>1</v>
+      </c>
+      <c r="H408" s="3">
+        <v>0</v>
+      </c>
+      <c r="I408" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:9" ht="20.25">
+      <c r="A409" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B409" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C409" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D409" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E409" s="2">
+        <v>1</v>
+      </c>
+      <c r="F409" s="3">
+        <v>1</v>
+      </c>
+      <c r="G409" s="3">
+        <v>1</v>
+      </c>
+      <c r="H409" s="3">
+        <v>0</v>
+      </c>
+      <c r="I409" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:9" ht="20.25">
+      <c r="A410" s="1">
+        <v>44084</v>
+      </c>
+      <c r="B410" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C410" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D410" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E410" s="2">
+        <v>1</v>
+      </c>
+      <c r="F410" s="3">
+        <v>1</v>
+      </c>
+      <c r="G410" s="3">
+        <v>0</v>
+      </c>
+      <c r="H410" s="3">
+        <v>0</v>
+      </c>
+      <c r="I410" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B0EDD49-D7F3-4188-9FDD-CADB67982E2F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1994F13-6F6A-49D2-A6E6-84A115DF2084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="45" yWindow="390" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I410"/>
+  <dimension ref="A1:I430"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D382" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I399" sqref="I399"/>
+    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C419" sqref="C419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12807,6 +12807,498 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+    </row>
+    <row r="411" spans="1:9" ht="20.25">
+      <c r="A411" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B411" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C411" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D411" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E411" s="2">
+        <v>1</v>
+      </c>
+      <c r="F411" s="3">
+        <v>1</v>
+      </c>
+      <c r="G411" s="3">
+        <v>1</v>
+      </c>
+      <c r="H411" s="3">
+        <v>0</v>
+      </c>
+      <c r="I411" s="1"/>
+    </row>
+    <row r="412" spans="1:9" ht="20.25">
+      <c r="A412" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B412" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C412" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D412" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E412" s="2">
+        <v>1</v>
+      </c>
+      <c r="F412" s="3">
+        <v>1</v>
+      </c>
+      <c r="G412" s="3">
+        <v>0</v>
+      </c>
+      <c r="H412" s="3">
+        <v>0</v>
+      </c>
+      <c r="I412" s="1"/>
+    </row>
+    <row r="413" spans="1:9" ht="20.25">
+      <c r="A413" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B413" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C413" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D413" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" s="2">
+        <v>1</v>
+      </c>
+      <c r="F413" s="3">
+        <v>1</v>
+      </c>
+      <c r="G413" s="3">
+        <v>0</v>
+      </c>
+      <c r="H413" s="3">
+        <v>0</v>
+      </c>
+      <c r="I413" s="1"/>
+    </row>
+    <row r="414" spans="1:9" ht="20.25">
+      <c r="A414" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B414" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C414" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D414" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E414" s="2">
+        <v>1</v>
+      </c>
+      <c r="F414" s="3">
+        <v>1</v>
+      </c>
+      <c r="G414" s="3">
+        <v>0</v>
+      </c>
+      <c r="H414" s="3">
+        <v>0</v>
+      </c>
+      <c r="I414" s="1"/>
+    </row>
+    <row r="415" spans="1:9" ht="20.25">
+      <c r="A415" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B415" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C415" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D415" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E415" s="2">
+        <v>1</v>
+      </c>
+      <c r="F415" s="3">
+        <v>1</v>
+      </c>
+      <c r="G415" s="3">
+        <v>1</v>
+      </c>
+      <c r="H415" s="3">
+        <v>0</v>
+      </c>
+      <c r="I415" s="1"/>
+    </row>
+    <row r="416" spans="1:9" ht="20.25">
+      <c r="A416" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B416" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C416" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D416" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E416" s="2">
+        <v>1</v>
+      </c>
+      <c r="F416" s="3">
+        <v>1</v>
+      </c>
+      <c r="G416" s="3">
+        <v>0</v>
+      </c>
+      <c r="H416" s="3">
+        <v>0</v>
+      </c>
+      <c r="I416" s="1"/>
+    </row>
+    <row r="417" spans="1:9" ht="20.25">
+      <c r="A417" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B417" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C417" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D417" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" s="2">
+        <v>1</v>
+      </c>
+      <c r="F417" s="3">
+        <v>1</v>
+      </c>
+      <c r="G417" s="3">
+        <v>1</v>
+      </c>
+      <c r="H417" s="3">
+        <v>0</v>
+      </c>
+      <c r="I417" s="1"/>
+    </row>
+    <row r="418" spans="1:9" ht="20.25">
+      <c r="A418" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B418" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C418" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D418" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E418" s="2">
+        <v>1</v>
+      </c>
+      <c r="F418" s="3">
+        <v>1</v>
+      </c>
+      <c r="G418" s="3">
+        <v>1</v>
+      </c>
+      <c r="H418" s="3">
+        <v>0</v>
+      </c>
+      <c r="I418" s="1"/>
+    </row>
+    <row r="419" spans="1:9" ht="20.25">
+      <c r="A419" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B419" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C419" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D419" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E419" s="2">
+        <v>1</v>
+      </c>
+      <c r="F419" s="3">
+        <v>1</v>
+      </c>
+      <c r="G419" s="3">
+        <v>1</v>
+      </c>
+      <c r="H419" s="3">
+        <v>0</v>
+      </c>
+      <c r="I419" s="1"/>
+    </row>
+    <row r="420" spans="1:9" ht="20.25">
+      <c r="A420" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B420" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C420" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E420" s="2">
+        <v>1</v>
+      </c>
+      <c r="F420" s="3">
+        <v>1</v>
+      </c>
+      <c r="G420" s="3">
+        <v>0</v>
+      </c>
+      <c r="H420" s="3">
+        <v>0</v>
+      </c>
+      <c r="I420" s="1"/>
+    </row>
+    <row r="421" spans="1:9" ht="20.25">
+      <c r="A421" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B421" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C421" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D421" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E421" s="2">
+        <v>1</v>
+      </c>
+      <c r="F421" s="3">
+        <v>1</v>
+      </c>
+      <c r="G421" s="3">
+        <v>1</v>
+      </c>
+      <c r="H421" s="3">
+        <v>0</v>
+      </c>
+      <c r="I421" s="1"/>
+    </row>
+    <row r="422" spans="1:9" ht="20.25">
+      <c r="A422" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B422" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C422" s="1">
+        <v>44070</v>
+      </c>
+      <c r="D422" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E422" s="2">
+        <v>1</v>
+      </c>
+      <c r="F422" s="3">
+        <v>1</v>
+      </c>
+      <c r="G422" s="3">
+        <v>0</v>
+      </c>
+      <c r="H422" s="3">
+        <v>0</v>
+      </c>
+      <c r="I422" s="1"/>
+    </row>
+    <row r="423" spans="1:9" ht="20.25">
+      <c r="A423" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B423" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C423" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D423" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E423" s="2">
+        <v>1</v>
+      </c>
+      <c r="F423" s="3">
+        <v>1</v>
+      </c>
+      <c r="G423" s="3">
+        <v>0</v>
+      </c>
+      <c r="H423" s="3">
+        <v>0</v>
+      </c>
+      <c r="I423" s="1"/>
+    </row>
+    <row r="424" spans="1:9" ht="20.25">
+      <c r="A424" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B424" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C424" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D424" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E424" s="2">
+        <v>1</v>
+      </c>
+      <c r="F424" s="3">
+        <v>1</v>
+      </c>
+      <c r="G424" s="3">
+        <v>0</v>
+      </c>
+      <c r="H424" s="3">
+        <v>0</v>
+      </c>
+      <c r="I424" s="1"/>
+    </row>
+    <row r="425" spans="1:9" ht="20.25">
+      <c r="A425" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B425" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C425" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" s="2">
+        <v>1</v>
+      </c>
+      <c r="F425" s="3">
+        <v>1</v>
+      </c>
+      <c r="G425" s="3">
+        <v>1</v>
+      </c>
+      <c r="H425" s="3">
+        <v>0</v>
+      </c>
+      <c r="I425" s="1"/>
+    </row>
+    <row r="426" spans="1:9" ht="20.25">
+      <c r="A426" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B426" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C426" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D426" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E426" s="2">
+        <v>1</v>
+      </c>
+      <c r="F426" s="3">
+        <v>1</v>
+      </c>
+      <c r="G426" s="3">
+        <v>0</v>
+      </c>
+      <c r="H426" s="3">
+        <v>0</v>
+      </c>
+      <c r="I426" s="1"/>
+    </row>
+    <row r="427" spans="1:9" ht="20.25">
+      <c r="A427" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B427" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C427" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D427" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E427" s="2">
+        <v>1</v>
+      </c>
+      <c r="F427" s="3">
+        <v>1</v>
+      </c>
+      <c r="G427" s="3">
+        <v>0</v>
+      </c>
+      <c r="H427" s="3">
+        <v>0</v>
+      </c>
+      <c r="I427" s="1"/>
+    </row>
+    <row r="428" spans="1:9" ht="20.25">
+      <c r="A428" s="1">
+        <v>44085</v>
+      </c>
+      <c r="B428" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C428" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D428" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E428" s="2">
+        <v>1</v>
+      </c>
+      <c r="F428" s="3">
+        <v>0</v>
+      </c>
+      <c r="G428" s="3">
+        <v>0</v>
+      </c>
+      <c r="H428" s="3">
+        <v>1</v>
+      </c>
+      <c r="I428" s="1"/>
+    </row>
+    <row r="429" spans="1:9" ht="20.25">
+      <c r="E429" s="2"/>
+    </row>
+    <row r="430" spans="1:9" ht="20.25">
+      <c r="E430" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1994F13-6F6A-49D2-A6E6-84A115DF2084}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1C7B9-C9DA-46F0-B58A-7DA975705300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="390" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="15" yWindow="480" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I430"/>
+  <dimension ref="A1:I459"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C419" sqref="C419"/>
+    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J448" sqref="J448"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
       <c r="I387" s="3">
-        <f t="shared" ref="I387:I410" si="6">A387-B387</f>
+        <f t="shared" ref="I387:I450" si="6">A387-B387</f>
         <v>0</v>
       </c>
     </row>
@@ -12833,7 +12833,10 @@
       <c r="H411" s="3">
         <v>0</v>
       </c>
-      <c r="I411" s="1"/>
+      <c r="I411" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="412" spans="1:9" ht="20.25">
       <c r="A412" s="1">
@@ -12860,7 +12863,10 @@
       <c r="H412" s="3">
         <v>0</v>
       </c>
-      <c r="I412" s="1"/>
+      <c r="I412" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="413" spans="1:9" ht="20.25">
       <c r="A413" s="1">
@@ -12887,7 +12893,10 @@
       <c r="H413" s="3">
         <v>0</v>
       </c>
-      <c r="I413" s="1"/>
+      <c r="I413" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="414" spans="1:9" ht="20.25">
       <c r="A414" s="1">
@@ -12914,7 +12923,10 @@
       <c r="H414" s="3">
         <v>0</v>
       </c>
-      <c r="I414" s="1"/>
+      <c r="I414" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="415" spans="1:9" ht="20.25">
       <c r="A415" s="1">
@@ -12941,7 +12953,10 @@
       <c r="H415" s="3">
         <v>0</v>
       </c>
-      <c r="I415" s="1"/>
+      <c r="I415" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="416" spans="1:9" ht="20.25">
       <c r="A416" s="1">
@@ -12968,7 +12983,10 @@
       <c r="H416" s="3">
         <v>0</v>
       </c>
-      <c r="I416" s="1"/>
+      <c r="I416" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="417" spans="1:9" ht="20.25">
       <c r="A417" s="1">
@@ -12995,7 +13013,10 @@
       <c r="H417" s="3">
         <v>0</v>
       </c>
-      <c r="I417" s="1"/>
+      <c r="I417" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="418" spans="1:9" ht="20.25">
       <c r="A418" s="1">
@@ -13022,7 +13043,10 @@
       <c r="H418" s="3">
         <v>0</v>
       </c>
-      <c r="I418" s="1"/>
+      <c r="I418" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="419" spans="1:9" ht="20.25">
       <c r="A419" s="1">
@@ -13049,7 +13073,10 @@
       <c r="H419" s="3">
         <v>0</v>
       </c>
-      <c r="I419" s="1"/>
+      <c r="I419" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="420" spans="1:9" ht="20.25">
       <c r="A420" s="1">
@@ -13076,7 +13103,10 @@
       <c r="H420" s="3">
         <v>0</v>
       </c>
-      <c r="I420" s="1"/>
+      <c r="I420" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="421" spans="1:9" ht="20.25">
       <c r="A421" s="1">
@@ -13103,7 +13133,10 @@
       <c r="H421" s="3">
         <v>0</v>
       </c>
-      <c r="I421" s="1"/>
+      <c r="I421" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="422" spans="1:9" ht="20.25">
       <c r="A422" s="1">
@@ -13130,7 +13163,10 @@
       <c r="H422" s="3">
         <v>0</v>
       </c>
-      <c r="I422" s="1"/>
+      <c r="I422" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="423" spans="1:9" ht="20.25">
       <c r="A423" s="1">
@@ -13157,7 +13193,10 @@
       <c r="H423" s="3">
         <v>0</v>
       </c>
-      <c r="I423" s="1"/>
+      <c r="I423" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="424" spans="1:9" ht="20.25">
       <c r="A424" s="1">
@@ -13184,7 +13223,10 @@
       <c r="H424" s="3">
         <v>0</v>
       </c>
-      <c r="I424" s="1"/>
+      <c r="I424" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="425" spans="1:9" ht="20.25">
       <c r="A425" s="1">
@@ -13211,7 +13253,10 @@
       <c r="H425" s="3">
         <v>0</v>
       </c>
-      <c r="I425" s="1"/>
+      <c r="I425" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="426" spans="1:9" ht="20.25">
       <c r="A426" s="1">
@@ -13238,7 +13283,10 @@
       <c r="H426" s="3">
         <v>0</v>
       </c>
-      <c r="I426" s="1"/>
+      <c r="I426" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="427" spans="1:9" ht="20.25">
       <c r="A427" s="1">
@@ -13265,7 +13313,10 @@
       <c r="H427" s="3">
         <v>0</v>
       </c>
-      <c r="I427" s="1"/>
+      <c r="I427" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="428" spans="1:9" ht="20.25">
       <c r="A428" s="1">
@@ -13292,13 +13343,887 @@
       <c r="H428" s="3">
         <v>1</v>
       </c>
-      <c r="I428" s="1"/>
+      <c r="I428" s="3">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="429" spans="1:9" ht="20.25">
-      <c r="E429" s="2"/>
+      <c r="A429" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B429" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C429" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D429" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E429" s="2">
+        <v>1</v>
+      </c>
+      <c r="F429" s="3">
+        <v>1</v>
+      </c>
+      <c r="G429" s="3">
+        <v>0</v>
+      </c>
+      <c r="H429" s="3">
+        <v>0</v>
+      </c>
+      <c r="I429" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
     </row>
     <row r="430" spans="1:9" ht="20.25">
-      <c r="E430" s="2"/>
+      <c r="A430" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B430" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C430" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D430" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E430" s="2">
+        <v>1</v>
+      </c>
+      <c r="F430" s="3">
+        <v>1</v>
+      </c>
+      <c r="G430" s="3">
+        <v>1</v>
+      </c>
+      <c r="H430" s="3">
+        <v>0</v>
+      </c>
+      <c r="I430" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="431" spans="1:9" ht="20.25">
+      <c r="A431" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B431" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C431" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D431" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E431" s="2">
+        <v>1</v>
+      </c>
+      <c r="F431" s="3">
+        <v>1</v>
+      </c>
+      <c r="G431" s="3">
+        <v>1</v>
+      </c>
+      <c r="H431" s="3">
+        <v>0</v>
+      </c>
+      <c r="I431" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="432" spans="1:9" ht="20.25">
+      <c r="A432" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B432" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C432" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D432" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E432" s="2">
+        <v>1</v>
+      </c>
+      <c r="F432" s="3">
+        <v>1</v>
+      </c>
+      <c r="G432" s="3">
+        <v>0</v>
+      </c>
+      <c r="H432" s="3">
+        <v>0</v>
+      </c>
+      <c r="I432" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="433" spans="1:9" ht="20.25">
+      <c r="A433" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B433" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C433" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E433" s="2">
+        <v>1</v>
+      </c>
+      <c r="F433" s="3">
+        <v>1</v>
+      </c>
+      <c r="G433" s="3">
+        <v>1</v>
+      </c>
+      <c r="H433" s="3">
+        <v>0</v>
+      </c>
+      <c r="I433" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="434" spans="1:9" ht="20.25">
+      <c r="A434" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B434" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C434" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D434" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E434" s="2">
+        <v>1</v>
+      </c>
+      <c r="F434" s="3">
+        <v>1</v>
+      </c>
+      <c r="G434" s="3">
+        <v>1</v>
+      </c>
+      <c r="H434" s="3">
+        <v>0</v>
+      </c>
+      <c r="I434" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="435" spans="1:9" ht="20.25">
+      <c r="A435" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B435" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C435" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E435" s="2">
+        <v>1</v>
+      </c>
+      <c r="F435" s="3">
+        <v>1</v>
+      </c>
+      <c r="G435" s="3">
+        <v>1</v>
+      </c>
+      <c r="H435" s="3">
+        <v>0</v>
+      </c>
+      <c r="I435" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="1:9" ht="20.25">
+      <c r="A436" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B436" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C436" s="1">
+        <v>44084</v>
+      </c>
+      <c r="D436" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E436" s="2">
+        <v>1</v>
+      </c>
+      <c r="F436" s="3">
+        <v>1</v>
+      </c>
+      <c r="G436" s="3">
+        <v>0</v>
+      </c>
+      <c r="H436" s="3">
+        <v>0</v>
+      </c>
+      <c r="I436" s="3">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="437" spans="1:9" ht="20.25">
+      <c r="A437" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B437" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C437" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E437" s="2">
+        <v>1</v>
+      </c>
+      <c r="F437" s="3">
+        <v>1</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="438" spans="1:9" ht="20.25">
+      <c r="A438" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B438" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C438" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D438" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E438" s="2">
+        <v>1</v>
+      </c>
+      <c r="F438" s="3">
+        <v>1</v>
+      </c>
+      <c r="G438" s="3">
+        <v>0</v>
+      </c>
+      <c r="H438" s="3">
+        <v>0</v>
+      </c>
+      <c r="I438" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="439" spans="1:9" ht="20.25">
+      <c r="A439" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B439" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C439" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D439" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E439" s="2">
+        <v>1</v>
+      </c>
+      <c r="F439" s="3">
+        <v>1</v>
+      </c>
+      <c r="G439" s="3">
+        <v>1</v>
+      </c>
+      <c r="H439" s="3">
+        <v>0</v>
+      </c>
+      <c r="I439" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="440" spans="1:9" ht="20.25">
+      <c r="A440" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B440" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C440" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D440" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E440" s="2">
+        <v>1</v>
+      </c>
+      <c r="F440" s="3">
+        <v>1</v>
+      </c>
+      <c r="G440" s="3">
+        <v>1</v>
+      </c>
+      <c r="H440" s="3">
+        <v>0</v>
+      </c>
+      <c r="I440" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:9" ht="20.25">
+      <c r="A441" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B441" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C441" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D441" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" s="2">
+        <v>1</v>
+      </c>
+      <c r="F441" s="3">
+        <v>1</v>
+      </c>
+      <c r="G441" s="3">
+        <v>0</v>
+      </c>
+      <c r="H441" s="3">
+        <v>0</v>
+      </c>
+      <c r="I441" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="442" spans="1:9" ht="20.25">
+      <c r="A442" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B442" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C442" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D442" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E442" s="2">
+        <v>1</v>
+      </c>
+      <c r="F442" s="3">
+        <v>1</v>
+      </c>
+      <c r="G442" s="3">
+        <v>0</v>
+      </c>
+      <c r="H442" s="3">
+        <v>0</v>
+      </c>
+      <c r="I442" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="443" spans="1:9" ht="20.25">
+      <c r="A443" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B443" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C443" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E443" s="2">
+        <v>1</v>
+      </c>
+      <c r="F443" s="3">
+        <v>1</v>
+      </c>
+      <c r="G443" s="3">
+        <v>1</v>
+      </c>
+      <c r="H443" s="3">
+        <v>0</v>
+      </c>
+      <c r="I443" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="444" spans="1:9" ht="20.25">
+      <c r="A444" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B444" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C444" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E444" s="2">
+        <v>1</v>
+      </c>
+      <c r="F444" s="3">
+        <v>1</v>
+      </c>
+      <c r="G444" s="3">
+        <v>0</v>
+      </c>
+      <c r="H444" s="3">
+        <v>0</v>
+      </c>
+      <c r="I444" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:9" ht="20.25">
+      <c r="A445" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B445" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C445" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D445" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E445" s="2">
+        <v>1</v>
+      </c>
+      <c r="F445" s="3">
+        <v>1</v>
+      </c>
+      <c r="G445" s="3">
+        <v>1</v>
+      </c>
+      <c r="H445" s="3">
+        <v>0</v>
+      </c>
+      <c r="I445" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:9" ht="20.25">
+      <c r="A446" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B446" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C446" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D446" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E446" s="2">
+        <v>1</v>
+      </c>
+      <c r="F446" s="3">
+        <v>1</v>
+      </c>
+      <c r="G446" s="3">
+        <v>0</v>
+      </c>
+      <c r="H446" s="3">
+        <v>0</v>
+      </c>
+      <c r="I446" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:9" ht="20.25">
+      <c r="A447" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B447" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C447" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D447" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E447" s="2">
+        <v>1</v>
+      </c>
+      <c r="F447" s="3">
+        <v>1</v>
+      </c>
+      <c r="G447" s="3">
+        <v>0</v>
+      </c>
+      <c r="H447" s="3">
+        <v>0</v>
+      </c>
+      <c r="I447" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="448" spans="1:9" ht="20.25">
+      <c r="A448" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B448" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C448" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D448" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E448" s="2">
+        <v>1</v>
+      </c>
+      <c r="F448" s="3">
+        <v>1</v>
+      </c>
+      <c r="G448" s="3">
+        <v>0</v>
+      </c>
+      <c r="H448" s="3">
+        <v>0</v>
+      </c>
+      <c r="I448" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="449" spans="1:9" ht="20.25">
+      <c r="A449" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B449" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C449" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D449" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E449" s="2">
+        <v>1</v>
+      </c>
+      <c r="F449" s="3">
+        <v>1</v>
+      </c>
+      <c r="G449" s="3">
+        <v>0</v>
+      </c>
+      <c r="H449" s="3">
+        <v>0</v>
+      </c>
+      <c r="I449" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:9" ht="20.25">
+      <c r="A450" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B450" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C450" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E450" s="2">
+        <v>1</v>
+      </c>
+      <c r="F450" s="3">
+        <v>1</v>
+      </c>
+      <c r="G450" s="3">
+        <v>1</v>
+      </c>
+      <c r="H450" s="3">
+        <v>0</v>
+      </c>
+      <c r="I450" s="3">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="1:9" ht="20.25">
+      <c r="A451" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B451" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C451" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D451" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E451" s="2">
+        <v>1</v>
+      </c>
+      <c r="F451" s="3">
+        <v>1</v>
+      </c>
+      <c r="G451" s="3">
+        <v>0</v>
+      </c>
+      <c r="H451" s="3">
+        <v>0</v>
+      </c>
+      <c r="I451" s="3">
+        <f t="shared" ref="I451:I457" si="7">A451-B451</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:9" ht="20.25">
+      <c r="A452" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B452" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C452" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E452" s="2">
+        <v>1</v>
+      </c>
+      <c r="F452" s="3">
+        <v>1</v>
+      </c>
+      <c r="G452" s="3">
+        <v>0</v>
+      </c>
+      <c r="H452" s="3">
+        <v>0</v>
+      </c>
+      <c r="I452" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:9" ht="20.25">
+      <c r="A453" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B453" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C453" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D453" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E453" s="2">
+        <v>1</v>
+      </c>
+      <c r="F453" s="3">
+        <v>1</v>
+      </c>
+      <c r="G453" s="3">
+        <v>0</v>
+      </c>
+      <c r="H453" s="3">
+        <v>0</v>
+      </c>
+      <c r="I453" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:9" ht="20.25">
+      <c r="A454" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B454" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C454" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D454" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E454" s="2">
+        <v>1</v>
+      </c>
+      <c r="F454" s="3">
+        <v>1</v>
+      </c>
+      <c r="G454" s="3">
+        <v>1</v>
+      </c>
+      <c r="H454" s="3">
+        <v>0</v>
+      </c>
+      <c r="I454" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:9" ht="20.25">
+      <c r="A455" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B455" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C455" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D455" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" s="2">
+        <v>1</v>
+      </c>
+      <c r="F455" s="3">
+        <v>1</v>
+      </c>
+      <c r="G455" s="3">
+        <v>0</v>
+      </c>
+      <c r="H455" s="3">
+        <v>0</v>
+      </c>
+      <c r="I455" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:9" ht="20.25">
+      <c r="A456" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B456" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C456" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D456" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E456" s="2">
+        <v>1</v>
+      </c>
+      <c r="F456" s="3">
+        <v>1</v>
+      </c>
+      <c r="G456" s="3">
+        <v>1</v>
+      </c>
+      <c r="H456" s="3">
+        <v>0</v>
+      </c>
+      <c r="I456" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="457" spans="1:9" ht="20.25">
+      <c r="A457" s="1">
+        <v>44086</v>
+      </c>
+      <c r="B457" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C457" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D457" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E457" s="2">
+        <v>1</v>
+      </c>
+      <c r="F457" s="3">
+        <v>1</v>
+      </c>
+      <c r="G457" s="3">
+        <v>1</v>
+      </c>
+      <c r="H457" s="3">
+        <v>0</v>
+      </c>
+      <c r="I457" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="458" spans="1:9" ht="20.25">
+      <c r="F458" s="3"/>
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="1:9" ht="20.25">
+      <c r="F459" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E1C7B9-C9DA-46F0-B58A-7DA975705300}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5D472-1906-49EA-8489-FA64483F764E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="480" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="45" yWindow="615" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I459"/>
+  <dimension ref="A1:I495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A444" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J448" sqref="J448"/>
+    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J487" sqref="J487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="I451" s="3">
-        <f t="shared" ref="I451:I457" si="7">A451-B451</f>
+        <f t="shared" ref="I451:I492" si="7">A451-B451</f>
         <v>1</v>
       </c>
     </row>
@@ -14219,11 +14219,1065 @@
       </c>
     </row>
     <row r="458" spans="1:9" ht="20.25">
-      <c r="F458" s="3"/>
-      <c r="H458" s="3"/>
+      <c r="A458" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B458" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C458" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D458" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E458" s="2">
+        <v>1</v>
+      </c>
+      <c r="F458" s="3">
+        <v>1</v>
+      </c>
+      <c r="G458" s="3">
+        <v>0</v>
+      </c>
+      <c r="H458" s="3">
+        <v>0</v>
+      </c>
+      <c r="I458" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="459" spans="1:9" ht="20.25">
-      <c r="F459" s="3"/>
+      <c r="A459" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B459" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C459" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D459" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E459" s="2">
+        <v>1</v>
+      </c>
+      <c r="F459" s="3">
+        <v>1</v>
+      </c>
+      <c r="G459" s="3">
+        <v>0</v>
+      </c>
+      <c r="H459" s="3">
+        <v>0</v>
+      </c>
+      <c r="I459" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="460" spans="1:9" ht="20.25">
+      <c r="A460" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B460" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C460" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D460" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E460" s="2">
+        <v>1</v>
+      </c>
+      <c r="F460" s="3">
+        <v>1</v>
+      </c>
+      <c r="G460" s="3">
+        <v>0</v>
+      </c>
+      <c r="H460" s="3">
+        <v>0</v>
+      </c>
+      <c r="I460" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:9" ht="20.25">
+      <c r="A461" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B461" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C461" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E461" s="2">
+        <v>1</v>
+      </c>
+      <c r="F461" s="3">
+        <v>1</v>
+      </c>
+      <c r="G461" s="3">
+        <v>1</v>
+      </c>
+      <c r="H461" s="3">
+        <v>0</v>
+      </c>
+      <c r="I461" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:9" ht="20.25">
+      <c r="A462" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B462" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C462" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E462" s="2">
+        <v>1</v>
+      </c>
+      <c r="F462" s="3">
+        <v>1</v>
+      </c>
+      <c r="G462" s="3">
+        <v>1</v>
+      </c>
+      <c r="H462" s="3">
+        <v>0</v>
+      </c>
+      <c r="I462" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:9" ht="20.25">
+      <c r="A463" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B463" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C463" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D463" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E463" s="2">
+        <v>1</v>
+      </c>
+      <c r="F463" s="3">
+        <v>1</v>
+      </c>
+      <c r="G463" s="3">
+        <v>0</v>
+      </c>
+      <c r="H463" s="3">
+        <v>0</v>
+      </c>
+      <c r="I463" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="464" spans="1:9" ht="20.25">
+      <c r="A464" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B464" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C464" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E464" s="2">
+        <v>1</v>
+      </c>
+      <c r="F464" s="3">
+        <v>1</v>
+      </c>
+      <c r="G464" s="3">
+        <v>1</v>
+      </c>
+      <c r="H464" s="3">
+        <v>0</v>
+      </c>
+      <c r="I464" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="465" spans="1:9" ht="20.25">
+      <c r="A465" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B465" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C465" s="1">
+        <v>44082</v>
+      </c>
+      <c r="D465" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E465" s="2">
+        <v>1</v>
+      </c>
+      <c r="F465" s="3">
+        <v>1</v>
+      </c>
+      <c r="G465" s="3">
+        <v>0</v>
+      </c>
+      <c r="H465" s="3">
+        <v>0</v>
+      </c>
+      <c r="I465" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="466" spans="1:9" ht="20.25">
+      <c r="A466" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B466" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C466" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E466" s="2">
+        <v>1</v>
+      </c>
+      <c r="F466" s="3">
+        <v>1</v>
+      </c>
+      <c r="G466" s="3">
+        <v>1</v>
+      </c>
+      <c r="H466" s="3">
+        <v>0</v>
+      </c>
+      <c r="I466" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:9" ht="20.25">
+      <c r="A467" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B467" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C467" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D467" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E467" s="2">
+        <v>1</v>
+      </c>
+      <c r="F467" s="3">
+        <v>1</v>
+      </c>
+      <c r="G467" s="3">
+        <v>1</v>
+      </c>
+      <c r="H467" s="3">
+        <v>0</v>
+      </c>
+      <c r="I467" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:9" ht="20.25">
+      <c r="A468" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B468" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C468" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D468" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E468" s="2">
+        <v>1</v>
+      </c>
+      <c r="F468" s="3">
+        <v>1</v>
+      </c>
+      <c r="G468" s="3">
+        <v>0</v>
+      </c>
+      <c r="H468" s="3">
+        <v>0</v>
+      </c>
+      <c r="I468" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:9" ht="20.25">
+      <c r="A469" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B469" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C469" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D469" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E469" s="2">
+        <v>1</v>
+      </c>
+      <c r="F469" s="3">
+        <v>1</v>
+      </c>
+      <c r="G469" s="3">
+        <v>1</v>
+      </c>
+      <c r="H469" s="3">
+        <v>0</v>
+      </c>
+      <c r="I469" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="470" spans="1:9" ht="20.25">
+      <c r="A470" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B470" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C470" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D470" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E470" s="2">
+        <v>1</v>
+      </c>
+      <c r="F470" s="3">
+        <v>1</v>
+      </c>
+      <c r="G470" s="3">
+        <v>0</v>
+      </c>
+      <c r="H470" s="3">
+        <v>0</v>
+      </c>
+      <c r="I470" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="471" spans="1:9" ht="20.25">
+      <c r="A471" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B471" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C471" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E471" s="2">
+        <v>1</v>
+      </c>
+      <c r="F471" s="3">
+        <v>1</v>
+      </c>
+      <c r="G471" s="3">
+        <v>0</v>
+      </c>
+      <c r="H471" s="3">
+        <v>0</v>
+      </c>
+      <c r="I471" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="472" spans="1:9" ht="20.25">
+      <c r="A472" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B472" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C472" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D472" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472" s="2">
+        <v>1</v>
+      </c>
+      <c r="F472" s="3">
+        <v>1</v>
+      </c>
+      <c r="G472" s="3">
+        <v>0</v>
+      </c>
+      <c r="H472" s="3">
+        <v>0</v>
+      </c>
+      <c r="I472" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="473" spans="1:9" ht="20.25">
+      <c r="A473" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B473" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C473" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D473" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E473" s="2">
+        <v>1</v>
+      </c>
+      <c r="F473" s="3">
+        <v>1</v>
+      </c>
+      <c r="G473" s="3">
+        <v>0</v>
+      </c>
+      <c r="H473" s="3">
+        <v>0</v>
+      </c>
+      <c r="I473" s="3">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="474" spans="1:9" ht="20.25">
+      <c r="A474" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B474" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C474" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D474" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" s="2">
+        <v>1</v>
+      </c>
+      <c r="F474" s="3">
+        <v>1</v>
+      </c>
+      <c r="G474" s="3">
+        <v>0</v>
+      </c>
+      <c r="H474" s="3">
+        <v>0</v>
+      </c>
+      <c r="I474" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="475" spans="1:9" ht="20.25">
+      <c r="A475" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B475" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C475" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D475" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E475" s="2">
+        <v>1</v>
+      </c>
+      <c r="F475" s="3">
+        <v>1</v>
+      </c>
+      <c r="G475" s="3">
+        <v>1</v>
+      </c>
+      <c r="H475" s="3">
+        <v>0</v>
+      </c>
+      <c r="I475" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="476" spans="1:9" ht="20.25">
+      <c r="A476" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B476" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C476" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D476" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E476" s="2">
+        <v>1</v>
+      </c>
+      <c r="F476" s="3">
+        <v>1</v>
+      </c>
+      <c r="G476" s="3">
+        <v>0</v>
+      </c>
+      <c r="H476" s="3">
+        <v>0</v>
+      </c>
+      <c r="I476" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:9" ht="20.25">
+      <c r="A477" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B477" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C477" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E477" s="2">
+        <v>1</v>
+      </c>
+      <c r="F477" s="3">
+        <v>1</v>
+      </c>
+      <c r="G477" s="3">
+        <v>1</v>
+      </c>
+      <c r="H477" s="3">
+        <v>0</v>
+      </c>
+      <c r="I477" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:9" ht="20.25">
+      <c r="A478" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B478" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C478" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E478" s="2">
+        <v>1</v>
+      </c>
+      <c r="F478" s="3">
+        <v>1</v>
+      </c>
+      <c r="G478" s="3">
+        <v>1</v>
+      </c>
+      <c r="H478" s="3">
+        <v>0</v>
+      </c>
+      <c r="I478" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:9" ht="20.25">
+      <c r="A479" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B479" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C479" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E479" s="2">
+        <v>1</v>
+      </c>
+      <c r="F479" s="3">
+        <v>1</v>
+      </c>
+      <c r="G479" s="3">
+        <v>1</v>
+      </c>
+      <c r="H479" s="3">
+        <v>0</v>
+      </c>
+      <c r="I479" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:9" ht="20.25">
+      <c r="A480" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B480" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C480" s="1">
+        <v>44078</v>
+      </c>
+      <c r="D480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E480" s="2">
+        <v>1</v>
+      </c>
+      <c r="F480" s="3">
+        <v>1</v>
+      </c>
+      <c r="G480" s="3">
+        <v>1</v>
+      </c>
+      <c r="H480" s="3">
+        <v>0</v>
+      </c>
+      <c r="I480" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:9" ht="20.25">
+      <c r="A481" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B481" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C481" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E481" s="2">
+        <v>1</v>
+      </c>
+      <c r="F481" s="3">
+        <v>1</v>
+      </c>
+      <c r="G481" s="3">
+        <v>1</v>
+      </c>
+      <c r="H481" s="3">
+        <v>0</v>
+      </c>
+      <c r="I481" s="3">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:9" ht="20.25">
+      <c r="A482" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B482" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C482" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E482" s="2">
+        <v>1</v>
+      </c>
+      <c r="F482" s="3">
+        <v>1</v>
+      </c>
+      <c r="G482" s="3">
+        <v>1</v>
+      </c>
+      <c r="H482" s="3">
+        <v>0</v>
+      </c>
+      <c r="I482" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="1:9" ht="20.25">
+      <c r="A483" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B483" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C483" s="1">
+        <v>44075</v>
+      </c>
+      <c r="D483" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E483" s="2">
+        <v>1</v>
+      </c>
+      <c r="F483" s="3">
+        <v>1</v>
+      </c>
+      <c r="G483" s="3">
+        <v>0</v>
+      </c>
+      <c r="H483" s="3">
+        <v>0</v>
+      </c>
+      <c r="I483" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:9" ht="20.25">
+      <c r="A484" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B484" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C484" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D484" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E484" s="2">
+        <v>1</v>
+      </c>
+      <c r="F484" s="3">
+        <v>1</v>
+      </c>
+      <c r="G484" s="3">
+        <v>1</v>
+      </c>
+      <c r="H484" s="3">
+        <v>0</v>
+      </c>
+      <c r="I484" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:9" ht="20.25">
+      <c r="A485" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B485" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C485" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D485" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E485" s="2">
+        <v>1</v>
+      </c>
+      <c r="F485" s="3">
+        <v>1</v>
+      </c>
+      <c r="G485" s="3">
+        <v>1</v>
+      </c>
+      <c r="H485" s="3">
+        <v>0</v>
+      </c>
+      <c r="I485" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:9" ht="20.25">
+      <c r="A486" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B486" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C486" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D486" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E486" s="2">
+        <v>1</v>
+      </c>
+      <c r="F486" s="3">
+        <v>1</v>
+      </c>
+      <c r="G486" s="3">
+        <v>0</v>
+      </c>
+      <c r="H486" s="3">
+        <v>0</v>
+      </c>
+      <c r="I486" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:9" ht="20.25">
+      <c r="A487" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B487" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C487" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D487" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E487" s="2">
+        <v>1</v>
+      </c>
+      <c r="F487" s="3">
+        <v>1</v>
+      </c>
+      <c r="G487" s="3">
+        <v>0</v>
+      </c>
+      <c r="H487" s="3">
+        <v>0</v>
+      </c>
+      <c r="I487" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:9" ht="20.25">
+      <c r="A488" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B488" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C488" s="1">
+        <v>44080</v>
+      </c>
+      <c r="D488" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E488" s="2">
+        <v>1</v>
+      </c>
+      <c r="F488" s="3">
+        <v>1</v>
+      </c>
+      <c r="G488" s="3">
+        <v>0</v>
+      </c>
+      <c r="H488" s="3">
+        <v>0</v>
+      </c>
+      <c r="I488" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:9" ht="20.25">
+      <c r="A489" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B489" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C489" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D489" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E489" s="2">
+        <v>1</v>
+      </c>
+      <c r="F489" s="3">
+        <v>1</v>
+      </c>
+      <c r="G489" s="3">
+        <v>0</v>
+      </c>
+      <c r="H489" s="3">
+        <v>0</v>
+      </c>
+      <c r="I489" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:9" ht="20.25">
+      <c r="A490" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B490" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C490" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D490" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E490" s="2">
+        <v>1</v>
+      </c>
+      <c r="F490" s="3">
+        <v>1</v>
+      </c>
+      <c r="G490" s="3">
+        <v>0</v>
+      </c>
+      <c r="H490" s="3">
+        <v>0</v>
+      </c>
+      <c r="I490" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:9" ht="20.25">
+      <c r="A491" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B491" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C491" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D491" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E491" s="2">
+        <v>1</v>
+      </c>
+      <c r="F491" s="3">
+        <v>1</v>
+      </c>
+      <c r="G491" s="3">
+        <v>1</v>
+      </c>
+      <c r="H491" s="3">
+        <v>0</v>
+      </c>
+      <c r="I491" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:9" ht="20.25">
+      <c r="A492" s="1">
+        <v>44087</v>
+      </c>
+      <c r="B492" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C492" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D492" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E492" s="2">
+        <v>1</v>
+      </c>
+      <c r="F492" s="3">
+        <v>1</v>
+      </c>
+      <c r="G492" s="3">
+        <v>1</v>
+      </c>
+      <c r="H492" s="3">
+        <v>0</v>
+      </c>
+      <c r="I492" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:9" ht="20.25">
+      <c r="E493" s="2"/>
+      <c r="H493" s="3"/>
+    </row>
+    <row r="494" spans="1:9" ht="20.25">
+      <c r="E494" s="2"/>
+      <c r="H494" s="3"/>
+    </row>
+    <row r="495" spans="1:9" ht="20.25">
+      <c r="E495" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/raw_data.xlsx
+++ b/raw_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Documents\Dartmouth\SMU-COVID-19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD5D472-1906-49EA-8489-FA64483F764E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2930EBA-0DB2-449C-BC77-51DC7BEBBB39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45" yWindow="615" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
+    <workbookView xWindow="45" yWindow="600" windowWidth="28755" windowHeight="15600" xr2:uid="{C02C574F-B092-2241-8359-6FE9A7A2F2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="26">
   <si>
     <t>Campus Community Notified</t>
   </si>
@@ -495,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC2674AF-42D0-4F40-A500-83EABA22BAC7}">
-  <dimension ref="A1:I495"/>
+  <dimension ref="A1:I537"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A464" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J487" sqref="J487"/>
+    <sheetView tabSelected="1" topLeftCell="D510" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J533" sqref="J533"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -14034,7 +14034,7 @@
         <v>0</v>
       </c>
       <c r="I451" s="3">
-        <f t="shared" ref="I451:I492" si="7">A451-B451</f>
+        <f t="shared" ref="I451:I514" si="7">A451-B451</f>
         <v>1</v>
       </c>
     </row>
@@ -15269,15 +15269,1354 @@
       </c>
     </row>
     <row r="493" spans="1:9" ht="20.25">
-      <c r="E493" s="2"/>
-      <c r="H493" s="3"/>
+      <c r="A493" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B493" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C493" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D493" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E493" s="2">
+        <v>1</v>
+      </c>
+      <c r="F493" s="3">
+        <v>1</v>
+      </c>
+      <c r="G493" s="3">
+        <v>0</v>
+      </c>
+      <c r="H493" s="3">
+        <v>0</v>
+      </c>
+      <c r="I493" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="494" spans="1:9" ht="20.25">
-      <c r="E494" s="2"/>
-      <c r="H494" s="3"/>
+      <c r="A494" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B494" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C494" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D494" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E494" s="2">
+        <v>1</v>
+      </c>
+      <c r="F494" s="3">
+        <v>1</v>
+      </c>
+      <c r="G494" s="3">
+        <v>1</v>
+      </c>
+      <c r="H494" s="3">
+        <v>0</v>
+      </c>
+      <c r="I494" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="495" spans="1:9" ht="20.25">
-      <c r="E495" s="2"/>
+      <c r="A495" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B495" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C495" s="1">
+        <v>44087</v>
+      </c>
+      <c r="D495" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E495" s="2">
+        <v>1</v>
+      </c>
+      <c r="F495" s="3">
+        <v>1</v>
+      </c>
+      <c r="G495" s="3">
+        <v>0</v>
+      </c>
+      <c r="H495" s="3">
+        <v>0</v>
+      </c>
+      <c r="I495" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:9" ht="20.25">
+      <c r="A496" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B496" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C496" s="1">
+        <v>44076</v>
+      </c>
+      <c r="D496" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E496" s="2">
+        <v>1</v>
+      </c>
+      <c r="F496" s="3">
+        <v>1</v>
+      </c>
+      <c r="G496" s="3">
+        <v>0</v>
+      </c>
+      <c r="H496" s="3">
+        <v>0</v>
+      </c>
+      <c r="I496" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:9" ht="20.25">
+      <c r="A497" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B497" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C497" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D497" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E497" s="2">
+        <v>1</v>
+      </c>
+      <c r="F497" s="3">
+        <v>1</v>
+      </c>
+      <c r="G497" s="3">
+        <v>1</v>
+      </c>
+      <c r="H497" s="3">
+        <v>0</v>
+      </c>
+      <c r="I497" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:9" ht="20.25">
+      <c r="A498" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B498" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C498" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D498" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E498" s="2">
+        <v>1</v>
+      </c>
+      <c r="F498" s="3">
+        <v>1</v>
+      </c>
+      <c r="G498" s="3">
+        <v>0</v>
+      </c>
+      <c r="H498" s="3">
+        <v>0</v>
+      </c>
+      <c r="I498" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:9" ht="20.25">
+      <c r="A499" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B499" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C499" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D499" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E499" s="2">
+        <v>1</v>
+      </c>
+      <c r="F499" s="3">
+        <v>1</v>
+      </c>
+      <c r="G499" s="3">
+        <v>1</v>
+      </c>
+      <c r="H499" s="3">
+        <v>0</v>
+      </c>
+      <c r="I499" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:9" ht="20.25">
+      <c r="A500" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B500" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C500" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D500" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E500" s="2">
+        <v>1</v>
+      </c>
+      <c r="F500" s="3">
+        <v>1</v>
+      </c>
+      <c r="G500" s="3">
+        <v>0</v>
+      </c>
+      <c r="H500" s="3">
+        <v>0</v>
+      </c>
+      <c r="I500" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:9" ht="20.25">
+      <c r="A501" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B501" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C501" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D501" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E501" s="2">
+        <v>1</v>
+      </c>
+      <c r="F501" s="3">
+        <v>1</v>
+      </c>
+      <c r="G501" s="3">
+        <v>0</v>
+      </c>
+      <c r="H501" s="3">
+        <v>0</v>
+      </c>
+      <c r="I501" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:9" ht="20.25">
+      <c r="A502" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B502" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C502" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D502" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E502" s="2">
+        <v>1</v>
+      </c>
+      <c r="F502" s="3">
+        <v>1</v>
+      </c>
+      <c r="G502" s="3">
+        <v>0</v>
+      </c>
+      <c r="H502" s="3">
+        <v>0</v>
+      </c>
+      <c r="I502" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:9" ht="20.25">
+      <c r="A503" s="1">
+        <v>44088</v>
+      </c>
+      <c r="B503" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C503" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E503" s="2">
+        <v>1</v>
+      </c>
+      <c r="F503" s="3">
+        <v>1</v>
+      </c>
+      <c r="G503" s="3">
+        <v>1</v>
+      </c>
+      <c r="H503" s="3">
+        <v>0</v>
+      </c>
+      <c r="I503" s="3">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:9" ht="20.25">
+      <c r="A504" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B504" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C504" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D504" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E504" s="2">
+        <v>1</v>
+      </c>
+      <c r="F504" s="3">
+        <v>1</v>
+      </c>
+      <c r="G504" s="3">
+        <v>1</v>
+      </c>
+      <c r="H504" s="3">
+        <v>0</v>
+      </c>
+      <c r="I504" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:9" ht="20.25">
+      <c r="A505" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B505" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C505" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D505" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E505" s="2">
+        <v>1</v>
+      </c>
+      <c r="F505" s="3">
+        <v>1</v>
+      </c>
+      <c r="G505" s="3">
+        <v>1</v>
+      </c>
+      <c r="H505" s="3">
+        <v>0</v>
+      </c>
+      <c r="I505" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:9" ht="20.25">
+      <c r="A506" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B506" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C506" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D506" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E506" s="2">
+        <v>1</v>
+      </c>
+      <c r="F506" s="3">
+        <v>1</v>
+      </c>
+      <c r="G506" s="3">
+        <v>1</v>
+      </c>
+      <c r="H506" s="3">
+        <v>0</v>
+      </c>
+      <c r="I506" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="507" spans="1:9" ht="20.25">
+      <c r="A507" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B507" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C507" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D507" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E507" s="2">
+        <v>1</v>
+      </c>
+      <c r="F507" s="3">
+        <v>1</v>
+      </c>
+      <c r="G507" s="3">
+        <v>1</v>
+      </c>
+      <c r="H507" s="3">
+        <v>0</v>
+      </c>
+      <c r="I507" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:9" ht="20.25">
+      <c r="A508" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B508" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C508" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D508" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E508" s="2">
+        <v>1</v>
+      </c>
+      <c r="F508" s="3">
+        <v>1</v>
+      </c>
+      <c r="G508" s="3">
+        <v>1</v>
+      </c>
+      <c r="H508" s="3">
+        <v>0</v>
+      </c>
+      <c r="I508" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:9" ht="20.25">
+      <c r="A509" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B509" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C509" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D509" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E509" s="2">
+        <v>1</v>
+      </c>
+      <c r="F509" s="3">
+        <v>1</v>
+      </c>
+      <c r="G509" s="3">
+        <v>0</v>
+      </c>
+      <c r="H509" s="3">
+        <v>0</v>
+      </c>
+      <c r="I509" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="510" spans="1:9" ht="20.25">
+      <c r="A510" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B510" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C510" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D510" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E510" s="2">
+        <v>1</v>
+      </c>
+      <c r="F510" s="3">
+        <v>1</v>
+      </c>
+      <c r="G510" s="3">
+        <v>0</v>
+      </c>
+      <c r="H510" s="3">
+        <v>0</v>
+      </c>
+      <c r="I510" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="511" spans="1:9" ht="20.25">
+      <c r="A511" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B511" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C511" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D511" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E511" s="2">
+        <v>1</v>
+      </c>
+      <c r="F511" s="3">
+        <v>1</v>
+      </c>
+      <c r="G511" s="3">
+        <v>1</v>
+      </c>
+      <c r="H511" s="3">
+        <v>0</v>
+      </c>
+      <c r="I511" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="512" spans="1:9" ht="20.25">
+      <c r="A512" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B512" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C512" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D512" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E512" s="2">
+        <v>1</v>
+      </c>
+      <c r="F512" s="3">
+        <v>1</v>
+      </c>
+      <c r="G512" s="3">
+        <v>0</v>
+      </c>
+      <c r="H512" s="3">
+        <v>0</v>
+      </c>
+      <c r="I512" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:9" ht="20.25">
+      <c r="A513" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B513" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C513" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D513" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E513" s="2">
+        <v>1</v>
+      </c>
+      <c r="F513" s="3">
+        <v>1</v>
+      </c>
+      <c r="G513" s="3">
+        <v>0</v>
+      </c>
+      <c r="H513" s="3">
+        <v>0</v>
+      </c>
+      <c r="I513" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="514" spans="1:9" ht="20.25">
+      <c r="A514" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B514" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C514" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D514" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E514" s="2">
+        <v>1</v>
+      </c>
+      <c r="F514" s="3">
+        <v>1</v>
+      </c>
+      <c r="G514" s="3">
+        <v>0</v>
+      </c>
+      <c r="H514" s="3">
+        <v>0</v>
+      </c>
+      <c r="I514" s="3">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="515" spans="1:9" ht="20.25">
+      <c r="A515" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B515" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C515" s="1">
+        <v>44088</v>
+      </c>
+      <c r="D515" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E515" s="2">
+        <v>1</v>
+      </c>
+      <c r="F515" s="3">
+        <v>1</v>
+      </c>
+      <c r="G515" s="3">
+        <v>1</v>
+      </c>
+      <c r="H515" s="3">
+        <v>0</v>
+      </c>
+      <c r="I515" s="3">
+        <f t="shared" ref="I515:I537" si="8">A515-B515</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:9" ht="20.25">
+      <c r="A516" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B516" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C516" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D516" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E516" s="2">
+        <v>1</v>
+      </c>
+      <c r="F516" s="3">
+        <v>1</v>
+      </c>
+      <c r="G516" s="3">
+        <v>0</v>
+      </c>
+      <c r="H516" s="3">
+        <v>0</v>
+      </c>
+      <c r="I516" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:9" ht="20.25">
+      <c r="A517" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B517" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C517" s="1">
+        <v>44085</v>
+      </c>
+      <c r="D517" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E517" s="2">
+        <v>1</v>
+      </c>
+      <c r="F517" s="3">
+        <v>1</v>
+      </c>
+      <c r="G517" s="3">
+        <v>0</v>
+      </c>
+      <c r="H517" s="3">
+        <v>0</v>
+      </c>
+      <c r="I517" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:9" ht="20.25">
+      <c r="A518" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B518" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C518" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D518" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E518" s="2">
+        <v>1</v>
+      </c>
+      <c r="F518" s="3">
+        <v>1</v>
+      </c>
+      <c r="G518" s="3">
+        <v>1</v>
+      </c>
+      <c r="H518" s="3">
+        <v>0</v>
+      </c>
+      <c r="I518" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:9" ht="20.25">
+      <c r="A519" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B519" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C519" s="1">
+        <v>44081</v>
+      </c>
+      <c r="D519" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E519" s="2">
+        <v>1</v>
+      </c>
+      <c r="F519" s="3">
+        <v>1</v>
+      </c>
+      <c r="G519" s="3">
+        <v>0</v>
+      </c>
+      <c r="H519" s="3">
+        <v>0</v>
+      </c>
+      <c r="I519" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:9" ht="20.25">
+      <c r="A520" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B520" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C520" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D520" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E520" s="2">
+        <v>1</v>
+      </c>
+      <c r="F520" s="3">
+        <v>1</v>
+      </c>
+      <c r="G520" s="3">
+        <v>0</v>
+      </c>
+      <c r="H520" s="3">
+        <v>0</v>
+      </c>
+      <c r="I520" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:9" ht="20.25">
+      <c r="A521" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B521" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C521" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D521" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E521" s="2">
+        <v>1</v>
+      </c>
+      <c r="F521" s="3">
+        <v>1</v>
+      </c>
+      <c r="G521" s="3">
+        <v>0</v>
+      </c>
+      <c r="H521" s="3">
+        <v>0</v>
+      </c>
+      <c r="I521" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:9" ht="20.25">
+      <c r="A522" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B522" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C522" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D522" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E522" s="2">
+        <v>1</v>
+      </c>
+      <c r="F522" s="3">
+        <v>1</v>
+      </c>
+      <c r="G522" s="3">
+        <v>1</v>
+      </c>
+      <c r="H522" s="3">
+        <v>0</v>
+      </c>
+      <c r="I522" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:9" ht="20.25">
+      <c r="A523" s="1">
+        <v>44089</v>
+      </c>
+      <c r="B523" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C523" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D523" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E523" s="2">
+        <v>1</v>
+      </c>
+      <c r="F523" s="3">
+        <v>1</v>
+      </c>
+      <c r="G523" s="3">
+        <v>0</v>
+      </c>
+      <c r="H523" s="3">
+        <v>0</v>
+      </c>
+      <c r="I523" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:9" ht="20.25">
+      <c r="A524" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B524" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C524" s="1">
+        <v>44083</v>
+      </c>
+      <c r="D524" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E524" s="2">
+        <v>1</v>
+      </c>
+      <c r="F524" s="3">
+        <v>1</v>
+      </c>
+      <c r="G524" s="3">
+        <v>1</v>
+      </c>
+      <c r="H524" s="3">
+        <v>0</v>
+      </c>
+      <c r="I524" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="525" spans="1:9" ht="20.25">
+      <c r="A525" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B525" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C525" s="1">
+        <v>44089</v>
+      </c>
+      <c r="D525" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E525" s="2">
+        <v>1</v>
+      </c>
+      <c r="F525" s="3">
+        <v>1</v>
+      </c>
+      <c r="G525" s="3">
+        <v>1</v>
+      </c>
+      <c r="H525" s="3">
+        <v>0</v>
+      </c>
+      <c r="I525" s="3">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="526" spans="1:9" ht="20.25">
+      <c r="A526" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B526" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C526" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D526" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E526" s="2">
+        <v>1</v>
+      </c>
+      <c r="F526" s="3">
+        <v>1</v>
+      </c>
+      <c r="G526" s="3">
+        <v>0</v>
+      </c>
+      <c r="H526" s="3">
+        <v>0</v>
+      </c>
+      <c r="I526" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:9" ht="20.25">
+      <c r="A527" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B527" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C527" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D527" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E527" s="2">
+        <v>1</v>
+      </c>
+      <c r="F527" s="3">
+        <v>1</v>
+      </c>
+      <c r="G527" s="3">
+        <v>0</v>
+      </c>
+      <c r="H527" s="3">
+        <v>0</v>
+      </c>
+      <c r="I527" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:9" ht="20.25">
+      <c r="A528" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B528" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C528" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D528" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E528" s="2">
+        <v>1</v>
+      </c>
+      <c r="F528" s="3">
+        <v>1</v>
+      </c>
+      <c r="G528" s="3">
+        <v>0</v>
+      </c>
+      <c r="H528" s="3">
+        <v>0</v>
+      </c>
+      <c r="I528" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:9" ht="20.25">
+      <c r="A529" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B529" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C529" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D529" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E529" s="2">
+        <v>1</v>
+      </c>
+      <c r="F529" s="3">
+        <v>1</v>
+      </c>
+      <c r="G529" s="3">
+        <v>0</v>
+      </c>
+      <c r="H529" s="3">
+        <v>0</v>
+      </c>
+      <c r="I529" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:9" ht="20.25">
+      <c r="A530" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B530" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C530" s="1">
+        <v>44077</v>
+      </c>
+      <c r="D530" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E530" s="2">
+        <v>1</v>
+      </c>
+      <c r="F530" s="3">
+        <v>1</v>
+      </c>
+      <c r="G530" s="3">
+        <v>0</v>
+      </c>
+      <c r="H530" s="3">
+        <v>0</v>
+      </c>
+      <c r="I530" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:9" ht="20.25">
+      <c r="A531" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B531" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C531" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D531" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E531" s="2">
+        <v>1</v>
+      </c>
+      <c r="F531" s="3">
+        <v>1</v>
+      </c>
+      <c r="G531" s="3">
+        <v>1</v>
+      </c>
+      <c r="H531" s="3">
+        <v>0</v>
+      </c>
+      <c r="I531" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:9" ht="20.25">
+      <c r="A532" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B532" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C532" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D532" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E532" s="2">
+        <v>1</v>
+      </c>
+      <c r="F532" s="3">
+        <v>1</v>
+      </c>
+      <c r="G532" s="3">
+        <v>0</v>
+      </c>
+      <c r="H532" s="3">
+        <v>0</v>
+      </c>
+      <c r="I532" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:9" ht="20.25">
+      <c r="A533" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B533" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C533" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D533" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E533" s="2">
+        <v>1</v>
+      </c>
+      <c r="F533" s="3">
+        <v>1</v>
+      </c>
+      <c r="G533" s="3">
+        <v>0</v>
+      </c>
+      <c r="H533" s="3">
+        <v>0</v>
+      </c>
+      <c r="I533" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:9" ht="20.25">
+      <c r="A534" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B534" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C534" s="1">
+        <v>44090</v>
+      </c>
+      <c r="D534" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E534" s="2">
+        <v>1</v>
+      </c>
+      <c r="F534" s="3">
+        <v>1</v>
+      </c>
+      <c r="G534" s="3">
+        <v>0</v>
+      </c>
+      <c r="H534" s="3">
+        <v>0</v>
+      </c>
+      <c r="I534" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:9" ht="20.25">
+      <c r="A535" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B535" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C535" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D535" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E535" s="2">
+        <v>1</v>
+      </c>
+      <c r="F535" s="3">
+        <v>1</v>
+      </c>
+      <c r="G535" s="3">
+        <v>0</v>
+      </c>
+      <c r="H535" s="3">
+        <v>0</v>
+      </c>
+      <c r="I535" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:9" ht="20.25">
+      <c r="A536" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B536" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C536" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D536" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E536" s="2">
+        <v>1</v>
+      </c>
+      <c r="F536" s="3">
+        <v>1</v>
+      </c>
+      <c r="G536" s="3">
+        <v>0</v>
+      </c>
+      <c r="H536" s="3">
+        <v>0</v>
+      </c>
+      <c r="I536" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:9" ht="20.25">
+      <c r="A537" s="1">
+        <v>44090</v>
+      </c>
+      <c r="B537" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C537" s="1">
+        <v>44086</v>
+      </c>
+      <c r="D537" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E537" s="2">
+        <v>1</v>
+      </c>
+      <c r="F537" s="3">
+        <v>1</v>
+      </c>
+      <c r="G537" s="3">
+        <v>0</v>
+      </c>
+      <c r="H537" s="3">
+        <v>0</v>
+      </c>
+      <c r="I537" s="3">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
